--- a/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>0.001485116185989042</v>
+        <v>0.001424441565985998</v>
       </c>
       <c r="F2">
         <v>0.5045657916283222</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
       <c r="E3">
-        <v>0.001390741538164531</v>
+        <v>0.001372913725065856</v>
       </c>
       <c r="F3">
         <v>0.5179292841918973</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>99</v>
       </c>
       <c r="E4">
-        <v>0.001391974318457245</v>
+        <v>0.001350453340344121</v>
       </c>
       <c r="F4">
         <v>0.5132167280955345</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>95</v>
       </c>
       <c r="E5">
-        <v>0.001896362468320634</v>
+        <v>0.001884271757899121</v>
       </c>
       <c r="F5">
         <v>0.5319353490197221</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>96</v>
       </c>
       <c r="E6">
-        <v>0.001082704053129452</v>
+        <v>0.001077945496345049</v>
       </c>
       <c r="F6">
         <v>0.5227675702305519</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>115</v>
       </c>
       <c r="E2">
-        <v>0.001485116185989042</v>
+        <v>0.001424441565985998</v>
       </c>
       <c r="F2">
         <v>0.7074288995215805</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>115</v>
       </c>
       <c r="E3">
-        <v>0.001390741538164531</v>
+        <v>0.001372913725065856</v>
       </c>
       <c r="F3">
         <v>0.7008623218066321</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.001391974318457245</v>
+        <v>0.001350453340344121</v>
       </c>
       <c r="F4">
         <v>0.717089211170772</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>115</v>
       </c>
       <c r="E5">
-        <v>0.001896362468320634</v>
+        <v>0.001884271757899121</v>
       </c>
       <c r="F5">
         <v>0.7020081676479972</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>116</v>
       </c>
       <c r="E6">
-        <v>0.001082704053129452</v>
+        <v>0.001077945496345049</v>
       </c>
       <c r="F6">
         <v>0.7130612036275958</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>125</v>
       </c>
       <c r="E2">
-        <v>0.001485116185989042</v>
+        <v>0.001424441565985998</v>
       </c>
       <c r="F2">
         <v>0.8036978041431254</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>129</v>
       </c>
       <c r="E3">
-        <v>0.001390741538164531</v>
+        <v>0.001372913725065856</v>
       </c>
       <c r="F3">
         <v>0.8072857066894966</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>125</v>
       </c>
       <c r="E4">
-        <v>0.001391974318457245</v>
+        <v>0.001350453340344121</v>
       </c>
       <c r="F4">
         <v>0.8022581302203633</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.001896362468320634</v>
+        <v>0.001884271757899121</v>
       </c>
       <c r="F5">
         <v>0.8011692799138505</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>134</v>
       </c>
       <c r="E6">
-        <v>0.001082704053129452</v>
+        <v>0.001077945496345049</v>
       </c>
       <c r="F6">
         <v>0.8000078192987656</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.001485116185989042</v>
+        <v>0.001424441565985998</v>
       </c>
       <c r="F2">
         <v>0.9004953389909515</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>0.001390741538164531</v>
+        <v>0.001372913725065856</v>
       </c>
       <c r="F3">
         <v>0.9025655383137496</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.001391974318457245</v>
+        <v>0.001350453340344121</v>
       </c>
       <c r="F4">
         <v>0.9002576088061839</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5">
-        <v>0.001896362468320634</v>
+        <v>0.001884271757899121</v>
       </c>
       <c r="F5">
         <v>0.9003311215977426</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>0.001082704053129452</v>
+        <v>0.001077945496345049</v>
       </c>
       <c r="F6">
         <v>0.9022924692178926</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>63</v>

--- a/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.08488269846865E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.800789809081226E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.069189166072616E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.528703752211176E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.29664315732417E-05</v>
+        <v>9.241725950111762E-07</v>
       </c>
       <c r="G2">
-        <v>1.310095956881404E-05</v>
+        <v>1.05898162737528E-06</v>
       </c>
       <c r="H2">
-        <v>1.090842664097588E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.204418560359516E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.15324616204373E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.165331097083244E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.349495522672116E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.614843681026284E-07</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.186982362195742E-07</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.580242750514897E-07</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.680859580115888E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.847990439177926E-05</v>
+        <v>6.449163378309842E-06</v>
       </c>
       <c r="R2">
-        <v>1.978361234887091E-05</v>
+        <v>7.755594857000815E-06</v>
       </c>
       <c r="S2">
-        <v>1.945351835973515E-05</v>
+        <v>7.424811282360623E-06</v>
       </c>
       <c r="T2">
-        <v>3.438490886830503E-05</v>
+        <v>2.238739433243244E-05</v>
       </c>
       <c r="U2">
-        <v>4.900533838710945E-05</v>
+        <v>3.703836677718067E-05</v>
       </c>
       <c r="V2">
-        <v>6.115495298723468E-05</v>
+        <v>4.921336262746002E-05</v>
       </c>
       <c r="W2">
-        <v>6.440237288035382E-05</v>
+        <v>5.246756656924041E-05</v>
       </c>
       <c r="X2">
-        <v>7.368593757480803E-05</v>
+        <v>6.177052516922884E-05</v>
       </c>
       <c r="Y2">
-        <v>5.97066230349029E-05</v>
+        <v>4.776200702978592E-05</v>
       </c>
       <c r="Z2">
-        <v>4.796747342126823E-05</v>
+        <v>3.599833365118036E-05</v>
       </c>
       <c r="AA2">
-        <v>4.567289849678854E-05</v>
+        <v>3.369896522648916E-05</v>
       </c>
       <c r="AB2">
-        <v>4.294478458657771E-05</v>
+        <v>3.096515212795977E-05</v>
       </c>
       <c r="AC2">
-        <v>2.41440802053568E-05</v>
+        <v>1.212517198395306E-05</v>
       </c>
       <c r="AD2">
-        <v>2.011647933791541E-05</v>
+        <v>8.089157224507519E-06</v>
       </c>
       <c r="AE2">
-        <v>1.816091940227787E-05</v>
+        <v>6.129512010649111E-06</v>
       </c>
       <c r="AF2">
-        <v>4.976196436220696E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.280259857863386E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.139726762488688E-08</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.523969916929719E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.115595713282903E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.08824033127069E-05</v>
+        <v>8.856681258942299E-06</v>
       </c>
       <c r="AL2">
-        <v>1.872741538363304E-05</v>
+        <v>6.697191434992996E-06</v>
       </c>
       <c r="AM2">
-        <v>3.04696099971675E-05</v>
+        <v>1.846391617467989E-05</v>
       </c>
       <c r="AN2">
-        <v>3.088237498358235E-05</v>
+        <v>1.887754345111132E-05</v>
       </c>
       <c r="AO2">
-        <v>2.105302930709116E-05</v>
+        <v>9.027663700933239E-06</v>
       </c>
       <c r="AP2">
-        <v>2.071246931829986E-05</v>
+        <v>8.686392262556702E-06</v>
       </c>
       <c r="AQ2">
-        <v>1.549413349004859E-05</v>
+        <v>3.457155027848994E-06</v>
       </c>
       <c r="AR2">
-        <v>1.378400554633326E-05</v>
+        <v>1.743454527590628E-06</v>
       </c>
       <c r="AS2">
-        <v>5.711389812023608E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>9.367163691702776E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.022377366350956E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>6.638203181519819E-07</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>3.115061497475389E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.370939854878876E-05</v>
+        <v>1.668691671697518E-06</v>
       </c>
       <c r="AY2">
-        <v>3.160302295986399E-05</v>
+        <v>1.959969690284721E-05</v>
       </c>
       <c r="AZ2">
-        <v>2.893845904756158E-05</v>
+        <v>1.692956656186079E-05</v>
       </c>
       <c r="BA2">
-        <v>3.07706589872592E-05</v>
+        <v>1.876559407358702E-05</v>
       </c>
       <c r="BB2">
-        <v>3.751200576538431E-05</v>
+        <v>2.55210239164498E-05</v>
       </c>
       <c r="BC2">
-        <v>4.030067667360204E-05</v>
+        <v>2.831552052007011E-05</v>
       </c>
       <c r="BD2">
-        <v>2.582007215019564E-05</v>
+        <v>1.380466517325176E-05</v>
       </c>
       <c r="BE2">
-        <v>1.864043738649571E-05</v>
+        <v>6.610031735770792E-06</v>
       </c>
       <c r="BF2">
-        <v>1.832006439704E-05</v>
+        <v>6.288989468543265E-06</v>
       </c>
       <c r="BG2">
-        <v>9.419697689973748E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>3.049641599628525E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>4.256201359917568E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.117164563231268E-06</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>3.718635477610231E-07</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>9.124692699683113E-07</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.360733523564601E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.392269854176852E-05</v>
+        <v>1.882437260744132E-06</v>
       </c>
       <c r="BO2">
-        <v>7.943230738568036E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.593728447546336E-05</v>
+        <v>3.90123178139609E-06</v>
       </c>
       <c r="BQ2">
-        <v>1.078570164501508E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1.448440952328118E-05</v>
+        <v>2.445321689103076E-06</v>
       </c>
       <c r="BS2">
-        <v>1.310095956881404E-05</v>
+        <v>1.05898162737528E-06</v>
       </c>
       <c r="BT2">
-        <v>1.191521260783999E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.128076462872129E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>9.712425680339323E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>7.225096762203656E-06</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.840629139420205E-05</v>
+        <v>6.375396598907645E-06</v>
       </c>
       <c r="BY2">
-        <v>1.608639247055584E-05</v>
+        <v>4.050651271745659E-06</v>
       </c>
       <c r="BZ2">
-        <v>9.828901676505802E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>7.426807055564856E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>5.021184834740013E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.478832051327869E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>3.394277588285676E-07</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>9.28916169427002E-07</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>8.242982728702435E-07</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.545730449126072E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>8.856548708508415E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.615521246829079E-05</v>
+        <v>4.119615038450714E-06</v>
       </c>
       <c r="CJ2">
-        <v>1.645614545838632E-05</v>
+        <v>4.421176695030951E-06</v>
       </c>
       <c r="CK2">
-        <v>2.600976314395242E-05</v>
+        <v>1.399475244250559E-05</v>
       </c>
       <c r="CL2">
-        <v>2.563107315641607E-05</v>
+        <v>1.361527134960328E-05</v>
       </c>
       <c r="CM2">
-        <v>3.504354684662758E-05</v>
+        <v>2.304740824372398E-05</v>
       </c>
       <c r="CN2">
-        <v>0.03852125473216735</v>
+        <v>0.038589658522758</v>
       </c>
       <c r="CO2">
-        <v>0.08262776728050965</v>
+        <v>0.08278831213608551</v>
       </c>
       <c r="CP2">
-        <v>0.2812585407430648</v>
+        <v>0.281834036814419</v>
       </c>
       <c r="CQ2">
-        <v>0.08253632728351917</v>
+        <v>0.08269668111563346</v>
       </c>
       <c r="CR2">
-        <v>0.01813678540307218</v>
+        <v>0.01816260485396735</v>
       </c>
       <c r="CS2">
-        <v>0.01649461445712021</v>
+        <v>0.01651700331758542</v>
       </c>
       <c r="CT2">
-        <v>0.0002711007710773829</v>
+        <v>0.0002595977697184233</v>
       </c>
       <c r="CU2">
-        <v>0.0117206846142424</v>
+        <v>0.01173310045815126</v>
       </c>
       <c r="CV2">
-        <v>0.00838319572408767</v>
+        <v>0.008388639359972184</v>
       </c>
       <c r="CW2">
-        <v>0.0006517842785481186</v>
+        <v>0.0006410765471339822</v>
       </c>
       <c r="CX2">
-        <v>0.008279323727506359</v>
+        <v>0.008284550368760508</v>
       </c>
       <c r="CY2">
-        <v>0.01224909359685112</v>
+        <v>0.01226261331779745</v>
       </c>
       <c r="CZ2">
-        <v>0.04111594864676937</v>
+        <v>0.04118977290356304</v>
       </c>
       <c r="DA2">
-        <v>0.002133728929773544</v>
+        <v>0.002126117066758964</v>
       </c>
       <c r="DB2">
-        <v>6.426487788487912E-05</v>
+        <v>5.232978433873894E-05</v>
       </c>
       <c r="DC2">
-        <v>0.0002641152413072944</v>
+        <v>0.0002525976467711528</v>
       </c>
       <c r="DD2">
-        <v>0.003129854496988513</v>
+        <v>0.00312432359810642</v>
       </c>
       <c r="DE2">
-        <v>0.0004267201459555527</v>
+        <v>0.0004155422425040256</v>
       </c>
       <c r="DF2">
-        <v>0.001850281739102513</v>
+        <v>0.001842077738453228</v>
       </c>
       <c r="DG2">
-        <v>0.02365933922131086</v>
+        <v>0.02369669560770265</v>
       </c>
       <c r="DH2">
-        <v>0.003925324870807557</v>
+        <v>0.00392145575571142</v>
       </c>
       <c r="DI2">
-        <v>0.02001997934109147</v>
+        <v>0.02004973289343782</v>
       </c>
       <c r="DJ2">
-        <v>0.0007980767737332599</v>
+        <v>0.0007876746558334753</v>
       </c>
       <c r="DK2">
-        <v>0.03143227896548361</v>
+        <v>0.0314858734742005</v>
       </c>
       <c r="DL2">
-        <v>0.01599339747361654</v>
+        <v>0.01601473926270882</v>
       </c>
       <c r="DM2">
-        <v>0.0201678793362237</v>
+        <v>0.02019794186024511</v>
       </c>
       <c r="DN2">
-        <v>0.002898719104595768</v>
+        <v>0.00289270535046214</v>
       </c>
       <c r="DO2">
-        <v>0.02420697320328683</v>
+        <v>0.02424547362885573</v>
       </c>
       <c r="DP2">
-        <v>0.003145592896470523</v>
+        <v>0.003140094876018522</v>
       </c>
       <c r="DQ2">
-        <v>0.01485759451099871</v>
+        <v>0.01487656354177158</v>
       </c>
       <c r="DR2">
-        <v>0.0002412917320584743</v>
+        <v>0.0002297264578866648</v>
       </c>
       <c r="DS2">
-        <v>0.0005331181324537238</v>
+        <v>0.000522162500572126</v>
       </c>
       <c r="DT2">
-        <v>0.02038542932906358</v>
+        <v>0.02041594632764825</v>
       </c>
       <c r="DU2">
-        <v>0.003471278885751367</v>
+        <v>0.003466461242236223</v>
       </c>
       <c r="DV2">
-        <v>0.006361027490642377</v>
+        <v>0.006362246699705464</v>
       </c>
       <c r="DW2">
-        <v>4.967013836522918E-05</v>
+        <v>3.770455556104465E-05</v>
       </c>
       <c r="DX2">
-        <v>0.003794619175109414</v>
+        <v>0.003790477008227827</v>
       </c>
       <c r="DY2">
-        <v>0.001031406866053772</v>
+        <v>0.001021492188261068</v>
       </c>
       <c r="DZ2">
-        <v>0.009297316694001617</v>
+        <v>0.009304669981654697</v>
       </c>
       <c r="EA2">
-        <v>0.0001716863543493646</v>
+        <v>0.0001599756705031043</v>
       </c>
       <c r="EB2">
-        <v>0.004470675552858677</v>
+        <v>0.004467945706993574</v>
       </c>
       <c r="EC2">
-        <v>0.001422421953184469</v>
+        <v>0.00141332412860622</v>
       </c>
       <c r="ED2">
-        <v>0.0008542558718842626</v>
+        <v>0.0008439711153815704</v>
       </c>
       <c r="EE2">
-        <v>0.003775041875753753</v>
+        <v>0.003770858810757399</v>
       </c>
       <c r="EF2">
-        <v>9.188967697567659E-08</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001025432066250418</v>
+        <v>0.001015504906754103</v>
       </c>
       <c r="EH2">
-        <v>0.01182175461091593</v>
+        <v>0.0118343815959147</v>
       </c>
       <c r="EI2">
-        <v>0.003102812397878538</v>
+        <v>0.003097225006481679</v>
       </c>
       <c r="EJ2">
-        <v>0.006060166800544469</v>
+        <v>0.006060757494161737</v>
       </c>
       <c r="EK2">
-        <v>0.005915994805289537</v>
+        <v>0.005916284315239898</v>
       </c>
       <c r="EL2">
-        <v>0.007147742764749573</v>
+        <v>0.007150605467687105</v>
       </c>
       <c r="EM2">
-        <v>0.009098832700534232</v>
+        <v>0.009105771343603464</v>
       </c>
       <c r="EN2">
-        <v>0.000130130035717089</v>
+        <v>0.0001183325383089664</v>
       </c>
       <c r="EO2">
-        <v>0.0001297053157310676</v>
+        <v>0.0001179069310582403</v>
       </c>
       <c r="EP2">
-        <v>5.111438231769544E-05</v>
+        <v>3.915181662296233E-05</v>
       </c>
       <c r="EQ2">
-        <v>0.00271813381053929</v>
+        <v>0.002711742803243858</v>
       </c>
       <c r="ER2">
-        <v>0.01002606567001663</v>
+        <v>0.01003494135658265</v>
       </c>
       <c r="ES2">
-        <v>0.0005557225517097548</v>
+        <v>0.0005448141417721123</v>
       </c>
       <c r="ET2">
-        <v>0.000528362282610251</v>
+        <v>0.0005173967154822651</v>
       </c>
       <c r="EU2">
-        <v>0.0005663136813611737</v>
+        <v>0.0005554273969081613</v>
       </c>
       <c r="EV2">
-        <v>0.003966380269456319</v>
+        <v>0.003962596921471121</v>
       </c>
       <c r="EW2">
-        <v>0.0009401751090564416</v>
+        <v>0.0009300698428275969</v>
       </c>
       <c r="EX2">
-        <v>0.002326296523435654</v>
+        <v>0.002319086945302297</v>
       </c>
       <c r="EY2">
-        <v>0.002631414113393456</v>
+        <v>0.002624841943616827</v>
       </c>
       <c r="EZ2">
-        <v>0.001425234253091909</v>
+        <v>0.001416142303571413</v>
       </c>
       <c r="FA2">
-        <v>0.00014789678513234</v>
+        <v>0.0001361364034950608</v>
       </c>
       <c r="FB2">
-        <v>0.001614667546857177</v>
+        <v>0.001605971334483481</v>
       </c>
       <c r="FC2">
-        <v>0.0007559714751190525</v>
+        <v>0.0007454813968063566</v>
       </c>
       <c r="FD2">
-        <v>0.0009964530672041906</v>
+        <v>0.00098646536889671</v>
       </c>
       <c r="FE2">
-        <v>0.001090879364096381</v>
+        <v>0.001081088927804316</v>
       </c>
       <c r="FF2">
-        <v>0.01215220460003998</v>
+        <v>0.01216552191424781</v>
       </c>
       <c r="FG2">
-        <v>0.007434086155325282</v>
+        <v>0.007437547046227237</v>
       </c>
       <c r="FH2">
-        <v>2.451166319325871E-05</v>
+        <v>1.249352287405396E-05</v>
       </c>
       <c r="FI2">
-        <v>0.001348912655603848</v>
+        <v>0.001339661265835923</v>
       </c>
       <c r="FJ2">
-        <v>0.001094007863993414</v>
+        <v>0.001084223963319235</v>
       </c>
       <c r="FK2">
-        <v>0.0007524307352355873</v>
+        <v>0.0007419332601117437</v>
       </c>
       <c r="FL2">
-        <v>0.004835458840852729</v>
+        <v>0.004833491048450995</v>
       </c>
       <c r="FM2">
-        <v>0.001899556737480748</v>
+        <v>0.001891455675163363</v>
       </c>
       <c r="FN2">
-        <v>0.000700218226954034</v>
+        <v>0.000689611676869586</v>
       </c>
       <c r="FO2">
-        <v>0.001383343954470626</v>
+        <v>0.001374164493684684</v>
       </c>
       <c r="FP2">
-        <v>0.002810208707508871</v>
+        <v>0.002804010050017924</v>
       </c>
       <c r="FQ2">
-        <v>5.658139513776212E-05</v>
+        <v>4.463025035015642E-05</v>
       </c>
       <c r="FR2">
-        <v>0.002239064926306668</v>
+        <v>0.002231673116303335</v>
       </c>
       <c r="FS2">
-        <v>0.0001474439551472437</v>
+        <v>0.0001356826275218401</v>
       </c>
       <c r="FT2">
-        <v>0.0009465156188477593</v>
+        <v>0.0009364235983119191</v>
       </c>
       <c r="FU2">
-        <v>3.139388896674712E-05</v>
+        <v>1.939012601667902E-05</v>
       </c>
       <c r="FV2">
-        <v>0.007887377740406301</v>
+        <v>0.007891785583741923</v>
       </c>
       <c r="FW2">
-        <v>0.003119439697331291</v>
+        <v>0.003113887041328161</v>
       </c>
       <c r="FX2">
-        <v>0.0009476623688100168</v>
+        <v>0.0009375727439014138</v>
       </c>
       <c r="FY2">
-        <v>0.0007190782763333018</v>
+        <v>0.0007085111259867853</v>
       </c>
       <c r="FZ2">
-        <v>0.003339639290083961</v>
+        <v>0.003334546643812122</v>
       </c>
       <c r="GA2">
-        <v>1.071971864718675E-05</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001395845254059176</v>
+        <v>0.001386691909213744</v>
       </c>
       <c r="GC2">
-        <v>0.0005640634814352336</v>
+        <v>0.0005531724961839576</v>
       </c>
       <c r="GD2">
-        <v>0.009908730673878426</v>
+        <v>0.009917361240826506</v>
       </c>
       <c r="GE2">
-        <v>0.006055700800691457</v>
+        <v>0.006056282164575792</v>
       </c>
       <c r="GF2">
-        <v>0.0001427491353017622</v>
+        <v>0.000130977999925179</v>
       </c>
       <c r="GG2">
-        <v>4.270093859460331E-05</v>
+        <v>3.072079672755349E-05</v>
       </c>
       <c r="GH2">
-        <v>0.002174300528438229</v>
+        <v>0.002166773421848339</v>
       </c>
       <c r="GI2">
-        <v>1.784471341268501E-05</v>
+        <v>5.812645448389038E-06</v>
       </c>
       <c r="GJ2">
-        <v>0.001249539158874483</v>
+        <v>0.00124008017210351</v>
       </c>
       <c r="GK2">
-        <v>0.0006366519790461612</v>
+        <v>0.0006259126353799734</v>
       </c>
       <c r="GL2">
-        <v>0.0003634729580371788</v>
+        <v>0.0003521629275387506</v>
       </c>
       <c r="GM2">
-        <v>0.003628904580563504</v>
+        <v>0.003624416226274596</v>
       </c>
       <c r="GN2">
-        <v>0.009445211689134016</v>
+        <v>0.009452873938016857</v>
       </c>
       <c r="GO2">
-        <v>0.001968379735215607</v>
+        <v>0.001960422448135492</v>
       </c>
       <c r="GP2">
-        <v>0.000103382546597417</v>
+        <v>9.152917213189921E-05</v>
       </c>
       <c r="GQ2">
-        <v>0.00171892524342579</v>
+        <v>0.001710446831432123</v>
       </c>
       <c r="GR2">
-        <v>0.003122645897225767</v>
+        <v>0.003117099939160328</v>
       </c>
       <c r="GS2">
-        <v>0.0002424507720203273</v>
+        <v>0.0002308879191502775</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.161325619456054E-05</v>
+        <v>8.106182922444415E-06</v>
       </c>
       <c r="C3">
-        <v>1.19492712001899E-05</v>
+        <v>8.442411190816283E-06</v>
       </c>
       <c r="D3">
-        <v>2.267736337992101E-05</v>
+        <v>1.917731229967776E-05</v>
       </c>
       <c r="E3">
-        <v>4.664895578152464E-07</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.196347154069298E-06</v>
+        <v>5.687739912809777E-06</v>
       </c>
       <c r="G3">
-        <v>1.982089033206561E-05</v>
+        <v>1.631902629922839E-05</v>
       </c>
       <c r="H3">
-        <v>4.150401369532981E-06</v>
+        <v>6.385915563094007E-07</v>
       </c>
       <c r="I3">
-        <v>5.845855097937451E-07</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.966598066453666E-09</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.573807110133059E-06</v>
+        <v>3.063535389392789E-06</v>
       </c>
       <c r="L3">
-        <v>3.512214858841241E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.325556822207471E-05</v>
+        <v>9.749537296166837E-06</v>
       </c>
       <c r="N3">
-        <v>5.378684490110794E-06</v>
+        <v>1.867654246318567E-06</v>
       </c>
       <c r="O3">
-        <v>2.460660441224219E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>8.502675142447993E-05</v>
+        <v>8.156627239091614E-05</v>
       </c>
       <c r="Q3">
-        <v>3.472119758169515E-05</v>
+        <v>3.122879050862151E-05</v>
       </c>
       <c r="R3">
-        <v>6.657741411539237E-06</v>
+        <v>3.147522962405913E-06</v>
       </c>
       <c r="S3">
-        <v>5.064019084839106E-05</v>
+        <v>4.715788727696187E-05</v>
       </c>
       <c r="T3">
-        <v>6.111789102392727E-05</v>
+        <v>5.764223746228075E-05</v>
       </c>
       <c r="U3">
-        <v>2.643933744294654E-05</v>
+        <v>2.294167402067233E-05</v>
       </c>
       <c r="V3">
-        <v>1.560905226150337E-05</v>
+        <v>1.210451505001978E-05</v>
       </c>
       <c r="W3">
-        <v>7.009955117439984E-05</v>
+        <v>6.662959811256383E-05</v>
       </c>
       <c r="X3">
-        <v>8.094256135605622E-07</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1.117269118717961E-05</v>
+        <v>7.665338296296023E-06</v>
       </c>
       <c r="Z3">
-        <v>3.303800355349607E-08</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>3.906777065451466E-06</v>
+        <v>3.948126282189625E-07</v>
       </c>
       <c r="AB3">
-        <v>1.675352928067715E-05</v>
+        <v>1.324971844838423E-05</v>
       </c>
       <c r="AC3">
-        <v>3.861661064695623E-05</v>
+        <v>3.512667592321092E-05</v>
       </c>
       <c r="AD3">
-        <v>1.000506416761799E-05</v>
+        <v>6.496970204650594E-06</v>
       </c>
       <c r="AE3">
-        <v>8.327271139509394E-06</v>
+        <v>4.818112311174285E-06</v>
       </c>
       <c r="AF3">
-        <v>4.406902473830224E-05</v>
+        <v>4.058255056471958E-05</v>
       </c>
       <c r="AG3">
-        <v>6.130170502700675E-05</v>
+        <v>5.782616812883582E-05</v>
       </c>
       <c r="AH3">
-        <v>4.385266073467743E-05</v>
+        <v>4.036604923871326E-05</v>
       </c>
       <c r="AI3">
-        <v>1.91011333200073E-05</v>
+        <v>1.559881247020728E-05</v>
       </c>
       <c r="AJ3">
-        <v>3.82121036401794E-05</v>
+        <v>3.472191218303772E-05</v>
       </c>
       <c r="AK3">
-        <v>6.625227110994514E-05</v>
+        <v>6.277987624793957E-05</v>
       </c>
       <c r="AL3">
-        <v>1.953139032721553E-05</v>
+        <v>1.602934255387877E-05</v>
       </c>
       <c r="AM3">
-        <v>2.345333339292108E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.055395834434693E-05</v>
+        <v>1.70525595767274E-05</v>
       </c>
       <c r="AO3">
-        <v>3.056919751213538E-05</v>
+        <v>2.70741552385294E-05</v>
       </c>
       <c r="AP3">
-        <v>4.841833081116753E-06</v>
+        <v>1.330462107291996E-06</v>
       </c>
       <c r="AQ3">
-        <v>1.190080219937788E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>7.56760812678252E-08</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>3.040001550930103E-06</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>1.225945420538649E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.385465623211142E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>2.0215223338672E-06</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>8.831899147963586E-06</v>
+        <v>5.323060598042309E-06</v>
       </c>
       <c r="AX3">
-        <v>1.061335317780885E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>4.102673368733378E-06</v>
+        <v>5.908332633973202E-07</v>
       </c>
       <c r="AZ3">
-        <v>1.02417881715839E-05</v>
+        <v>6.733844453127781E-06</v>
       </c>
       <c r="BA3">
-        <v>1.186818919883151E-05</v>
+        <v>8.36127772815501E-06</v>
       </c>
       <c r="BB3">
-        <v>3.139808452602199E-08</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>4.102673368733378E-06</v>
+        <v>5.908332633973202E-07</v>
       </c>
       <c r="BD3">
-        <v>1.186818919883151E-05</v>
+        <v>8.36127772815501E-06</v>
       </c>
       <c r="BE3">
-        <v>5.282248488495172E-06</v>
+        <v>1.771157038489424E-06</v>
       </c>
       <c r="BF3">
-        <v>2.114999735433256E-05</v>
+        <v>1.764897688206228E-05</v>
       </c>
       <c r="BG3">
-        <v>2.055066534429176E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>3.040001550930103E-06</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>2.879158148235442E-05</v>
+        <v>2.529541098749856E-05</v>
       </c>
       <c r="BJ3">
-        <v>2.409751940371333E-05</v>
+        <v>2.059836967121748E-05</v>
       </c>
       <c r="BK3">
-        <v>1.240474420782058E-05</v>
+        <v>8.898173279056809E-06</v>
       </c>
       <c r="BL3">
-        <v>2.236763037473195E-05</v>
+        <v>1.886738271246403E-05</v>
       </c>
       <c r="BM3">
-        <v>1.286873621559399E-05</v>
+        <v>9.362459774297794E-06</v>
       </c>
       <c r="BN3">
-        <v>1.431182823977056E-05</v>
+        <v>1.080646770329292E-05</v>
       </c>
       <c r="BO3">
-        <v>3.721015062339337E-05</v>
+        <v>3.371932324450819E-05</v>
       </c>
       <c r="BP3">
-        <v>6.803354113978733E-06</v>
+        <v>3.293228082635523E-06</v>
       </c>
       <c r="BQ3">
-        <v>3.003032250310744E-05</v>
+        <v>2.653493821512601E-05</v>
       </c>
       <c r="BR3">
-        <v>2.689770245062568E-05</v>
+        <v>2.340032994446226E-05</v>
       </c>
       <c r="BS3">
-        <v>5.741832496194727E-06</v>
+        <v>2.231032735977383E-06</v>
       </c>
       <c r="BT3">
-        <v>2.246447837635447E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>1.780330029826429E-07</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>2.197804036820503E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>1.92979303233043E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1.175603719695259E-05</v>
+        <v>8.249054545396972E-06</v>
       </c>
       <c r="BY3">
-        <v>1.003645016814381E-08</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>4.648491577877642E-06</v>
+        <v>1.136997893642547E-06</v>
       </c>
       <c r="CA3">
-        <v>3.472119758169515E-05</v>
+        <v>3.122879050862151E-05</v>
       </c>
       <c r="CB3">
-        <v>1.220784520452187E-05</v>
+        <v>8.701149307465802E-06</v>
       </c>
       <c r="CC3">
-        <v>1.857427431118067E-05</v>
+        <v>1.507161907334662E-05</v>
       </c>
       <c r="CD3">
-        <v>2.884063548317624E-05</v>
+        <v>2.534449612202147E-05</v>
       </c>
       <c r="CE3">
-        <v>2.211370237047782E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>1.255229521029255E-05</v>
+        <v>9.045817929523418E-06</v>
       </c>
       <c r="CG3">
-        <v>1.652457827684146E-05</v>
+        <v>1.302062213342208E-05</v>
       </c>
       <c r="CH3">
-        <v>6.09802010216205E-07</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1.532036725666694E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>2.08983003501158E-08</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>5.842357597878856E-06</v>
+        <v>2.331621639154053E-06</v>
       </c>
       <c r="CL3">
-        <v>5.357498089755852E-07</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>1.729206328969938E-05</v>
+        <v>1.378859425535528E-05</v>
       </c>
       <c r="CN3">
-        <v>0.03920424065680098</v>
+        <v>0.0392256084464526</v>
       </c>
       <c r="CO3">
-        <v>0.1073972617992601</v>
+        <v>0.107461910485493</v>
       </c>
       <c r="CP3">
-        <v>0.2310493738708429</v>
+        <v>0.2311925023514149</v>
       </c>
       <c r="CQ3">
-        <v>0.1171116719620087</v>
+        <v>0.1171824862114409</v>
       </c>
       <c r="CR3">
-        <v>0.02177599436482009</v>
+        <v>0.02178630075679906</v>
       </c>
       <c r="CS3">
-        <v>0.0214880223599956</v>
+        <v>0.02149814598126944</v>
       </c>
       <c r="CT3">
-        <v>0.0002582215243260664</v>
+        <v>0.0002548709689317371</v>
       </c>
       <c r="CU3">
-        <v>0.0127000302127676</v>
+        <v>0.01270457625186501</v>
       </c>
       <c r="CV3">
-        <v>0.00203700343412656</v>
+        <v>0.0020347818399454</v>
       </c>
       <c r="CW3">
-        <v>0.005446575691248196</v>
+        <v>0.005446518091883143</v>
       </c>
       <c r="CX3">
-        <v>0.001377694223080945</v>
+        <v>0.001375054177080226</v>
       </c>
       <c r="CY3">
-        <v>0.002097836235145711</v>
+        <v>0.002095653250460443</v>
       </c>
       <c r="CZ3">
-        <v>0.02524616642295697</v>
+        <v>0.02525867527136699</v>
       </c>
       <c r="DA3">
-        <v>0.00198142103319537</v>
+        <v>0.001979164161853789</v>
       </c>
       <c r="DB3">
-        <v>0.002537208142506647</v>
+        <v>0.002535304019349503</v>
       </c>
       <c r="DC3">
-        <v>0.001676074128079797</v>
+        <v>0.001673623458493172</v>
       </c>
       <c r="DD3">
-        <v>0.004498925075371907</v>
+        <v>0.004498266019030557</v>
       </c>
       <c r="DE3">
-        <v>0.0001201713720132688</v>
+        <v>0.0001167331986447659</v>
       </c>
       <c r="DF3">
-        <v>0.001487602824922278</v>
+        <v>0.00148503253595461</v>
       </c>
       <c r="DG3">
-        <v>0.02633998444128205</v>
+        <v>0.02635318751651669</v>
       </c>
       <c r="DH3">
-        <v>0.001919052232150486</v>
+        <v>0.00191675577644114</v>
       </c>
       <c r="DI3">
-        <v>0.02340907239217956</v>
+        <v>0.02342041526971126</v>
       </c>
       <c r="DJ3">
-        <v>0.0009561500760186831</v>
+        <v>0.0009532424834519402</v>
       </c>
       <c r="DK3">
-        <v>0.03066150551368185</v>
+        <v>0.03067745138141161</v>
       </c>
       <c r="DL3">
-        <v>0.0166943202796852</v>
+        <v>0.01670140142358374</v>
       </c>
       <c r="DM3">
-        <v>0.02117346835472578</v>
+        <v>0.02118339233417201</v>
       </c>
       <c r="DN3">
-        <v>0.0005098328085413895</v>
+        <v>0.0005066419463500943</v>
       </c>
       <c r="DO3">
-        <v>0.02955737749518405</v>
+        <v>0.02957262259251559</v>
       </c>
       <c r="DP3">
-        <v>0.0003210398053784809</v>
+        <v>0.0003177291196288761</v>
       </c>
       <c r="DQ3">
-        <v>0.01846458230934296</v>
+        <v>0.01847278700703841</v>
       </c>
       <c r="DR3">
-        <v>6.793084113806676E-05</v>
+        <v>6.445951163457698E-05</v>
       </c>
       <c r="DS3">
-        <v>1.515599225391311E-07</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.01491569024988725</v>
+        <v>0.01492164252896816</v>
       </c>
       <c r="DU3">
-        <v>0.00267041004473822</v>
+        <v>0.00266859046245723</v>
       </c>
       <c r="DV3">
-        <v>0.006130834702711804</v>
+        <v>0.006131211390360491</v>
       </c>
       <c r="DW3">
-        <v>0.0001231516020631975</v>
+        <v>0.0001197153201936547</v>
       </c>
       <c r="DX3">
-        <v>0.003056089951199637</v>
+        <v>0.003054515153089599</v>
       </c>
       <c r="DY3">
-        <v>0.00111646201870444</v>
+        <v>0.001113656173273927</v>
       </c>
       <c r="DZ3">
-        <v>0.008316363139326649</v>
+        <v>0.008318126942968379</v>
       </c>
       <c r="EA3">
-        <v>0.0002464450041287707</v>
+        <v>0.0002430869743867118</v>
       </c>
       <c r="EB3">
-        <v>0.003109940052101804</v>
+        <v>0.003108399431692196</v>
       </c>
       <c r="EC3">
-        <v>0.00159036052664381</v>
+        <v>0.001587855456160184</v>
       </c>
       <c r="ED3">
-        <v>0.001743157229203662</v>
+        <v>0.00174074913606714</v>
       </c>
       <c r="EE3">
-        <v>0.005968397099990435</v>
+        <v>0.005968670691384308</v>
       </c>
       <c r="EF3">
-        <v>3.485977558401679E-05</v>
+        <v>3.136745646393432E-05</v>
       </c>
       <c r="EG3">
-        <v>0.001314246722017989</v>
+        <v>0.001311566407017806</v>
       </c>
       <c r="EH3">
-        <v>0.01097222118382108</v>
+        <v>0.0109756706132854</v>
       </c>
       <c r="EI3">
-        <v>0.001173881319666403</v>
+        <v>0.001171111917244062</v>
       </c>
       <c r="EJ3">
-        <v>0.007430665824488284</v>
+        <v>0.007431867491811023</v>
       </c>
       <c r="EK3">
-        <v>0.00283475064749147</v>
+        <v>0.002833035369265539</v>
       </c>
       <c r="EL3">
-        <v>0.009232215154670206</v>
+        <v>0.009234560233282537</v>
       </c>
       <c r="EM3">
-        <v>0.006475375108483997</v>
+        <v>0.006475970469794893</v>
       </c>
       <c r="EN3">
-        <v>0.0007284303122036223</v>
+        <v>0.0007253781899565386</v>
       </c>
       <c r="EO3">
-        <v>0.0002071660134707174</v>
+        <v>0.0002037830540525127</v>
       </c>
       <c r="EP3">
-        <v>7.194759120536064E-05</v>
+        <v>6.84788110616344E-05</v>
       </c>
       <c r="EQ3">
-        <v>0.003754012562892154</v>
+        <v>0.00375288072383969</v>
       </c>
       <c r="ER3">
-        <v>0.01693246128367485</v>
+        <v>0.01693969357142936</v>
       </c>
       <c r="ES3">
-        <v>0.001879629731490029</v>
+        <v>0.001877308255021293</v>
       </c>
       <c r="ET3">
-        <v>0.0005442902091186651</v>
+        <v>0.0005411212164261229</v>
       </c>
       <c r="EU3">
-        <v>1.337464322406961E-05</v>
+        <v>9.868687872945789E-06</v>
       </c>
       <c r="EV3">
-        <v>0.002386644039984199</v>
+        <v>0.002384644356471451</v>
       </c>
       <c r="EW3">
-        <v>0.000263491974414364</v>
+        <v>0.0002601447640808838</v>
       </c>
       <c r="EX3">
-        <v>0.002874363048155109</v>
+        <v>0.002872672911214719</v>
       </c>
       <c r="EY3">
-        <v>8.806242147533746E-05</v>
+        <v>8.460386912751548E-05</v>
       </c>
       <c r="EZ3">
-        <v>0.001798468230130304</v>
+        <v>0.001796095241901452</v>
       </c>
       <c r="FA3">
-        <v>0.0001538263225771008</v>
+        <v>0.0001504095094066122</v>
       </c>
       <c r="FB3">
-        <v>0.006546469509675064</v>
+        <v>0.00654710999333681</v>
       </c>
       <c r="FC3">
-        <v>0.004910678082270135</v>
+        <v>0.004910280358232442</v>
       </c>
       <c r="FD3">
-        <v>0.001952475632710439</v>
+        <v>0.001950200390238442</v>
       </c>
       <c r="FE3">
-        <v>0.0007539445826310709</v>
+        <v>0.0007509086538372353</v>
       </c>
       <c r="FF3">
-        <v>0.01684645628223398</v>
+        <v>0.01685363398414509</v>
       </c>
       <c r="FG3">
-        <v>0.009644328161574466</v>
+        <v>0.009646934800976052</v>
       </c>
       <c r="FH3">
-        <v>1.953139032721553E-05</v>
+        <v>1.602934255387877E-05</v>
       </c>
       <c r="FI3">
-        <v>0.0002625816643991133</v>
+        <v>0.0002592338763080713</v>
       </c>
       <c r="FJ3">
-        <v>0.0001901519431856753</v>
+        <v>0.0001867581852399366</v>
       </c>
       <c r="FK3">
-        <v>0.0007713190129221502</v>
+        <v>0.0007682941113699295</v>
       </c>
       <c r="FL3">
-        <v>0.003698238061957746</v>
+        <v>0.003697070823822408</v>
       </c>
       <c r="FM3">
-        <v>0.002779425146564584</v>
+        <v>0.002777674754228091</v>
       </c>
       <c r="FN3">
-        <v>0.001997431533463599</v>
+        <v>0.001995184823701528</v>
       </c>
       <c r="FO3">
-        <v>0.001435556224050325</v>
+        <v>0.001432952902031591</v>
       </c>
       <c r="FP3">
-        <v>0.003587941260109909</v>
+        <v>0.003586704018557887</v>
       </c>
       <c r="FQ3">
-        <v>0.0003065887751363783</v>
+        <v>0.0003032689175751288</v>
       </c>
       <c r="FR3">
-        <v>0.0006763069113303826</v>
+        <v>0.0006732217072886392</v>
       </c>
       <c r="FS3">
-        <v>3.37133405648102E-05</v>
+        <v>3.02202938228293E-05</v>
       </c>
       <c r="FT3">
-        <v>0.001899488731822733</v>
+        <v>0.001897179859507989</v>
       </c>
       <c r="FU3">
-        <v>0.0004507041375507883</v>
+        <v>0.000447475747444594</v>
       </c>
       <c r="FV3">
-        <v>0.00446615377482288</v>
+        <v>0.004465473919120448</v>
       </c>
       <c r="FW3">
-        <v>0.003656129061252281</v>
+        <v>0.003654935097283799</v>
       </c>
       <c r="FX3">
-        <v>0.001095063518345944</v>
+        <v>0.001092244091668179</v>
       </c>
       <c r="FY3">
-        <v>0.002161080736205266</v>
+        <v>0.002158937891678974</v>
       </c>
       <c r="FZ3">
-        <v>0.001687744328275312</v>
+        <v>0.001685301065557004</v>
       </c>
       <c r="GA3">
-        <v>5.605364093908428E-05</v>
+        <v>5.257477318806015E-05</v>
       </c>
       <c r="GB3">
-        <v>0.0004472468674928676</v>
+        <v>0.0004440162831189122</v>
       </c>
       <c r="GC3">
-        <v>5.378684490110794E-06</v>
+        <v>1.867654246318567E-06</v>
       </c>
       <c r="GD3">
-        <v>0.005482083091843063</v>
+        <v>0.005482048028393082</v>
       </c>
       <c r="GE3">
-        <v>0.007982668633736159</v>
+        <v>0.007984220647415451</v>
       </c>
       <c r="GF3">
-        <v>0.0001379556623112147</v>
+        <v>0.0001345287763151768</v>
       </c>
       <c r="GG3">
-        <v>2.879158148235442E-05</v>
+        <v>2.529541098749856E-05</v>
       </c>
       <c r="GH3">
-        <v>0.002139472635843259</v>
+        <v>0.002137316077040324</v>
       </c>
       <c r="GI3">
-        <v>0.001972309533042722</v>
+        <v>0.001970046878794193</v>
       </c>
       <c r="GJ3">
-        <v>0.000234803263933733</v>
+        <v>0.0002314378453864127</v>
       </c>
       <c r="GK3">
-        <v>0.0002449105441030634</v>
+        <v>0.0002415515404665419</v>
       </c>
       <c r="GL3">
-        <v>2.373685039767093E-07</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.001293366921668183</v>
+        <v>0.001290673354630409</v>
       </c>
       <c r="GN3">
-        <v>0.006867898115060059</v>
+        <v>0.006868742603735731</v>
       </c>
       <c r="GO3">
-        <v>0.001467882924591905</v>
+        <v>0.001465300119754541</v>
       </c>
       <c r="GP3">
-        <v>0.0001093376618317683</v>
+        <v>0.0001058926125002694</v>
       </c>
       <c r="GQ3">
-        <v>0.004492975075272226</v>
+        <v>0.00449231224257173</v>
       </c>
       <c r="GR3">
-        <v>0.003009366050416856</v>
+        <v>0.003007761597478746</v>
       </c>
       <c r="GS3">
-        <v>0.001089369218250545</v>
+        <v>0.001086546177501877</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.140577011835994E-05</v>
+        <v>4.036693134786144E-05</v>
       </c>
       <c r="C4">
-        <v>3.506504640650721E-05</v>
+        <v>3.402495138516967E-05</v>
       </c>
       <c r="D4">
-        <v>7.22903167148454E-06</v>
+        <v>6.183421661881379E-06</v>
       </c>
       <c r="E4">
-        <v>4.184721009829918E-05</v>
+        <v>4.080845878774537E-05</v>
       </c>
       <c r="F4">
-        <v>3.732882830363212E-05</v>
+        <v>3.628918179228127E-05</v>
       </c>
       <c r="G4">
-        <v>8.9794915919368E-06</v>
+        <v>7.934228390812245E-06</v>
       </c>
       <c r="H4">
-        <v>9.394230573089439E-06</v>
+        <v>8.349049541795448E-06</v>
       </c>
       <c r="I4">
-        <v>3.170574855916684E-05</v>
+        <v>3.066498797961684E-05</v>
       </c>
       <c r="J4">
-        <v>1.875572614766648E-05</v>
+        <v>1.77123998552327E-05</v>
       </c>
       <c r="K4">
-        <v>1.914740712986697E-05</v>
+        <v>1.810415843891606E-05</v>
       </c>
       <c r="L4">
-        <v>2.256292297465257E-06</v>
+        <v>1.209697067831256E-06</v>
       </c>
       <c r="M4">
-        <v>3.422244344479838E-08</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.006670108809066E-06</v>
+        <v>9.600254229776033E-07</v>
       </c>
       <c r="O4">
-        <v>4.874135378500235E-07</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>9.885983550742259E-06</v>
+        <v>8.840899947615597E-06</v>
       </c>
       <c r="Q4">
-        <v>3.99259421856091E-06</v>
+        <v>2.946342992363161E-06</v>
       </c>
       <c r="R4">
-        <v>1.046834852427732E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.551313829502235E-06</v>
+        <v>5.04578926570338E-07</v>
       </c>
       <c r="T4">
-        <v>1.949854511390988E-07</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>9.893671550392887E-09</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>9.236313580265804E-07</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.227386744222748E-05</v>
+        <v>1.122925693669638E-05</v>
       </c>
       <c r="X4">
-        <v>1.076915251060761E-07</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.304920440699314E-05</v>
+        <v>1.200474751448112E-05</v>
       </c>
       <c r="Z4">
-        <v>1.483668282576313E-05</v>
+        <v>1.379258007599023E-05</v>
       </c>
       <c r="AA4">
-        <v>1.536845730159722E-05</v>
+        <v>1.432445990921913E-05</v>
       </c>
       <c r="AB4">
-        <v>2.135897302936476E-05</v>
+        <v>2.031616250314758E-05</v>
       </c>
       <c r="AC4">
-        <v>1.076915251060761E-07</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>6.440894207300588E-05</v>
+        <v>6.337466078764343E-05</v>
       </c>
       <c r="AE4">
-        <v>1.716138722011947E-05</v>
+        <v>1.611774505055455E-05</v>
       </c>
       <c r="AF4">
-        <v>1.342258139002543E-05</v>
+        <v>1.237819847253101E-05</v>
       </c>
       <c r="AG4">
-        <v>3.466105642486609E-05</v>
+        <v>3.362088136333496E-05</v>
       </c>
       <c r="AH4">
-        <v>4.558180292858468E-06</v>
+        <v>3.512041122951558E-06</v>
       </c>
       <c r="AI4">
-        <v>1.508996731425289E-06</v>
+        <v>4.622534444520144E-07</v>
       </c>
       <c r="AJ4">
-        <v>2.215681899310753E-05</v>
+        <v>2.111416653948693E-05</v>
       </c>
       <c r="AK4">
-        <v>6.421866708165272E-08</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>8.338347621072888E-06</v>
+        <v>7.292957393809372E-06</v>
       </c>
       <c r="AM4">
-        <v>4.258406806481347E-09</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>3.546424838836591E-07</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>7.338589666505796E-05</v>
+        <v>7.23533939316796E-05</v>
       </c>
       <c r="AP4">
-        <v>1.087776250567195E-05</v>
+        <v>9.832875397961407E-06</v>
       </c>
       <c r="AQ4">
-        <v>7.855412243019359E-07</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.177681901037621E-05</v>
+        <v>2.073409126956147E-05</v>
       </c>
       <c r="AS4">
-        <v>4.332733203103665E-05</v>
+        <v>4.228887396846279E-05</v>
       </c>
       <c r="AT4">
-        <v>1.782383119001543E-05</v>
+        <v>1.678032026663483E-05</v>
       </c>
       <c r="AU4">
-        <v>4.631511789525998E-06</v>
+        <v>3.585387148363504E-06</v>
       </c>
       <c r="AV4">
-        <v>1.087776250567195E-05</v>
+        <v>9.832875397961407E-06</v>
       </c>
       <c r="AW4">
-        <v>4.044936816182258E-05</v>
+        <v>3.94103399049476E-05</v>
       </c>
       <c r="AX4">
-        <v>3.086953659716758E-05</v>
+        <v>2.982861034378812E-05</v>
       </c>
       <c r="AY4">
-        <v>6.306651113401119E-06</v>
+        <v>5.260858357883979E-06</v>
       </c>
       <c r="AZ4">
-        <v>4.061244315441182E-06</v>
+        <v>3.015006690489242E-06</v>
       </c>
       <c r="BA4">
-        <v>5.430496753216998E-05</v>
+        <v>5.326868440489305E-05</v>
       </c>
       <c r="BB4">
-        <v>7.10356667718616E-06</v>
+        <v>6.057931809930857E-06</v>
       </c>
       <c r="BC4">
-        <v>1.57279492852605E-07</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>2.93676626654186E-05</v>
+        <v>2.832643885446172E-05</v>
       </c>
       <c r="BE4">
-        <v>3.182722355364654E-05</v>
+        <v>3.078648704123315E-05</v>
       </c>
       <c r="BF4">
-        <v>1.881239814509108E-06</v>
+        <v>8.345702779004136E-07</v>
       </c>
       <c r="BG4">
-        <v>4.074799814825166E-05</v>
+        <v>3.970902905720508E-05</v>
       </c>
       <c r="BH4">
-        <v>1.400495736355999E-06</v>
+        <v>3.537309527094281E-07</v>
       </c>
       <c r="BI4">
-        <v>3.175910855674195E-06</v>
+        <v>2.129497824735145E-06</v>
       </c>
       <c r="BJ4">
-        <v>1.496874931976151E-05</v>
+        <v>1.392467273555763E-05</v>
       </c>
       <c r="BK4">
-        <v>3.151340856790752E-05</v>
+        <v>3.047260988114984E-05</v>
       </c>
       <c r="BL4">
-        <v>2.725111576160277E-05</v>
+        <v>2.620947261147505E-05</v>
       </c>
       <c r="BM4">
-        <v>3.113048558530904E-05</v>
+        <v>3.008961103224018E-05</v>
       </c>
       <c r="BN4">
-        <v>2.026656807900792E-05</v>
+        <v>1.922354112092935E-05</v>
       </c>
       <c r="BO4">
-        <v>1.080679450889701E-05</v>
+        <v>9.761893340708589E-06</v>
       </c>
       <c r="BP4">
-        <v>5.092315568585273E-05</v>
+        <v>4.988620253979521E-05</v>
       </c>
       <c r="BQ4">
-        <v>1.45743073376865E-05</v>
+        <v>1.353015260497884E-05</v>
       </c>
       <c r="BR4">
-        <v>1.059825551837384E-06</v>
+        <v>1.299327318163323E-08</v>
       </c>
       <c r="BS4">
-        <v>1.467264733321754E-06</v>
+        <v>4.205131782295683E-07</v>
       </c>
       <c r="BT4">
-        <v>2.630341080467018E-06</v>
+        <v>1.583819958950457E-06</v>
       </c>
       <c r="BU4">
-        <v>5.083790468972687E-06</v>
+        <v>4.037755435163604E-06</v>
       </c>
       <c r="BV4">
-        <v>2.682950678076233E-05</v>
+        <v>2.578778009969082E-05</v>
       </c>
       <c r="BW4">
-        <v>4.270705805922433E-06</v>
+        <v>3.22450968036159E-06</v>
       </c>
       <c r="BX4">
-        <v>8.473535614929415E-07</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.375423937495359E-05</v>
+        <v>1.270992216693349E-05</v>
       </c>
       <c r="BZ4">
-        <v>2.560344083647956E-05</v>
+        <v>2.456147124206863E-05</v>
       </c>
       <c r="CA4">
-        <v>6.743530693547603E-06</v>
+        <v>5.697824494449582E-06</v>
       </c>
       <c r="CB4">
-        <v>2.11429190391831E-05</v>
+        <v>2.010006570744107E-05</v>
       </c>
       <c r="CC4">
-        <v>2.595081882069334E-05</v>
+        <v>2.490891805026907E-05</v>
       </c>
       <c r="CD4">
-        <v>2.961568665414742E-07</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>1.439593034579265E-05</v>
+        <v>1.335174027228544E-05</v>
       </c>
       <c r="CF4">
-        <v>4.855017779369013E-06</v>
+        <v>3.808937420152875E-06</v>
       </c>
       <c r="CG4">
-        <v>8.178102628355047E-06</v>
+        <v>7.132680652679881E-06</v>
       </c>
       <c r="CH4">
-        <v>1.400495736355999E-06</v>
+        <v>3.537309527094281E-07</v>
       </c>
       <c r="CI4">
-        <v>2.088728705080002E-05</v>
+        <v>1.984438307217374E-05</v>
       </c>
       <c r="CJ4">
-        <v>1.149210247775394E-05</v>
+        <v>1.044733708566143E-05</v>
       </c>
       <c r="CK4">
-        <v>1.920283212734824E-05</v>
+        <v>1.815959441743085E-05</v>
       </c>
       <c r="CL4">
-        <v>2.23181459857762E-05</v>
+        <v>2.127552549493763E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0004172546810383161</v>
+        <v>0.0004162903070341679</v>
       </c>
       <c r="CN4">
-        <v>0.1929336112323425</v>
+        <v>0.1929707890082627</v>
       </c>
       <c r="CO4">
-        <v>0.04069303815074927</v>
+        <v>0.0407000533842909</v>
       </c>
       <c r="CP4">
-        <v>0.2341028493614513</v>
+        <v>0.2341481837599107</v>
       </c>
       <c r="CQ4">
-        <v>6.746639193406339E-08</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01231178344050443</v>
+        <v>0.01231317566054429</v>
       </c>
       <c r="CS4">
-        <v>0.0006295186213922129</v>
+        <v>0.0006285963020123135</v>
       </c>
       <c r="CT4">
-        <v>0.004382494800842304</v>
+        <v>0.004382316036881089</v>
       </c>
       <c r="CU4">
-        <v>0.0001542952129882223</v>
+        <v>0.0001532787403487475</v>
       </c>
       <c r="CV4">
-        <v>0.02619984080937681</v>
+        <v>0.02620398458972984</v>
       </c>
       <c r="CW4">
-        <v>0.008265986624361255</v>
+        <v>0.008266577274126833</v>
       </c>
       <c r="CX4">
-        <v>0.01028603353256242</v>
+        <v>0.010287024402514</v>
       </c>
       <c r="CY4">
-        <v>0.06620887699120979</v>
+        <v>0.06622094753001448</v>
       </c>
       <c r="CZ4">
-        <v>0.02545216384335417</v>
+        <v>0.02545615949080336</v>
       </c>
       <c r="DA4">
-        <v>0.0001150930947697198</v>
+        <v>0.0001140688552417726</v>
       </c>
       <c r="DB4">
-        <v>0.0001348220038731611</v>
+        <v>0.0001338016731196284</v>
       </c>
       <c r="DC4">
-        <v>0.001430566734989455</v>
+        <v>0.001429803122629535</v>
       </c>
       <c r="DD4">
-        <v>0.001394093136646958</v>
+        <v>0.001393322297984394</v>
       </c>
       <c r="DE4">
-        <v>9.747382557040831E-05</v>
+        <v>9.644609523877354E-05</v>
       </c>
       <c r="DF4">
-        <v>0.04322247003580199</v>
+        <v>0.04322998641102276</v>
       </c>
       <c r="DG4">
-        <v>0.003999450018249356</v>
+        <v>0.003999195363845442</v>
       </c>
       <c r="DH4">
-        <v>0.005341781757248554</v>
+        <v>0.005341793051252113</v>
       </c>
       <c r="DI4">
-        <v>0.004543912793506839</v>
+        <v>0.004543766010356953</v>
       </c>
       <c r="DJ4">
-        <v>0.001065366151585597</v>
+        <v>0.001064530184150741</v>
       </c>
       <c r="DK4">
-        <v>0.03231439253150768</v>
+        <v>0.03231974775255429</v>
       </c>
       <c r="DL4">
-        <v>0.0006375871310255483</v>
+        <v>0.0006366664102126986</v>
       </c>
       <c r="DM4">
-        <v>0.01113065149417968</v>
+        <v>0.0111318097033927</v>
       </c>
       <c r="DN4">
-        <v>0.01599700127303372</v>
+        <v>0.01599912362392371</v>
       </c>
       <c r="DO4">
-        <v>0.005721787739979597</v>
+        <v>0.005721874322366051</v>
       </c>
       <c r="DP4">
-        <v>0.01643976725291271</v>
+        <v>0.01644197732646008</v>
       </c>
       <c r="DQ4">
-        <v>0.01037863652835418</v>
+        <v>0.0103796457452006</v>
       </c>
       <c r="DR4">
-        <v>0.0009757700556571941</v>
+        <v>0.0009749163370671385</v>
       </c>
       <c r="DS4">
-        <v>0.002735774575675708</v>
+        <v>0.002735269556580452</v>
       </c>
       <c r="DT4">
-        <v>0.01262117342644454</v>
+        <v>0.01262262694412913</v>
       </c>
       <c r="DU4">
-        <v>0.0001336329539271962</v>
+        <v>0.0001326123875940892</v>
       </c>
       <c r="DV4">
-        <v>0.008397136618401286</v>
+        <v>0.008397753252155055</v>
       </c>
       <c r="DW4">
-        <v>0.002172360901279428</v>
+        <v>0.002171744256298334</v>
       </c>
       <c r="DX4">
-        <v>0.001710948722247801</v>
+        <v>0.00171024066034596</v>
       </c>
       <c r="DY4">
-        <v>0.003814770426641919</v>
+        <v>0.003814479182740898</v>
       </c>
       <c r="DZ4">
-        <v>0.007923217639938016</v>
+        <v>0.007923740378871353</v>
       </c>
       <c r="EA4">
-        <v>0.008983865591738027</v>
+        <v>0.00898459847070268</v>
       </c>
       <c r="EB4">
-        <v>0.001590052427741802</v>
+        <v>0.001589320413357828</v>
       </c>
       <c r="EC4">
-        <v>0.001403048836239976</v>
+        <v>0.001402279771918266</v>
       </c>
       <c r="ED4">
-        <v>0.003802883827182092</v>
+        <v>0.003802590228258014</v>
       </c>
       <c r="EE4">
-        <v>0.001753664120306647</v>
+        <v>0.00175296452135905</v>
       </c>
       <c r="EF4">
-        <v>0.002246326897918124</v>
+        <v>0.002245724907391247</v>
       </c>
       <c r="EG4">
-        <v>0.0006238407716502366</v>
+        <v>0.000622917327350876</v>
       </c>
       <c r="EH4">
-        <v>0.008598969609229205</v>
+        <v>0.00859962623098365</v>
       </c>
       <c r="EI4">
-        <v>0.0001571254728596042</v>
+        <v>0.0001561095609631139</v>
       </c>
       <c r="EJ4">
-        <v>0.01157165647413869</v>
+        <v>0.01157290205711239</v>
       </c>
       <c r="EK4">
-        <v>0.0004777424782895141</v>
+        <v>0.0004767900883820562</v>
       </c>
       <c r="EL4">
-        <v>0.01239303643681198</v>
+        <v>0.01239444475503707</v>
       </c>
       <c r="EM4">
-        <v>0.001811437217681211</v>
+        <v>0.001810749064982552</v>
       </c>
       <c r="EN4">
-        <v>0.0006529072703293413</v>
+        <v>0.0006519895848068983</v>
       </c>
       <c r="EO4">
-        <v>1.024899253424571E-06</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>1.103288949862237E-05</v>
+        <v>9.988033125323847E-06</v>
       </c>
       <c r="EQ4">
-        <v>0.002467151387882996</v>
+        <v>0.002466593148032447</v>
       </c>
       <c r="ER4">
-        <v>0.006468282706055948</v>
+        <v>0.006468517187163444</v>
       </c>
       <c r="ES4">
-        <v>0.0001109579649576363</v>
+        <v>0.0001099329061603861</v>
       </c>
       <c r="ET4">
-        <v>1.003389554402056E-05</v>
+        <v>8.988841245839849E-06</v>
       </c>
       <c r="EU4">
-        <v>0.002275607396587504</v>
+        <v>0.002275011207236123</v>
       </c>
       <c r="EV4">
-        <v>0.004987796773335016</v>
+        <v>0.004987737934345361</v>
       </c>
       <c r="EW4">
-        <v>0.001843611516219085</v>
+        <v>0.001842929738027718</v>
       </c>
       <c r="EX4">
-        <v>0.0002180046200930178</v>
+        <v>0.0002170007698291214</v>
       </c>
       <c r="EY4">
-        <v>0.0002948256566019696</v>
+        <v>0.0002938370264447922</v>
       </c>
       <c r="EZ4">
-        <v>0.0008060783933686466</v>
+        <v>0.0008051910547530521</v>
       </c>
       <c r="FA4">
-        <v>4.732707184927284E-05</v>
+        <v>4.62894062319672E-05</v>
       </c>
       <c r="FB4">
-        <v>0.006769888292349811</v>
+        <v>0.006770182528824054</v>
       </c>
       <c r="FC4">
-        <v>0.0006913695685814641</v>
+        <v>0.0006904595033712515</v>
       </c>
       <c r="FD4">
-        <v>0.0007915749040277418</v>
+        <v>0.0007906846919198644</v>
       </c>
       <c r="FE4">
-        <v>0.01063239451682243</v>
+        <v>0.01063345400926835</v>
       </c>
       <c r="FF4">
-        <v>0.02529069885069177</v>
+        <v>0.02529466250801779</v>
       </c>
       <c r="FG4">
-        <v>0.002850341870469323</v>
+        <v>0.002849859549928167</v>
       </c>
       <c r="FH4">
-        <v>0.0002965905465217661</v>
+        <v>0.0002956022660319994</v>
       </c>
       <c r="FI4">
-        <v>0.0008543739311739086</v>
+        <v>0.0008534961610733048</v>
       </c>
       <c r="FJ4">
-        <v>0.001004435454354526</v>
+        <v>0.001003587415073774</v>
       </c>
       <c r="FK4">
-        <v>0.002178743400989383</v>
+        <v>0.002178128020535965</v>
       </c>
       <c r="FL4">
-        <v>0.003889082823264873</v>
+        <v>0.003888806302448291</v>
       </c>
       <c r="FM4">
-        <v>0.004291543104975504</v>
+        <v>0.004291346321281931</v>
       </c>
       <c r="FN4">
-        <v>0.001492860532158581</v>
+        <v>0.001492109261707647</v>
       </c>
       <c r="FO4">
-        <v>0.002214015599386476</v>
+        <v>0.002213407207209293</v>
       </c>
       <c r="FP4">
-        <v>0.0009278878578331484</v>
+        <v>0.0009270246526207568</v>
       </c>
       <c r="FQ4">
-        <v>0.0007804206345346354</v>
+        <v>0.000779528212495992</v>
       </c>
       <c r="FR4">
-        <v>0.0004999563472800291</v>
+        <v>0.0004990083584776856</v>
       </c>
       <c r="FS4">
-        <v>5.107707067885823E-05</v>
+        <v>5.004014802708621E-05</v>
       </c>
       <c r="FT4">
-        <v>0.0005948181729691368</v>
+        <v>0.0005938889785905106</v>
       </c>
       <c r="FU4">
-        <v>0.0007250525670507769</v>
+        <v>0.0007241491752578289</v>
       </c>
       <c r="FV4">
-        <v>0.004790153782316686</v>
+        <v>0.004790055785466733</v>
       </c>
       <c r="FW4">
-        <v>0.00055412992481817</v>
+        <v>0.0005531926691127613</v>
       </c>
       <c r="FX4">
-        <v>0.004587833991510889</v>
+        <v>0.004587695910213402</v>
       </c>
       <c r="FY4">
-        <v>0.000122171994448027</v>
+        <v>0.0001211491574214446</v>
       </c>
       <c r="FZ4">
-        <v>0.002635381580237958</v>
+        <v>0.00263485667086038</v>
       </c>
       <c r="GA4">
-        <v>0.0009817956553833673</v>
+        <v>0.0009809431306104619</v>
       </c>
       <c r="GB4">
-        <v>0.0001269944942288737</v>
+        <v>0.0001259726126562224</v>
       </c>
       <c r="GC4">
-        <v>0.002017941508296849</v>
+        <v>0.002017294269096418</v>
       </c>
       <c r="GD4">
-        <v>0.00604716942519298</v>
+        <v>0.006047320473566856</v>
       </c>
       <c r="GE4">
-        <v>0.001667362824228515</v>
+        <v>0.001666646126905317</v>
       </c>
       <c r="GF4">
-        <v>0.0002845605670684554</v>
+        <v>0.0002835699031485838</v>
       </c>
       <c r="GG4">
-        <v>0.0005477061751100902</v>
+        <v>0.0005467676467043829</v>
       </c>
       <c r="GH4">
-        <v>0.0008497505613840125</v>
+        <v>0.0008488718752819488</v>
       </c>
       <c r="GI4">
-        <v>0.0003567316537887191</v>
+        <v>0.0003557552887079653</v>
       </c>
       <c r="GJ4">
-        <v>3.398563245556E-05</v>
+        <v>3.29453235761925E-05</v>
       </c>
       <c r="GK4">
-        <v>0.0003108990358715324</v>
+        <v>0.0003099135902398305</v>
       </c>
       <c r="GL4">
-        <v>0.0005578646746484483</v>
+        <v>0.0005569281588873773</v>
       </c>
       <c r="GM4">
-        <v>0.003520628540008876</v>
+        <v>0.003520279019480664</v>
       </c>
       <c r="GN4">
-        <v>0.005077592769254334</v>
+        <v>0.005077551721024906</v>
       </c>
       <c r="GO4">
-        <v>0.0006372674710400748</v>
+        <v>0.0006363466868948449</v>
       </c>
       <c r="GP4">
-        <v>1.288044891466205E-05</v>
+        <v>1.183595858760242E-05</v>
       </c>
       <c r="GQ4">
-        <v>0.003107258258794038</v>
+        <v>0.003106826839607848</v>
       </c>
       <c r="GR4">
-        <v>0.0006564085201702307</v>
+        <v>0.000655491528330126</v>
       </c>
       <c r="GS4">
-        <v>0.0002006839508801367</v>
+        <v>0.0001996766689724374</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.303217580761501E-05</v>
+        <v>9.655051884173488E-06</v>
       </c>
       <c r="C5">
-        <v>8.352219876701962E-06</v>
+        <v>4.972179188388975E-06</v>
       </c>
       <c r="D5">
-        <v>3.586411447056291E-05</v>
+        <v>3.250122046672375E-05</v>
       </c>
       <c r="E5">
-        <v>1.538916277282044E-05</v>
+        <v>1.201350783260955E-05</v>
       </c>
       <c r="F5">
-        <v>1.053772884443881E-05</v>
+        <v>7.159050266341699E-06</v>
       </c>
       <c r="G5">
-        <v>3.629197746424666E-05</v>
+        <v>3.292935012440353E-05</v>
       </c>
       <c r="H5">
-        <v>7.25833329285025E-06</v>
+        <v>3.877610843852282E-06</v>
       </c>
       <c r="I5">
-        <v>2.333977865545101E-05</v>
+        <v>1.996907890658279E-05</v>
       </c>
       <c r="J5">
-        <v>1.78560637364033E-05</v>
+        <v>1.44819462829077E-05</v>
       </c>
       <c r="K5">
-        <v>3.383137650057081E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.941826612284928E-07</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.5759319619733E-11</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.448488878616962E-05</v>
+        <v>1.110867026060934E-05</v>
       </c>
       <c r="O5">
-        <v>2.680279160432894E-05</v>
+        <v>2.343425016521146E-05</v>
       </c>
       <c r="P5">
-        <v>8.341148576865399E-07</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.70316624533272E-05</v>
+        <v>3.366949611936189E-05</v>
       </c>
       <c r="R5">
-        <v>0.000192804407153762</v>
+        <v>0.0001895393255950341</v>
       </c>
       <c r="S5">
-        <v>4.476743533912935E-05</v>
+        <v>4.141009029641977E-05</v>
       </c>
       <c r="T5">
-        <v>8.089776880576226E-06</v>
+        <v>4.709572625656382E-06</v>
       </c>
       <c r="U5">
-        <v>5.22020152293778E-05</v>
+        <v>4.884930376052619E-05</v>
       </c>
       <c r="V5">
-        <v>7.359112891362512E-05</v>
+        <v>7.025174812915322E-05</v>
       </c>
       <c r="W5">
-        <v>2.122698768664068E-05</v>
+        <v>1.785497114877497E-05</v>
       </c>
       <c r="X5">
-        <v>7.647230887109226E-06</v>
+        <v>4.266750817069153E-06</v>
       </c>
       <c r="Y5">
-        <v>9.351075861956542E-06</v>
+        <v>5.971657706866613E-06</v>
       </c>
       <c r="Z5">
-        <v>5.012095626009903E-06</v>
+        <v>1.629973217863534E-06</v>
       </c>
       <c r="AA5">
-        <v>5.890352313044807E-06</v>
+        <v>2.508777275064031E-06</v>
       </c>
       <c r="AB5">
-        <v>3.802879243860727E-05</v>
+        <v>3.466724756214204E-05</v>
       </c>
       <c r="AC5">
-        <v>7.845484884182539E-06</v>
+        <v>4.465128375197919E-06</v>
       </c>
       <c r="AD5">
-        <v>6.420418905219801E-06</v>
+        <v>3.039174229242089E-06</v>
       </c>
       <c r="AE5">
-        <v>4.27810623684528E-05</v>
+        <v>3.942247932628595E-05</v>
       </c>
       <c r="AF5">
-        <v>3.715530945150189E-05</v>
+        <v>3.379322018006154E-05</v>
       </c>
       <c r="AG5">
-        <v>5.469374319259414E-05</v>
+        <v>5.134258468379165E-05</v>
       </c>
       <c r="AH5">
-        <v>4.025688940571541E-05</v>
+        <v>3.689673318227595E-05</v>
       </c>
       <c r="AI5">
-        <v>3.759078344507329E-05</v>
+        <v>3.422896558115592E-05</v>
       </c>
       <c r="AJ5">
-        <v>5.601868917303487E-05</v>
+        <v>5.266835643181426E-05</v>
       </c>
       <c r="AK5">
-        <v>2.99452435579391E-05</v>
+        <v>2.657866064014187E-05</v>
       </c>
       <c r="AL5">
-        <v>1.230302981837889E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0001090090783907745</v>
+        <v>0.0001056917717096444</v>
       </c>
       <c r="AN5">
-        <v>9.522853859420702E-06</v>
+        <v>6.143542764319391E-06</v>
       </c>
       <c r="AO5">
-        <v>9.242478863559683E-06</v>
+        <v>5.862993025800356E-06</v>
       </c>
       <c r="AP5">
-        <v>2.420804964263332E-05</v>
+        <v>2.083789104038095E-05</v>
       </c>
       <c r="AQ5">
-        <v>2.231878467052323E-05</v>
+        <v>1.894744859100721E-05</v>
       </c>
       <c r="AR5">
-        <v>1.45416897853311E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.915379471724579E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>2.585094261838043E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>3.967821141425804E-05</v>
+        <v>3.631769453194436E-05</v>
       </c>
       <c r="AV5">
-        <v>5.375742920641629E-05</v>
+        <v>5.040568714345564E-05</v>
       </c>
       <c r="AW5">
-        <v>2.734065559638883E-08</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.411536279162467E-06</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>5.428097919868749E-05</v>
+        <v>5.09295634362836E-05</v>
       </c>
       <c r="AZ5">
-        <v>4.311483536352554E-05</v>
+        <v>3.975646034411819E-05</v>
       </c>
       <c r="BA5">
-        <v>1.093309783860225E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>6.919812597847598E-06</v>
+        <v>3.53887916710407E-06</v>
       </c>
       <c r="BC5">
-        <v>1.247348981586251E-06</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.421504879015308E-05</v>
+        <v>1.083866208783368E-05</v>
       </c>
       <c r="BE5">
-        <v>7.68963988648317E-06</v>
+        <v>4.309186247691902E-06</v>
       </c>
       <c r="BF5">
-        <v>8.981232867416277E-06</v>
+        <v>5.601584209075815E-06</v>
       </c>
       <c r="BG5">
-        <v>1.478753678170183E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>2.552555762318387E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.008033085119106E-05</v>
+        <v>6.701367201520908E-06</v>
       </c>
       <c r="BJ5">
-        <v>1.148297083048485E-05</v>
+        <v>8.10488137088814E-06</v>
       </c>
       <c r="BK5">
-        <v>5.405422920203484E-07</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>9.967566852855712E-06</v>
+        <v>6.588532923449182E-06</v>
       </c>
       <c r="BM5">
-        <v>6.544883903382411E-05</v>
+        <v>6.21043835979142E-05</v>
       </c>
       <c r="BN5">
-        <v>3.15247595346218E-05</v>
+        <v>2.815916104419584E-05</v>
       </c>
       <c r="BO5">
-        <v>2.38588376477885E-05</v>
+        <v>2.048846140047829E-05</v>
       </c>
       <c r="BP5">
-        <v>3.759078344507329E-05</v>
+        <v>3.422896558115592E-05</v>
       </c>
       <c r="BQ5">
-        <v>4.371796535462195E-05</v>
+        <v>4.035996623370529E-05</v>
       </c>
       <c r="BR5">
-        <v>4.707705930503397E-05</v>
+        <v>4.372115372674446E-05</v>
       </c>
       <c r="BS5">
-        <v>1.623890176027634E-05</v>
+        <v>1.28637764166824E-05</v>
       </c>
       <c r="BT5">
-        <v>9.088288865835886E-06</v>
+        <v>5.708706929742402E-06</v>
       </c>
       <c r="BU5">
-        <v>2.147269468301348E-06</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>9.693033856908452E-07</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>6.510983903882853E-06</v>
+        <v>3.12979567219876E-06</v>
       </c>
       <c r="BX5">
-        <v>1.631041875922058E-06</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>5.172838923636961E-06</v>
+        <v>1.790816698144182E-06</v>
       </c>
       <c r="BZ5">
-        <v>1.190067582431856E-05</v>
+        <v>8.522846697782809E-06</v>
       </c>
       <c r="CA5">
-        <v>8.455469375177761E-06</v>
+        <v>5.075493036725029E-06</v>
       </c>
       <c r="CB5">
-        <v>1.058750184370404E-05</v>
+        <v>7.208854286440879E-06</v>
       </c>
       <c r="CC5">
-        <v>3.679573545681003E-06</v>
+        <v>2.966206481771004E-07</v>
       </c>
       <c r="CD5">
-        <v>6.219542508185201E-07</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>2.38469896479634E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>2.906116357099017E-05</v>
+        <v>2.569402965367765E-05</v>
       </c>
       <c r="CG5">
-        <v>7.108463595062674E-06</v>
+        <v>3.727647740341179E-06</v>
       </c>
       <c r="CH5">
-        <v>5.405422920203484E-07</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>3.042072955091983E-05</v>
+        <v>2.705444297797321E-05</v>
       </c>
       <c r="CJ5">
-        <v>1.615719476148252E-05</v>
+        <v>1.278201849430996E-05</v>
       </c>
       <c r="CK5">
-        <v>6.420418905219801E-06</v>
+        <v>3.039174229242089E-06</v>
       </c>
       <c r="CL5">
-        <v>5.670291516293412E-06</v>
+        <v>2.288579326251585E-06</v>
       </c>
       <c r="CM5">
-        <v>4.490337533712256E-05</v>
+        <v>4.154611501850369E-05</v>
       </c>
       <c r="CN5">
-        <v>0.1111331383594184</v>
+        <v>0.1111990164222989</v>
       </c>
       <c r="CO5">
-        <v>0.01208363482161767</v>
+        <v>0.01208778065523793</v>
       </c>
       <c r="CP5">
-        <v>0.3413596649607436</v>
+        <v>0.3415690308374374</v>
       </c>
       <c r="CQ5">
-        <v>0.03311968551107702</v>
+        <v>0.03313694198389797</v>
       </c>
       <c r="CR5">
-        <v>0.03229795952320759</v>
+        <v>0.03231470385840786</v>
       </c>
       <c r="CS5">
-        <v>0.009983470852620933</v>
+        <v>0.009986307766973688</v>
       </c>
       <c r="CT5">
-        <v>1.495425577924068E-07</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01861437372520889</v>
+        <v>0.01862258981720336</v>
       </c>
       <c r="CV5">
-        <v>0.002965098956228297</v>
+        <v>0.002963561696784448</v>
       </c>
       <c r="CW5">
-        <v>0.003279444451587832</v>
+        <v>0.003278103106787604</v>
       </c>
       <c r="CX5">
-        <v>0.002691603460265722</v>
+        <v>0.002689895745786204</v>
       </c>
       <c r="CY5">
-        <v>0.02200419267516734</v>
+        <v>0.02201452145902896</v>
       </c>
       <c r="CZ5">
-        <v>0.02535635162568173</v>
+        <v>0.02536876962995798</v>
       </c>
       <c r="DA5">
-        <v>6.997033896707634E-05</v>
+        <v>6.662870153893537E-05</v>
       </c>
       <c r="DB5">
-        <v>0.0003745212144712026</v>
+        <v>0.0003713693872268234</v>
       </c>
       <c r="DC5">
-        <v>0.001168741982746671</v>
+        <v>0.001166085150598675</v>
       </c>
       <c r="DD5">
-        <v>0.0008152046279656985</v>
+        <v>0.0008123274549956099</v>
       </c>
       <c r="DE5">
-        <v>0.001456816778494023</v>
+        <v>0.001454339487875262</v>
       </c>
       <c r="DF5">
-        <v>0.008382788876250692</v>
+        <v>0.008384628171602758</v>
       </c>
       <c r="DG5">
-        <v>0.0170918607476847</v>
+        <v>0.01709912793921199</v>
       </c>
       <c r="DH5">
-        <v>1.328174080393086E-06</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01675561575264845</v>
+        <v>0.0167626733807516</v>
       </c>
       <c r="DJ5">
-        <v>3.422282449479214E-09</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0291681025694115</v>
+        <v>0.02918289623307761</v>
       </c>
       <c r="DL5">
-        <v>0.009893178853953851</v>
+        <v>0.009895959494159204</v>
       </c>
       <c r="DM5">
-        <v>0.01869429472402907</v>
+        <v>0.01870256062648442</v>
       </c>
       <c r="DN5">
-        <v>0.002290195566191428</v>
+        <v>0.002288237675756871</v>
       </c>
       <c r="DO5">
-        <v>0.01343316280169552</v>
+        <v>0.01343814972353616</v>
       </c>
       <c r="DP5">
-        <v>0.004832828328656302</v>
+        <v>0.004832455124494877</v>
       </c>
       <c r="DQ5">
-        <v>0.007058436895801184</v>
+        <v>0.007059450793779632</v>
       </c>
       <c r="DR5">
-        <v>3.153305653449932E-06</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.003526652147938476</v>
+        <v>0.003525464874402019</v>
       </c>
       <c r="DT5">
-        <v>0.01554282377055206</v>
+        <v>0.01554912553062953</v>
       </c>
       <c r="DU5">
-        <v>0.0001763562773965744</v>
+        <v>0.0001730809446030517</v>
       </c>
       <c r="DV5">
-        <v>0.009248653863468527</v>
+        <v>0.009251032805906043</v>
       </c>
       <c r="DW5">
-        <v>0.001774884273798612</v>
+        <v>0.001772605217545891</v>
       </c>
       <c r="DX5">
-        <v>0.0004177468938330919</v>
+        <v>0.0004146220068302383</v>
       </c>
       <c r="DY5">
-        <v>2.717284359886612E-05</v>
+        <v>2.380453279325763E-05</v>
       </c>
       <c r="DZ5">
-        <v>0.01064166134290452</v>
+        <v>0.01064490847199629</v>
       </c>
       <c r="EA5">
-        <v>0.004024411940590393</v>
+        <v>0.004023534893966126</v>
       </c>
       <c r="EB5">
-        <v>0.003331804850814872</v>
+        <v>0.00333049613943585</v>
       </c>
       <c r="EC5">
-        <v>0.004136872438930217</v>
+        <v>0.004136065482887107</v>
       </c>
       <c r="ED5">
-        <v>0.005637740616773939</v>
+        <v>0.005637869071158289</v>
       </c>
       <c r="EE5">
-        <v>0.004782375329401105</v>
+        <v>0.004781970680598308</v>
       </c>
       <c r="EF5">
-        <v>4.029104640521118E-06</v>
+        <v>6.46369586952919E-07</v>
       </c>
       <c r="EG5">
-        <v>0.00646856390450907</v>
+        <v>0.006469210166371917</v>
       </c>
       <c r="EH5">
-        <v>0.009692281356919562</v>
+        <v>0.009694936788518089</v>
       </c>
       <c r="EI5">
-        <v>0.0003551815947567</v>
+        <v>0.0003520177141673229</v>
       </c>
       <c r="EJ5">
-        <v>0.005612176317151327</v>
+        <v>0.005612288838682419</v>
       </c>
       <c r="EK5">
-        <v>0.003051047154959503</v>
+        <v>0.003049563462406138</v>
       </c>
       <c r="EL5">
-        <v>0.01398358779356998</v>
+        <v>0.01398891776570946</v>
       </c>
       <c r="EM5">
-        <v>0.00532919192132883</v>
+        <v>0.005329128073903228</v>
       </c>
       <c r="EN5">
-        <v>0.002445162663903757</v>
+        <v>0.002443301356127992</v>
       </c>
       <c r="EO5">
-        <v>3.544200947679416E-06</v>
+        <v>1.611636797147138E-07</v>
       </c>
       <c r="EP5">
-        <v>7.299651892240293E-06</v>
+        <v>3.918955194903455E-06</v>
       </c>
       <c r="EQ5">
-        <v>0.006983826896902598</v>
+        <v>0.006984794294480815</v>
       </c>
       <c r="ER5">
-        <v>0.01143102683125167</v>
+        <v>0.01143476592940492</v>
       </c>
       <c r="ES5">
-        <v>0.0001221883081962186</v>
+        <v>0.0001188792154203255</v>
       </c>
       <c r="ET5">
-        <v>9.150320364920157E-07</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.001803508273376056</v>
+        <v>0.001801247056923043</v>
       </c>
       <c r="EV5">
-        <v>0.002236701766981121</v>
+        <v>0.002234710536738095</v>
       </c>
       <c r="EW5">
-        <v>0.003887765242607614</v>
+        <v>0.003886803031444543</v>
       </c>
       <c r="EX5">
-        <v>0.0003451843449042826</v>
+        <v>0.0003420142335666652</v>
       </c>
       <c r="EY5">
-        <v>0.00322865175233765</v>
+        <v>0.003227278751179309</v>
       </c>
       <c r="EZ5">
-        <v>0.001026053084853089</v>
+        <v>0.001023307322387998</v>
       </c>
       <c r="FA5">
-        <v>5.804227914316202E-06</v>
+        <v>2.422599199628958E-06</v>
       </c>
       <c r="FB5">
-        <v>0.004047038440256373</v>
+        <v>0.004046175495512629</v>
       </c>
       <c r="FC5">
-        <v>0.002985633655925158</v>
+        <v>0.002984109194655395</v>
       </c>
       <c r="FD5">
-        <v>0.0007636054587274213</v>
+        <v>0.0007606961267698438</v>
       </c>
       <c r="FE5">
-        <v>0.002921756756868128</v>
+        <v>0.002920192484562104</v>
       </c>
       <c r="FF5">
-        <v>0.02069073669455698</v>
+        <v>0.02070024687193576</v>
       </c>
       <c r="FG5">
-        <v>0.006252689707695871</v>
+        <v>0.006253201426780278</v>
       </c>
       <c r="FH5">
-        <v>6.973319897057707E-06</v>
+        <v>3.592419814536472E-06</v>
       </c>
       <c r="FI5">
-        <v>9.618314858011478E-05</v>
+        <v>9.285784818663617E-05</v>
       </c>
       <c r="FJ5">
-        <v>0.000301919465542972</v>
+        <v>0.0002987223895325773</v>
       </c>
       <c r="FK5">
-        <v>0.002107244668892206</v>
+        <v>0.002105172755001376</v>
       </c>
       <c r="FL5">
-        <v>0.004717156230363889</v>
+        <v>0.004716710934003758</v>
       </c>
       <c r="FM5">
-        <v>0.001439779278745536</v>
+        <v>0.001437291369569357</v>
       </c>
       <c r="FN5">
-        <v>0.0007038036896102335</v>
+        <v>0.0007008570864257498</v>
       </c>
       <c r="FO5">
-        <v>0.003347097950589111</v>
+        <v>0.003345798770576806</v>
       </c>
       <c r="FP5">
-        <v>0.003206428552665716</v>
+        <v>0.003205041700982051</v>
       </c>
       <c r="FQ5">
-        <v>0.0003471723748749346</v>
+        <v>0.0003440035025694934</v>
       </c>
       <c r="FR5">
-        <v>0.001464984778373444</v>
+        <v>0.001462512578429782</v>
       </c>
       <c r="FS5">
-        <v>0.0002120552968695745</v>
+        <v>0.0002088022133552077</v>
       </c>
       <c r="FT5">
-        <v>0.001991170970605722</v>
+        <v>0.001989026714220505</v>
       </c>
       <c r="FU5">
-        <v>0.0002260597666628362</v>
+        <v>0.0002228154113814143</v>
       </c>
       <c r="FV5">
-        <v>0.005729032615426258</v>
+        <v>0.005729217967204226</v>
       </c>
       <c r="FW5">
-        <v>0.0007553312388495679</v>
+        <v>0.000752416750015679</v>
       </c>
       <c r="FX5">
-        <v>0.003226627952367526</v>
+        <v>0.003225253689883491</v>
       </c>
       <c r="FY5">
-        <v>0.0001543836377209413</v>
+        <v>0.000151094610562667</v>
       </c>
       <c r="FZ5">
-        <v>0.001938394471384825</v>
+        <v>0.00193621732224565</v>
       </c>
       <c r="GA5">
-        <v>0.0009887496854037729</v>
+        <v>0.0009859806737357614</v>
       </c>
       <c r="GB5">
-        <v>0.001563978676912066</v>
+        <v>0.001561568174542057</v>
       </c>
       <c r="GC5">
-        <v>0.0005101276224693391</v>
+        <v>0.0005070603114069567</v>
       </c>
       <c r="GD5">
-        <v>0.01116064283524316</v>
+        <v>0.01116421341759135</v>
       </c>
       <c r="GE5">
-        <v>0.002968144056183344</v>
+        <v>0.002966608694586549</v>
       </c>
       <c r="GF5">
-        <v>0.0005218016322970037</v>
+        <v>0.0005187415970171879</v>
       </c>
       <c r="GG5">
-        <v>0.000694921639741353</v>
+        <v>0.00069196950085281</v>
       </c>
       <c r="GH5">
-        <v>0.003333860950784519</v>
+        <v>0.003332553520862043</v>
       </c>
       <c r="GI5">
-        <v>0.0001467664978333878</v>
+        <v>0.0001434727233214262</v>
       </c>
       <c r="GJ5">
-        <v>0.0002120552968695745</v>
+        <v>0.0002088022133552077</v>
       </c>
       <c r="GK5">
-        <v>5.117775324449826E-05</v>
+        <v>4.782440340823022E-05</v>
       </c>
       <c r="GL5">
-        <v>0.0006419200905237782</v>
+        <v>0.0006389349186197168</v>
       </c>
       <c r="GM5">
-        <v>0.002893774457281212</v>
+        <v>0.002892192745112577</v>
       </c>
       <c r="GN5">
-        <v>0.005424332919924329</v>
+        <v>0.005424328368767033</v>
       </c>
       <c r="GO5">
-        <v>0.0005582135917594792</v>
+        <v>0.0005551762500959771</v>
       </c>
       <c r="GP5">
-        <v>3.718619545104594E-06</v>
+        <v>3.356909828724695E-07</v>
       </c>
       <c r="GQ5">
-        <v>0.005684448916084417</v>
+        <v>0.005684606481240031</v>
       </c>
       <c r="GR5">
-        <v>0.001433029878845172</v>
+        <v>0.001430537763130979</v>
       </c>
       <c r="GS5">
-        <v>0.001961987471036537</v>
+        <v>0.001959825026145354</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.293226856821828E-05</v>
+        <v>1.201971104729967E-05</v>
       </c>
       <c r="C6">
-        <v>8.088880847697978E-07</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.61845495069825E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.361295355540196E-05</v>
+        <v>1.270158183590599E-05</v>
       </c>
       <c r="F6">
-        <v>5.162142902804255E-07</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.956330363165106E-07</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.016724543199405E-05</v>
+        <v>1.926729175282215E-05</v>
       </c>
       <c r="I6">
-        <v>3.498219934133537E-05</v>
+        <v>2.409063365264827E-05</v>
       </c>
       <c r="J6">
-        <v>3.083328141945354E-05</v>
+        <v>1.993448802211E-05</v>
       </c>
       <c r="K6">
-        <v>1.174555727884801E-05</v>
+        <v>8.135117151322919E-07</v>
       </c>
       <c r="L6">
-        <v>4.015349924396722E-05</v>
+        <v>2.927094232570534E-05</v>
       </c>
       <c r="M6">
-        <v>4.053651323675561E-05</v>
+        <v>2.965462355597669E-05</v>
       </c>
       <c r="N6">
-        <v>2.62712155053507E-11</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.850321865161094E-05</v>
+        <v>7.582945412274947E-06</v>
       </c>
       <c r="P6">
-        <v>2.555598751881742E-05</v>
+        <v>1.464800070200248E-05</v>
       </c>
       <c r="Q6">
-        <v>8.495038840050607E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.189265777607832E-06</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.093346029413863E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3.427253235469738E-05</v>
+        <v>2.337973037589341E-05</v>
       </c>
       <c r="U6">
-        <v>7.309307862376219E-06</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2.732866648544041E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.971106944058319E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3.291106538033185E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.739460967248445E-05</v>
+        <v>6.472405157845862E-06</v>
       </c>
       <c r="Z6">
-        <v>1.951221463261299E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1.255934576352554E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.081766560803322E-05</v>
+        <v>9.901424299098551E-06</v>
       </c>
       <c r="AC6">
-        <v>2.778522047684416E-05</v>
+        <v>1.688111714161438E-05</v>
       </c>
       <c r="AD6">
-        <v>4.306629718912341E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>5.162142902804255E-07</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>8.968975831127051E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1.272833676034368E-05</v>
+        <v>1.798003268040203E-06</v>
       </c>
       <c r="AH6">
-        <v>1.009840180986158E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>6.302076281340945E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.092671479426564E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>8.274324844206333E-07</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>3.083328141945354E-05</v>
+        <v>1.993448802211E-05</v>
       </c>
       <c r="AM6">
-        <v>9.769855816047631E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>7.173007264942564E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>2.667470149775364E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>6.67174517438061E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3.920269926186942E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.773522466607116E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>3.001178143492121E-07</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1.78604366637136E-05</v>
+        <v>6.939043652662284E-06</v>
       </c>
       <c r="AU6">
-        <v>1.540790670989122E-06</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>3.999464924695813E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>9.426129822519497E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>5.068438904568567E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>4.162691721622487E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>2.637328450342889E-05</v>
+        <v>1.546672147580472E-05</v>
       </c>
       <c r="BA6">
-        <v>1.008523781010944E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>5.842593389992348E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1.826919565601726E-06</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>3.629972631652823E-05</v>
+        <v>2.541045585307889E-05</v>
       </c>
       <c r="BE6">
-        <v>2.683251449478225E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>5.310497900010943E-07</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>7.391048560837159E-06</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>4.475946215724354E-06</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>4.43267651653906E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1.238008576690075E-07</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>3.392042636132704E-05</v>
+        <v>2.302701098896258E-05</v>
       </c>
       <c r="BL6">
-        <v>8.550854138999684E-07</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1.866699064852735E-07</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>1.356785174453682E-05</v>
+        <v>2.638980746751843E-06</v>
       </c>
       <c r="BO6">
-        <v>5.554719895412593E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>7.066813266942045E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1.889433964424669E-05</v>
+        <v>7.974747765361162E-06</v>
       </c>
       <c r="BR6">
-        <v>2.146644459581764E-05</v>
+        <v>1.055133350579653E-05</v>
       </c>
       <c r="BS6">
-        <v>9.769855816047631E-06</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>4.072869923313703E-05</v>
+        <v>2.984714435396563E-05</v>
       </c>
       <c r="BU6">
-        <v>3.016724543199405E-05</v>
+        <v>1.926729175282215E-05</v>
       </c>
       <c r="BV6">
-        <v>9.864321814268971E-06</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>3.920391926184644E-05</v>
+        <v>2.831970810804991E-05</v>
       </c>
       <c r="BX6">
-        <v>1.697963268029788E-05</v>
+        <v>6.056705246369213E-06</v>
       </c>
       <c r="BY6">
-        <v>7.7349015543629E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.733597567358845E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>4.072869923313703E-05</v>
+        <v>2.984714435396563E-05</v>
       </c>
       <c r="CB6">
-        <v>8.500312839951304E-08</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>4.098308922834723E-05</v>
+        <v>3.010197751455174E-05</v>
       </c>
       <c r="CD6">
-        <v>3.396609636046713E-07</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>1.266770576148527E-06</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>1.828597665570129E-05</v>
+        <v>7.365324965433291E-06</v>
       </c>
       <c r="CG6">
-        <v>1.283613175831405E-05</v>
+        <v>1.905986052526153E-06</v>
       </c>
       <c r="CH6">
-        <v>2.137156059760417E-05</v>
+        <v>1.045628421294283E-05</v>
       </c>
       <c r="CI6">
-        <v>2.833460946649995E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>1.677155468421569E-05</v>
+        <v>5.848264763691285E-06</v>
       </c>
       <c r="CK6">
-        <v>1.283613175831405E-05</v>
+        <v>1.905986052526153E-06</v>
       </c>
       <c r="CL6">
-        <v>4.690225411689784E-06</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>6.833137271341828E-08</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02733195548537849</v>
+        <v>0.02736861717907671</v>
       </c>
       <c r="CO6">
-        <v>0.1107815339141427</v>
+        <v>0.1109635706795445</v>
       </c>
       <c r="CP6">
-        <v>0.2132327659851329</v>
+        <v>0.2135932800477109</v>
       </c>
       <c r="CQ6">
-        <v>0.1073926779779499</v>
+        <v>0.1075688111164673</v>
       </c>
       <c r="CR6">
-        <v>0.03560400732962762</v>
+        <v>0.03565507952308673</v>
       </c>
       <c r="CS6">
-        <v>0.02734192548519077</v>
+        <v>0.02737860454733428</v>
       </c>
       <c r="CT6">
-        <v>0.0001467799172363447</v>
+        <v>0.0001360831110846296</v>
       </c>
       <c r="CU6">
-        <v>0.04585906413653961</v>
+        <v>0.04592800136475025</v>
       </c>
       <c r="CV6">
-        <v>0.001859749264983589</v>
+        <v>0.00185203657266976</v>
       </c>
       <c r="CW6">
-        <v>0.01854596665080606</v>
+        <v>0.01856732253013274</v>
       </c>
       <c r="CX6">
-        <v>0.001974160562829389</v>
+        <v>0.001966647183093779</v>
       </c>
       <c r="CY6">
-        <v>0.0008576608238514772</v>
+        <v>0.0008482024225511439</v>
       </c>
       <c r="CZ6">
-        <v>0.0195402726320847</v>
+        <v>0.01956336066280202</v>
       </c>
       <c r="DA6">
-        <v>0.001438221672920349</v>
+        <v>0.001429774649707849</v>
       </c>
       <c r="DB6">
-        <v>0.0008665132836847979</v>
+        <v>0.0008570703039960204</v>
       </c>
       <c r="DC6">
-        <v>0.0002972458944032863</v>
+        <v>0.0002868112106329117</v>
       </c>
       <c r="DD6">
-        <v>0.001135557678619078</v>
+        <v>0.00112658339330769</v>
       </c>
       <c r="DE6">
-        <v>3.807941928301916E-05</v>
+        <v>2.719324917067387E-05</v>
       </c>
       <c r="DF6">
-        <v>0.006835506171297225</v>
+        <v>0.006836461599669623</v>
       </c>
       <c r="DG6">
-        <v>0.02001379162316902</v>
+        <v>0.02003770455748176</v>
       </c>
       <c r="DH6">
-        <v>0.001107287679151362</v>
+        <v>0.001098264145500113</v>
       </c>
       <c r="DI6">
-        <v>0.01398881473661069</v>
+        <v>0.01400223173477386</v>
       </c>
       <c r="DJ6">
-        <v>0.0006704962873755169</v>
+        <v>0.000660711832206214</v>
       </c>
       <c r="DK6">
-        <v>0.01972903462853058</v>
+        <v>0.0197524514960052</v>
       </c>
       <c r="DL6">
-        <v>0.01842986565299207</v>
+        <v>0.0184510192761636</v>
       </c>
       <c r="DM6">
-        <v>0.01695956468067573</v>
+        <v>0.01697815693549404</v>
       </c>
       <c r="DN6">
-        <v>8.922832331995869E-07</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01317608675191319</v>
+        <v>0.01318808792040681</v>
       </c>
       <c r="DP6">
-        <v>9.356897323823047E-05</v>
+        <v>8.277946985610635E-05</v>
       </c>
       <c r="DQ6">
-        <v>0.0135993047439446</v>
+        <v>0.01361204318813328</v>
       </c>
       <c r="DR6">
-        <v>0.0003571753932748998</v>
+        <v>0.0003468451109330245</v>
       </c>
       <c r="DS6">
-        <v>0.0005485723896711689</v>
+        <v>0.0005385755344429936</v>
       </c>
       <c r="DT6">
-        <v>0.01589318170075419</v>
+        <v>0.01590991624094903</v>
       </c>
       <c r="DU6">
-        <v>0.002364607755477829</v>
+        <v>0.002357774562385417</v>
       </c>
       <c r="DV6">
-        <v>0.004189020921126746</v>
+        <v>0.004185365984890356</v>
       </c>
       <c r="DW6">
-        <v>5.605834894450172E-05</v>
+        <v>4.520349940007187E-05</v>
       </c>
       <c r="DX6">
-        <v>0.005536208895761129</v>
+        <v>0.005534900856322762</v>
       </c>
       <c r="DY6">
-        <v>0.001725330767514497</v>
+        <v>0.001717383908664708</v>
       </c>
       <c r="DZ6">
-        <v>0.008936109831745873</v>
+        <v>0.008940724660363407</v>
       </c>
       <c r="EA6">
-        <v>0.001231291776816542</v>
+        <v>0.001222484267079722</v>
       </c>
       <c r="EB6">
-        <v>0.007962848850070979</v>
+        <v>0.007965768189176626</v>
       </c>
       <c r="EC6">
-        <v>0.001706995067859732</v>
+        <v>0.001699016266923449</v>
       </c>
       <c r="ED6">
-        <v>0.002259766657451836</v>
+        <v>0.002252750823746614</v>
       </c>
       <c r="EE6">
-        <v>0.007309594562370821</v>
+        <v>0.007311375886273716</v>
       </c>
       <c r="EF6">
-        <v>4.90673440761323E-05</v>
+        <v>3.820031570643867E-05</v>
       </c>
       <c r="EG6">
-        <v>0.001281173075877349</v>
+        <v>0.001272452462893804</v>
       </c>
       <c r="EH6">
-        <v>0.01787740966339402</v>
+        <v>0.01789760086913202</v>
       </c>
       <c r="EI6">
-        <v>0.003162414440456273</v>
+        <v>0.003156971083073258</v>
       </c>
       <c r="EJ6">
-        <v>0.00726409246322756</v>
+        <v>0.007265794519253371</v>
       </c>
       <c r="EK6">
-        <v>0.007982556849699906</v>
+        <v>0.007985510521535726</v>
       </c>
       <c r="EL6">
-        <v>0.0101692398085278</v>
+        <v>0.01017600283683873</v>
       </c>
       <c r="EM6">
-        <v>0.01207862477257683</v>
+        <v>0.0120887140846304</v>
       </c>
       <c r="EN6">
-        <v>0.0002920704645007322</v>
+        <v>0.0002816267647651802</v>
       </c>
       <c r="EO6">
-        <v>0.0008879446832812755</v>
+        <v>0.0008785390386073862</v>
       </c>
       <c r="EP6">
-        <v>0.0002117788460125082</v>
+        <v>0.0002011952725949711</v>
       </c>
       <c r="EQ6">
-        <v>0.001734510067341664</v>
+        <v>0.001726579199481832</v>
       </c>
       <c r="ER6">
-        <v>0.01276514775965058</v>
+        <v>0.01277643304333579</v>
       </c>
       <c r="ES6">
-        <v>0.003648269631308316</v>
+        <v>0.0036436726680538</v>
       </c>
       <c r="ET6">
-        <v>8.300125843720538E-05</v>
+        <v>7.219334534797585E-05</v>
       </c>
       <c r="EU6">
-        <v>3.795300928539929E-05</v>
+        <v>2.706661895789157E-05</v>
       </c>
       <c r="EV6">
-        <v>0.005094476404078318</v>
+        <v>0.005092398835376157</v>
       </c>
       <c r="EW6">
-        <v>0.0002691851649316295</v>
+        <v>0.0002587015973845384</v>
       </c>
       <c r="EX6">
-        <v>0.003473192434604769</v>
+        <v>0.003468290474482639</v>
       </c>
       <c r="EY6">
-        <v>0.001418849173285106</v>
+        <v>0.001410368401807167</v>
       </c>
       <c r="EZ6">
-        <v>0.003002268443471592</v>
+        <v>0.002996546100427619</v>
       </c>
       <c r="FA6">
-        <v>0.0003646213331347033</v>
+        <v>0.0003543040221470446</v>
       </c>
       <c r="FB6">
-        <v>0.003542835933293482</v>
+        <v>0.003538055297075033</v>
       </c>
       <c r="FC6">
-        <v>0.005593966894673628</v>
+        <v>0.005592759473757145</v>
       </c>
       <c r="FD6">
-        <v>0.001962549463048009</v>
+        <v>0.001955015855954813</v>
       </c>
       <c r="FE6">
-        <v>1.798808366131019E-05</v>
+        <v>7.066913020362806E-06</v>
       </c>
       <c r="FF6">
-        <v>0.02166744659203306</v>
+        <v>0.02169424031033775</v>
       </c>
       <c r="FG6">
-        <v>0.01382057973977831</v>
+        <v>0.0138337036606703</v>
       </c>
       <c r="FH6">
-        <v>1.78604366637136E-05</v>
+        <v>6.939043652662284E-06</v>
       </c>
       <c r="FI6">
-        <v>0.000438873211736647</v>
+        <v>0.0004286852527766334</v>
       </c>
       <c r="FJ6">
-        <v>0.0004036088524006243</v>
+        <v>0.000393359460430839</v>
       </c>
       <c r="FK6">
-        <v>0.000145322437263787</v>
+        <v>0.0001346230920788077</v>
       </c>
       <c r="FL6">
-        <v>0.0047227655110771</v>
+        <v>0.004720040395691774</v>
       </c>
       <c r="FM6">
-        <v>0.002207500358435935</v>
+        <v>0.00220039347313872</v>
       </c>
       <c r="FN6">
-        <v>0.001066850079912744</v>
+        <v>0.00105775610110168</v>
       </c>
       <c r="FO6">
-        <v>0.001256813976335996</v>
+        <v>0.001248050928077053</v>
       </c>
       <c r="FP6">
-        <v>0.00199473666244197</v>
+        <v>0.001987259127728144</v>
       </c>
       <c r="FQ6">
-        <v>2.901918545361037E-05</v>
+        <v>1.811723177270305E-05</v>
       </c>
       <c r="FR6">
-        <v>0.00149092717192798</v>
+        <v>0.001482571965424943</v>
       </c>
       <c r="FS6">
-        <v>0.0008556134838900256</v>
+        <v>0.0008461515159785806</v>
       </c>
       <c r="FT6">
-        <v>0.001097597079333822</v>
+        <v>0.001088556663971846</v>
       </c>
       <c r="FU6">
-        <v>0.0004226045920429618</v>
+        <v>0.0004123882919960425</v>
       </c>
       <c r="FV6">
-        <v>0.004239910220168573</v>
+        <v>0.004236343936692765</v>
       </c>
       <c r="FW6">
-        <v>0.003096635441694797</v>
+        <v>0.003091077492640482</v>
       </c>
       <c r="FX6">
-        <v>0.0007141226865540943</v>
+        <v>0.0007044142316597859</v>
       </c>
       <c r="FY6">
-        <v>0.001028789080629378</v>
+        <v>0.001019628796863824</v>
       </c>
       <c r="FZ6">
-        <v>0.002694522249266012</v>
+        <v>0.002688263790571228</v>
       </c>
       <c r="GA6">
-        <v>8.981597830889397E-05</v>
+        <v>7.901993694398757E-05</v>
       </c>
       <c r="GB6">
-        <v>0.001404123573562367</v>
+        <v>0.001395617149047518</v>
       </c>
       <c r="GC6">
-        <v>1.066200379924976E-07</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.004574106913876129</v>
+        <v>0.004571122824693278</v>
       </c>
       <c r="GE6">
-        <v>0.005911805888689177</v>
+        <v>0.005911152165795084</v>
       </c>
       <c r="GF6">
-        <v>0.0003351216636901399</v>
+        <v>0.0003247529621904919</v>
       </c>
       <c r="GG6">
-        <v>5.842593389992348E-06</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0009166349827410782</v>
+        <v>0.0009072793185993821</v>
       </c>
       <c r="GI6">
-        <v>0.0007538830258054641</v>
+        <v>0.0007442438362361396</v>
       </c>
       <c r="GJ6">
-        <v>9.407712422866272E-07</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.000251346395267508</v>
+        <v>0.0002408317513211365</v>
       </c>
       <c r="GL6">
-        <v>0.001190376777586913</v>
+        <v>0.001181497991025707</v>
       </c>
       <c r="GM6">
-        <v>0.0003951733125594534</v>
+        <v>0.0003849092252822458</v>
       </c>
       <c r="GN6">
-        <v>0.004820651309234051</v>
+        <v>0.004818096717836907</v>
       </c>
       <c r="GO6">
-        <v>0.005276847500644531</v>
+        <v>0.005275087635299765</v>
       </c>
       <c r="GP6">
-        <v>0.0001904087364148767</v>
+        <v>0.0001797879347539672</v>
       </c>
       <c r="GQ6">
-        <v>0.0009923688813151177</v>
+        <v>0.000983145150984747</v>
       </c>
       <c r="GR6">
-        <v>0.004287791319267041</v>
+        <v>0.004284308448054611</v>
       </c>
       <c r="GS6">
-        <v>0.0009175479427238885</v>
+        <v>0.0009081938690230966</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.08488269846865E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.885672507549876E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.295486167362249E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.048356542583367E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.344999699907536E-05</v>
+        <v>9.241725950111762E-07</v>
       </c>
       <c r="G2">
-        <v>4.65509565678894E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="H2">
-        <v>5.745938320886528E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="I2">
-        <v>6.950356881246045E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="J2">
-        <v>8.103603043289775E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="K2">
-        <v>8.7201361529981E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="L2">
-        <v>8.955085705265311E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="M2">
-        <v>8.991234142075574E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="N2">
-        <v>9.033103965697531E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="O2">
-        <v>9.10890639320268E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="P2">
-        <v>9.776992351214269E-05</v>
+        <v>1.983154222386455E-06</v>
       </c>
       <c r="Q2">
-        <v>0.000116249827903922</v>
+        <v>8.432317600696298E-06</v>
       </c>
       <c r="R2">
-        <v>0.0001360334402527929</v>
+        <v>1.618791245769711E-05</v>
       </c>
       <c r="S2">
-        <v>0.000155486958612528</v>
+        <v>2.361272374005774E-05</v>
       </c>
       <c r="T2">
-        <v>0.000189871867480833</v>
+        <v>4.600011807249017E-05</v>
       </c>
       <c r="U2">
-        <v>0.0002388772058679425</v>
+        <v>8.303848484967084E-05</v>
       </c>
       <c r="V2">
-        <v>0.0003000321588551772</v>
+        <v>0.0001322518474771308</v>
       </c>
       <c r="W2">
-        <v>0.000364434531735531</v>
+        <v>0.0001847194140463713</v>
       </c>
       <c r="X2">
-        <v>0.000438120469310339</v>
+        <v>0.0002464899392156001</v>
       </c>
       <c r="Y2">
-        <v>0.000497827092345242</v>
+        <v>0.000294251946245386</v>
       </c>
       <c r="Z2">
-        <v>0.0005457945657665102</v>
+        <v>0.0003302502798965664</v>
       </c>
       <c r="AA2">
-        <v>0.0005914674642632987</v>
+        <v>0.0003639492451230555</v>
       </c>
       <c r="AB2">
-        <v>0.0006344122488498765</v>
+        <v>0.0003949143972510153</v>
       </c>
       <c r="AC2">
-        <v>0.0006585563290552333</v>
+        <v>0.0004070395692349683</v>
       </c>
       <c r="AD2">
-        <v>0.0006786728083931487</v>
+        <v>0.0004151287264594759</v>
       </c>
       <c r="AE2">
-        <v>0.0006968337277954266</v>
+        <v>0.000421258238470125</v>
       </c>
       <c r="AF2">
-        <v>0.0007018099242316472</v>
+        <v>0.000421258238470125</v>
       </c>
       <c r="AG2">
-        <v>0.0007030901840895106</v>
+        <v>0.000421258238470125</v>
       </c>
       <c r="AH2">
-        <v>0.0007031015813571355</v>
+        <v>0.000421258238470125</v>
       </c>
       <c r="AI2">
-        <v>0.0007056255512740652</v>
+        <v>0.000421258238470125</v>
       </c>
       <c r="AJ2">
-        <v>0.0007167815084068943</v>
+        <v>0.000421258238470125</v>
       </c>
       <c r="AK2">
-        <v>0.0007376639117196011</v>
+        <v>0.0004301149197290673</v>
       </c>
       <c r="AL2">
-        <v>0.0007563913271032342</v>
+        <v>0.0004368121111640602</v>
       </c>
       <c r="AM2">
-        <v>0.0007868609371004016</v>
+        <v>0.0004552760273387401</v>
       </c>
       <c r="AN2">
-        <v>0.000817743312083984</v>
+        <v>0.0004741535707898514</v>
       </c>
       <c r="AO2">
-        <v>0.0008387963413910752</v>
+        <v>0.0004831812344907847</v>
       </c>
       <c r="AP2">
-        <v>0.000859508810709375</v>
+        <v>0.0004918676267533414</v>
       </c>
       <c r="AQ2">
-        <v>0.0008750029441994236</v>
+        <v>0.0004953247817811904</v>
       </c>
       <c r="AR2">
-        <v>0.0008887869497457568</v>
+        <v>0.000497068236308781</v>
       </c>
       <c r="AS2">
-        <v>0.0008944983395577804</v>
+        <v>0.000497068236308781</v>
       </c>
       <c r="AT2">
-        <v>0.0009038655032494832</v>
+        <v>0.000497068236308781</v>
       </c>
       <c r="AU2">
-        <v>0.0009048878806158342</v>
+        <v>0.000497068236308781</v>
       </c>
       <c r="AV2">
-        <v>0.0009055517009339862</v>
+        <v>0.000497068236308781</v>
       </c>
       <c r="AW2">
-        <v>0.0009086667624314615</v>
+        <v>0.000497068236308781</v>
       </c>
       <c r="AX2">
-        <v>0.0009223761609802503</v>
+        <v>0.0004987369279804784</v>
       </c>
       <c r="AY2">
-        <v>0.0009539791839401143</v>
+        <v>0.0005183366248833256</v>
       </c>
       <c r="AZ2">
-        <v>0.0009829176429876759</v>
+        <v>0.0005352661914451864</v>
       </c>
       <c r="BA2">
-        <v>0.001013688301974935</v>
+        <v>0.0005540317855187734</v>
       </c>
       <c r="BB2">
-        <v>0.001051200307740319</v>
+        <v>0.0005795528094352232</v>
       </c>
       <c r="BC2">
-        <v>0.001091500984413921</v>
+        <v>0.0006078683299552932</v>
       </c>
       <c r="BD2">
-        <v>0.001117321056564117</v>
+        <v>0.000621672995128545</v>
       </c>
       <c r="BE2">
-        <v>0.001135961493950613</v>
+        <v>0.0006282830268643158</v>
       </c>
       <c r="BF2">
-        <v>0.001154281558347653</v>
+        <v>0.000634572016332859</v>
       </c>
       <c r="BG2">
-        <v>0.001163701256037626</v>
+        <v>0.000634572016332859</v>
       </c>
       <c r="BH2">
-        <v>0.001166750897637255</v>
+        <v>0.000634572016332859</v>
       </c>
       <c r="BI2">
-        <v>0.001171007098997172</v>
+        <v>0.000634572016332859</v>
       </c>
       <c r="BJ2">
-        <v>0.001172124263560404</v>
+        <v>0.000634572016332859</v>
       </c>
       <c r="BK2">
-        <v>0.001172496127108165</v>
+        <v>0.000634572016332859</v>
       </c>
       <c r="BL2">
-        <v>0.001173408596378133</v>
+        <v>0.000634572016332859</v>
       </c>
       <c r="BM2">
-        <v>0.001178769329901698</v>
+        <v>0.000634572016332859</v>
       </c>
       <c r="BN2">
-        <v>0.001192692028443466</v>
+        <v>0.0006364544535936032</v>
       </c>
       <c r="BO2">
-        <v>0.001200635259182034</v>
+        <v>0.0006364544535936032</v>
       </c>
       <c r="BP2">
-        <v>0.001216572543657497</v>
+        <v>0.0006403556853749993</v>
       </c>
       <c r="BQ2">
-        <v>0.001227358245302512</v>
+        <v>0.0006403556853749993</v>
       </c>
       <c r="BR2">
-        <v>0.001241842654825794</v>
+        <v>0.0006428010070641024</v>
       </c>
       <c r="BS2">
-        <v>0.001254943614394608</v>
+        <v>0.0006438599886914776</v>
       </c>
       <c r="BT2">
-        <v>0.001266858827002447</v>
+        <v>0.0006438599886914776</v>
       </c>
       <c r="BU2">
-        <v>0.001278139591631169</v>
+        <v>0.0006438599886914776</v>
       </c>
       <c r="BV2">
-        <v>0.001287852017311508</v>
+        <v>0.0006438599886914776</v>
       </c>
       <c r="BW2">
-        <v>0.001295077114073712</v>
+        <v>0.0006438599886914776</v>
       </c>
       <c r="BX2">
-        <v>0.001313483405467914</v>
+        <v>0.0006502353852903853</v>
       </c>
       <c r="BY2">
-        <v>0.00132956979793847</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="BZ2">
-        <v>0.001339398699614975</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="CA2">
-        <v>0.00134682550667054</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="CB2">
-        <v>0.00135184669150528</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="CC2">
-        <v>0.001353325523556608</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="CD2">
-        <v>0.001353664951315437</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="CE2">
-        <v>0.001354593867484864</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="CF2">
-        <v>0.001355418165757734</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="CG2">
-        <v>0.00135696389620686</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="CH2">
-        <v>0.001365820444915368</v>
+        <v>0.0006542860365621309</v>
       </c>
       <c r="CI2">
-        <v>0.001381975657383659</v>
+        <v>0.0006584056516005817</v>
       </c>
       <c r="CJ2">
-        <v>0.001398431802842046</v>
+        <v>0.0006628268282956126</v>
       </c>
       <c r="CK2">
-        <v>0.001424441565985998</v>
+        <v>0.0006768215807381182</v>
       </c>
       <c r="CL2">
-        <v>0.001450072639142414</v>
+        <v>0.0006904368520877215</v>
       </c>
       <c r="CM2">
-        <v>0.001485116185989042</v>
+        <v>0.0007134842603314454</v>
       </c>
       <c r="CN2">
-        <v>0.0400063709181564</v>
+        <v>0.03930314278308944</v>
       </c>
       <c r="CO2">
-        <v>0.122634138198666</v>
+        <v>0.1220914549191749</v>
       </c>
       <c r="CP2">
-        <v>0.4038926789417308</v>
+        <v>0.4039254917335939</v>
       </c>
       <c r="CQ2">
-        <v>0.48642900622525</v>
+        <v>0.4866221728492274</v>
       </c>
       <c r="CR2">
-        <v>0.5045657916283222</v>
+        <v>0.5047847777031947</v>
       </c>
       <c r="CS2">
-        <v>0.5210604060854424</v>
+        <v>0.5213017810207802</v>
       </c>
       <c r="CT2">
-        <v>0.5213315068565197</v>
+        <v>0.5215613787904986</v>
       </c>
       <c r="CU2">
-        <v>0.5330521914707621</v>
+        <v>0.5332944792486498</v>
       </c>
       <c r="CV2">
-        <v>0.5414353871948497</v>
+        <v>0.5416831186086219</v>
       </c>
       <c r="CW2">
-        <v>0.5420871714733979</v>
+        <v>0.5423241951557559</v>
       </c>
       <c r="CX2">
-        <v>0.5503664952009043</v>
+        <v>0.5506087455245164</v>
       </c>
       <c r="CY2">
-        <v>0.5626155887977554</v>
+        <v>0.5628713588423139</v>
       </c>
       <c r="CZ2">
-        <v>0.6037315374445248</v>
+        <v>0.6040611317458769</v>
       </c>
       <c r="DA2">
-        <v>0.6058652663742984</v>
+        <v>0.6061872488126359</v>
       </c>
       <c r="DB2">
-        <v>0.6059295312521833</v>
+        <v>0.6062395785969746</v>
       </c>
       <c r="DC2">
-        <v>0.6061936464934906</v>
+        <v>0.6064921762437457</v>
       </c>
       <c r="DD2">
-        <v>0.6093235009904792</v>
+        <v>0.6096164998418522</v>
       </c>
       <c r="DE2">
-        <v>0.6097502211364347</v>
+        <v>0.6100320420843562</v>
       </c>
       <c r="DF2">
-        <v>0.6116005028755372</v>
+        <v>0.6118741198228095</v>
       </c>
       <c r="DG2">
-        <v>0.6352598420968482</v>
+        <v>0.6355708154305121</v>
       </c>
       <c r="DH2">
-        <v>0.6391851669676557</v>
+        <v>0.6394922711862235</v>
       </c>
       <c r="DI2">
-        <v>0.6592051463087472</v>
+        <v>0.6595420040796613</v>
       </c>
       <c r="DJ2">
-        <v>0.6600032230824804</v>
+        <v>0.6603296787354949</v>
       </c>
       <c r="DK2">
-        <v>0.691435502047964</v>
+        <v>0.6918155522096954</v>
       </c>
       <c r="DL2">
-        <v>0.7074288995215805</v>
+        <v>0.7078302914724042</v>
       </c>
       <c r="DM2">
-        <v>0.7275967788578042</v>
+        <v>0.7280282333326493</v>
       </c>
       <c r="DN2">
-        <v>0.7304954979623999</v>
+        <v>0.7309209386831115</v>
       </c>
       <c r="DO2">
-        <v>0.7547024711656867</v>
+        <v>0.7551664123119672</v>
       </c>
       <c r="DP2">
-        <v>0.7578480640621572</v>
+        <v>0.7583065071879858</v>
       </c>
       <c r="DQ2">
-        <v>0.7727056585731559</v>
+        <v>0.7731830707297573</v>
       </c>
       <c r="DR2">
-        <v>0.7729469503052143</v>
+        <v>0.773412797187644</v>
       </c>
       <c r="DS2">
-        <v>0.773480068437668</v>
+        <v>0.7739349596882161</v>
       </c>
       <c r="DT2">
-        <v>0.7938654977667317</v>
+        <v>0.7943509060158643</v>
       </c>
       <c r="DU2">
-        <v>0.797336776652483</v>
+        <v>0.7978173672581006</v>
       </c>
       <c r="DV2">
-        <v>0.8036978041431254</v>
+        <v>0.804179613957806</v>
       </c>
       <c r="DW2">
-        <v>0.8037474742814906</v>
+        <v>0.8042173185133671</v>
       </c>
       <c r="DX2">
-        <v>0.8075420934566</v>
+        <v>0.808007795521595</v>
       </c>
       <c r="DY2">
-        <v>0.8085735003226537</v>
+        <v>0.809029287709856</v>
       </c>
       <c r="DZ2">
-        <v>0.8178708170166553</v>
+        <v>0.8183339576915107</v>
       </c>
       <c r="EA2">
-        <v>0.8180425033710047</v>
+        <v>0.8184939333620138</v>
       </c>
       <c r="EB2">
-        <v>0.8225131789238633</v>
+        <v>0.8229618790690074</v>
       </c>
       <c r="EC2">
-        <v>0.8239356008770478</v>
+        <v>0.8243752031976136</v>
       </c>
       <c r="ED2">
-        <v>0.824789856748932</v>
+        <v>0.8252191743129952</v>
       </c>
       <c r="EE2">
-        <v>0.8285648986246857</v>
+        <v>0.8289900331237526</v>
       </c>
       <c r="EF2">
-        <v>0.8285649905143627</v>
+        <v>0.8289900331237526</v>
       </c>
       <c r="EG2">
-        <v>0.8295904225806131</v>
+        <v>0.8300055380305067</v>
       </c>
       <c r="EH2">
-        <v>0.8414121771915291</v>
+        <v>0.8418399196264214</v>
       </c>
       <c r="EI2">
-        <v>0.8445149895894076</v>
+        <v>0.844937144632903</v>
       </c>
       <c r="EJ2">
-        <v>0.8505751563899521</v>
+        <v>0.8509979021270647</v>
       </c>
       <c r="EK2">
-        <v>0.8564911511952416</v>
+        <v>0.8569141864423047</v>
       </c>
       <c r="EL2">
-        <v>0.8636388939599912</v>
+        <v>0.8640647919099917</v>
       </c>
       <c r="EM2">
-        <v>0.8727377266605254</v>
+        <v>0.8731705632535952</v>
       </c>
       <c r="EN2">
-        <v>0.8728678566962425</v>
+        <v>0.8732888957919042</v>
       </c>
       <c r="EO2">
-        <v>0.8729975620119735</v>
+        <v>0.8734068027229624</v>
       </c>
       <c r="EP2">
-        <v>0.8730486763942912</v>
+        <v>0.8734459545395854</v>
       </c>
       <c r="EQ2">
-        <v>0.8757668102048305</v>
+        <v>0.8761576973428292</v>
       </c>
       <c r="ER2">
-        <v>0.8857928758748471</v>
+        <v>0.8861926386994119</v>
       </c>
       <c r="ES2">
-        <v>0.8863485984265569</v>
+        <v>0.886737452841184</v>
       </c>
       <c r="ET2">
-        <v>0.8868769607091671</v>
+        <v>0.8872548495566662</v>
       </c>
       <c r="EU2">
-        <v>0.8874432743905283</v>
+        <v>0.8878102769535744</v>
       </c>
       <c r="EV2">
-        <v>0.8914096546599846</v>
+        <v>0.8917728738750456</v>
       </c>
       <c r="EW2">
-        <v>0.892349829769041</v>
+        <v>0.8927029437178732</v>
       </c>
       <c r="EX2">
-        <v>0.8946761262924766</v>
+        <v>0.8950220306631754</v>
       </c>
       <c r="EY2">
-        <v>0.89730754040587</v>
+        <v>0.8976468726067922</v>
       </c>
       <c r="EZ2">
-        <v>0.898732774658962</v>
+        <v>0.8990630149103637</v>
       </c>
       <c r="FA2">
-        <v>0.8988806714440943</v>
+        <v>0.8991991513138587</v>
       </c>
       <c r="FB2">
-        <v>0.9004953389909515</v>
+        <v>0.9008051226483422</v>
       </c>
       <c r="FC2">
-        <v>0.9012513104660705</v>
+        <v>0.9015506040451485</v>
       </c>
       <c r="FD2">
-        <v>0.9022477635332747</v>
+        <v>0.9025370694140452</v>
       </c>
       <c r="FE2">
-        <v>0.9033386428973711</v>
+        <v>0.9036181583418496</v>
       </c>
       <c r="FF2">
-        <v>0.9154908474974111</v>
+        <v>0.9157836802560974</v>
       </c>
       <c r="FG2">
-        <v>0.9229249336527363</v>
+        <v>0.9232212273023246</v>
       </c>
       <c r="FH2">
-        <v>0.9229494453159296</v>
+        <v>0.9232337208251986</v>
       </c>
       <c r="FI2">
-        <v>0.9242983579715335</v>
+        <v>0.9245733820910346</v>
       </c>
       <c r="FJ2">
-        <v>0.9253923658355269</v>
+        <v>0.9256576060543538</v>
       </c>
       <c r="FK2">
-        <v>0.9261447965707624</v>
+        <v>0.9263995393144655</v>
       </c>
       <c r="FL2">
-        <v>0.9309802554116151</v>
+        <v>0.9312330303629165</v>
       </c>
       <c r="FM2">
-        <v>0.9328798121490959</v>
+        <v>0.9331244860380798</v>
       </c>
       <c r="FN2">
-        <v>0.9335800303760499</v>
+        <v>0.9338140977149494</v>
       </c>
       <c r="FO2">
-        <v>0.9349633743305205</v>
+        <v>0.935188262208634</v>
       </c>
       <c r="FP2">
-        <v>0.9377735830380294</v>
+        <v>0.937992272258652</v>
       </c>
       <c r="FQ2">
-        <v>0.9378301644331671</v>
+        <v>0.9380369025090022</v>
       </c>
       <c r="FR2">
-        <v>0.9400692293594738</v>
+        <v>0.9402685756253055</v>
       </c>
       <c r="FS2">
-        <v>0.940216673314621</v>
+        <v>0.9404042582528274</v>
       </c>
       <c r="FT2">
-        <v>0.9411631889334687</v>
+        <v>0.9413406818511393</v>
       </c>
       <c r="FU2">
-        <v>0.9411945828224355</v>
+        <v>0.941360071977156</v>
       </c>
       <c r="FV2">
-        <v>0.9490819605628418</v>
+        <v>0.9492518575608979</v>
       </c>
       <c r="FW2">
-        <v>0.9522014002601731</v>
+        <v>0.9523657446022261</v>
       </c>
       <c r="FX2">
-        <v>0.9531490626289831</v>
+        <v>0.9533033173461275</v>
       </c>
       <c r="FY2">
-        <v>0.9538681409053165</v>
+        <v>0.9540118284721143</v>
       </c>
       <c r="FZ2">
-        <v>0.9572077801954004</v>
+        <v>0.9573463751159265</v>
       </c>
       <c r="GA2">
-        <v>0.9572184999140476</v>
+        <v>0.9573463751159265</v>
       </c>
       <c r="GB2">
-        <v>0.9586143451681068</v>
+        <v>0.9587330670251402</v>
       </c>
       <c r="GC2">
-        <v>0.9591784086495421</v>
+        <v>0.9592862395213241</v>
       </c>
       <c r="GD2">
-        <v>0.9690871393234205</v>
+        <v>0.9692036007621506</v>
       </c>
       <c r="GE2">
-        <v>0.975142840124112</v>
+        <v>0.9752598829267264</v>
       </c>
       <c r="GF2">
-        <v>0.9752855892594138</v>
+        <v>0.9753908609266516</v>
       </c>
       <c r="GG2">
-        <v>0.9753282901980084</v>
+        <v>0.9754215817233791</v>
       </c>
       <c r="GH2">
-        <v>0.9775025907264466</v>
+        <v>0.9775883551452275</v>
       </c>
       <c r="GI2">
-        <v>0.9775204354398593</v>
+        <v>0.9775941677906759</v>
       </c>
       <c r="GJ2">
-        <v>0.9787699745987338</v>
+        <v>0.9788342479627794</v>
       </c>
       <c r="GK2">
-        <v>0.97940662657778</v>
+        <v>0.9794601605981593</v>
       </c>
       <c r="GL2">
-        <v>0.9797700995358172</v>
+        <v>0.979812323525698</v>
       </c>
       <c r="GM2">
-        <v>0.9833990041163807</v>
+        <v>0.9834367397519727</v>
       </c>
       <c r="GN2">
-        <v>0.9928442158055147</v>
+        <v>0.9928896136899895</v>
       </c>
       <c r="GO2">
-        <v>0.9948125955407303</v>
+        <v>0.9948500361381251</v>
       </c>
       <c r="GP2">
-        <v>0.9949159780873277</v>
+        <v>0.994941565310257</v>
       </c>
       <c r="GQ2">
-        <v>0.9966349033307534</v>
+        <v>0.9966520121416892</v>
       </c>
       <c r="GR2">
-        <v>0.9997575492279792</v>
+        <v>0.9997691120808495</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.161325619456054E-05</v>
+        <v>8.106182922444415E-06</v>
       </c>
       <c r="C3">
-        <v>2.356252739475044E-05</v>
+        <v>1.65485941132607E-05</v>
       </c>
       <c r="D3">
-        <v>4.623989077467145E-05</v>
+        <v>3.572590641293846E-05</v>
       </c>
       <c r="E3">
-        <v>4.670638033248669E-05</v>
+        <v>3.572590641293846E-05</v>
       </c>
       <c r="F3">
-        <v>5.590272748655599E-05</v>
+        <v>4.141364632574824E-05</v>
       </c>
       <c r="G3">
-        <v>7.57236178186216E-05</v>
+        <v>5.773267262497663E-05</v>
       </c>
       <c r="H3">
-        <v>7.987401918815458E-05</v>
+        <v>5.837126418128603E-05</v>
       </c>
       <c r="I3">
-        <v>8.045860469794832E-05</v>
+        <v>5.837126418128603E-05</v>
       </c>
       <c r="J3">
-        <v>8.046257129601478E-05</v>
+        <v>5.837126418128603E-05</v>
       </c>
       <c r="K3">
-        <v>8.703637840614785E-05</v>
+        <v>6.143479957067881E-05</v>
       </c>
       <c r="L3">
-        <v>9.054859326498908E-05</v>
+        <v>6.143479957067881E-05</v>
       </c>
       <c r="M3">
-        <v>0.0001038041614870638</v>
+        <v>7.118433686684564E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001091828459771746</v>
+        <v>7.305199111316421E-05</v>
       </c>
       <c r="O3">
-        <v>0.0001116435064183988</v>
+        <v>7.305199111316421E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001966702578428787</v>
+        <v>0.0001546182635040803</v>
       </c>
       <c r="Q3">
-        <v>0.0002313914554245739</v>
+        <v>0.0001858470540127019</v>
       </c>
       <c r="R3">
-        <v>0.0002380491968361131</v>
+        <v>0.0001889945769751078</v>
       </c>
       <c r="S3">
-        <v>0.0002886893876845042</v>
+        <v>0.0002361524642520696</v>
       </c>
       <c r="T3">
-        <v>0.0003498072787084315</v>
+        <v>0.0002937947017143504</v>
       </c>
       <c r="U3">
-        <v>0.000376246616151378</v>
+        <v>0.0003167363757350228</v>
       </c>
       <c r="V3">
-        <v>0.0003918556684128814</v>
+        <v>0.0003288408907850426</v>
       </c>
       <c r="W3">
-        <v>0.0004619552195872813</v>
+        <v>0.0003954704888976064</v>
       </c>
       <c r="X3">
-        <v>0.0004627646452008418</v>
+        <v>0.0003954704888976064</v>
       </c>
       <c r="Y3">
-        <v>0.0004739373363880214</v>
+        <v>0.0004031358271939025</v>
       </c>
       <c r="Z3">
-        <v>0.0004739703743915749</v>
+        <v>0.0004031358271939025</v>
       </c>
       <c r="AA3">
-        <v>0.0004778771514570264</v>
+        <v>0.0004035306398221214</v>
       </c>
       <c r="AB3">
-        <v>0.0004946306807377035</v>
+        <v>0.0004167803582705057</v>
       </c>
       <c r="AC3">
-        <v>0.0005332472913846598</v>
+        <v>0.0004519070341937166</v>
       </c>
       <c r="AD3">
-        <v>0.0005432523555522778</v>
+        <v>0.0004584040043983672</v>
       </c>
       <c r="AE3">
-        <v>0.0005515796266917872</v>
+        <v>0.0004632221167095414</v>
       </c>
       <c r="AF3">
-        <v>0.0005956486514300894</v>
+        <v>0.0005038046672742611</v>
       </c>
       <c r="AG3">
-        <v>0.0006569503564570962</v>
+        <v>0.0005616308354030969</v>
       </c>
       <c r="AH3">
-        <v>0.0007008030171917736</v>
+        <v>0.0006019968846418102</v>
       </c>
       <c r="AI3">
-        <v>0.0007199041505117808</v>
+        <v>0.0006175956971120174</v>
       </c>
       <c r="AJ3">
-        <v>0.0007581162541519602</v>
+        <v>0.0006523176092950551</v>
       </c>
       <c r="AK3">
-        <v>0.0008243685252619054</v>
+        <v>0.0007150974855429946</v>
       </c>
       <c r="AL3">
-        <v>0.000843899915589121</v>
+        <v>0.0007311268280968734</v>
       </c>
       <c r="AM3">
-        <v>0.0008462452489284131</v>
+        <v>0.0007311268280968734</v>
       </c>
       <c r="AN3">
-        <v>0.00086679920727276</v>
+        <v>0.0007481793876736009</v>
       </c>
       <c r="AO3">
-        <v>0.0008973684047848953</v>
+        <v>0.0007752535429121302</v>
       </c>
       <c r="AP3">
-        <v>0.0009022102378660121</v>
+        <v>0.0007765840050194222</v>
       </c>
       <c r="AQ3">
-        <v>0.0009034003180859499</v>
+        <v>0.0007765840050194222</v>
       </c>
       <c r="AR3">
-        <v>0.0009034759941672177</v>
+        <v>0.0007765840050194222</v>
       </c>
       <c r="AS3">
-        <v>0.0009065159957181478</v>
+        <v>0.0007765840050194222</v>
       </c>
       <c r="AT3">
-        <v>0.0009077419411386864</v>
+        <v>0.0007765840050194222</v>
       </c>
       <c r="AU3">
-        <v>0.0009091274067618975</v>
+        <v>0.0007765840050194222</v>
       </c>
       <c r="AV3">
-        <v>0.0009111489290957647</v>
+        <v>0.0007765840050194222</v>
       </c>
       <c r="AW3">
-        <v>0.0009199808282437283</v>
+        <v>0.0007819070656174646</v>
       </c>
       <c r="AX3">
-        <v>0.0009210421635615092</v>
+        <v>0.0007819070656174646</v>
       </c>
       <c r="AY3">
-        <v>0.0009251448369302426</v>
+        <v>0.0007824978988808618</v>
       </c>
       <c r="AZ3">
-        <v>0.0009353866251018265</v>
+        <v>0.0007892317433339896</v>
       </c>
       <c r="BA3">
-        <v>0.000947254814300658</v>
+        <v>0.0007975930210621446</v>
       </c>
       <c r="BB3">
-        <v>0.000947286212385184</v>
+        <v>0.0007975930210621446</v>
       </c>
       <c r="BC3">
-        <v>0.0009513888857539173</v>
+        <v>0.0007981838543255419</v>
       </c>
       <c r="BD3">
-        <v>0.0009632570749527488</v>
+        <v>0.000806545132053697</v>
       </c>
       <c r="BE3">
-        <v>0.000968539323441244</v>
+        <v>0.0008083162890921864</v>
       </c>
       <c r="BF3">
-        <v>0.0009896893207955765</v>
+        <v>0.0008259652659742487</v>
       </c>
       <c r="BG3">
-        <v>0.0009917443873300057</v>
+        <v>0.0008259652659742487</v>
       </c>
       <c r="BH3">
-        <v>0.0009947843888809358</v>
+        <v>0.0008259652659742487</v>
       </c>
       <c r="BI3">
-        <v>0.00102357597036329</v>
+        <v>0.0008512606769617472</v>
       </c>
       <c r="BJ3">
-        <v>0.001047673489767003</v>
+        <v>0.0008718590466329647</v>
       </c>
       <c r="BK3">
-        <v>0.001060078233974824</v>
+        <v>0.0008807572199120216</v>
       </c>
       <c r="BL3">
-        <v>0.001082445864349556</v>
+        <v>0.0008996246026244856</v>
       </c>
       <c r="BM3">
-        <v>0.00109531460056515</v>
+        <v>0.0009089870623987834</v>
       </c>
       <c r="BN3">
-        <v>0.00110962642880492</v>
+        <v>0.0009197935301020763</v>
       </c>
       <c r="BO3">
-        <v>0.001146836579428314</v>
+        <v>0.0009535128533465845</v>
       </c>
       <c r="BP3">
-        <v>0.001153639933542292</v>
+        <v>0.00095680608142922</v>
       </c>
       <c r="BQ3">
-        <v>0.0011836702560454</v>
+        <v>0.000983341019644346</v>
       </c>
       <c r="BR3">
-        <v>0.001210567958496026</v>
+        <v>0.001006741349588808</v>
       </c>
       <c r="BS3">
-        <v>0.00121630979099222</v>
+        <v>0.001008972382324786</v>
       </c>
       <c r="BT3">
-        <v>0.001218556238829856</v>
+        <v>0.001008972382324786</v>
       </c>
       <c r="BU3">
-        <v>0.001218734271832839</v>
+        <v>0.001008972382324786</v>
       </c>
       <c r="BV3">
-        <v>0.001220932075869659</v>
+        <v>0.001008972382324786</v>
       </c>
       <c r="BW3">
-        <v>0.001222861868901989</v>
+        <v>0.001008972382324786</v>
       </c>
       <c r="BX3">
-        <v>0.001234617906098942</v>
+        <v>0.001017221436870183</v>
       </c>
       <c r="BY3">
-        <v>0.00123462794254911</v>
+        <v>0.001017221436870183</v>
       </c>
       <c r="BZ3">
-        <v>0.001239276434126988</v>
+        <v>0.001018358434763825</v>
       </c>
       <c r="CA3">
-        <v>0.001273997631708683</v>
+        <v>0.001049587225272447</v>
       </c>
       <c r="CB3">
-        <v>0.001286205476913205</v>
+        <v>0.001058288374579913</v>
       </c>
       <c r="CC3">
-        <v>0.001304779751224385</v>
+        <v>0.001073359993653259</v>
       </c>
       <c r="CD3">
-        <v>0.001333620386707562</v>
+        <v>0.001098704489775281</v>
       </c>
       <c r="CE3">
-        <v>0.00133583175694461</v>
+        <v>0.001098704489775281</v>
       </c>
       <c r="CF3">
-        <v>0.001348384052154902</v>
+        <v>0.001107750307704804</v>
       </c>
       <c r="CG3">
-        <v>0.001364908630431744</v>
+        <v>0.001120770929838226</v>
       </c>
       <c r="CH3">
-        <v>0.00136551843244196</v>
+        <v>0.001120770929838226</v>
       </c>
       <c r="CI3">
-        <v>0.001367050469167626</v>
+        <v>0.001120770929838226</v>
       </c>
       <c r="CJ3">
-        <v>0.001367071367467977</v>
+        <v>0.001120770929838226</v>
       </c>
       <c r="CK3">
-        <v>0.001372913725065856</v>
+        <v>0.00112310255147738</v>
       </c>
       <c r="CL3">
-        <v>0.001373449474874831</v>
+        <v>0.00112310255147738</v>
       </c>
       <c r="CM3">
-        <v>0.001390741538164531</v>
+        <v>0.001136891145732735</v>
       </c>
       <c r="CN3">
-        <v>0.04059498219496551</v>
+        <v>0.04036249959218533</v>
       </c>
       <c r="CO3">
-        <v>0.1479922439942256</v>
+        <v>0.1478244100776784</v>
       </c>
       <c r="CP3">
-        <v>0.3790416178650685</v>
+        <v>0.3790169124290933</v>
       </c>
       <c r="CQ3">
-        <v>0.4961532898270772</v>
+        <v>0.4961993986405341</v>
       </c>
       <c r="CR3">
-        <v>0.5179292841918973</v>
+        <v>0.5179856993973332</v>
       </c>
       <c r="CS3">
-        <v>0.5394173065518929</v>
+        <v>0.5394838453786026</v>
       </c>
       <c r="CT3">
-        <v>0.539675528076219</v>
+        <v>0.5397387163475343</v>
       </c>
       <c r="CU3">
-        <v>0.5523755582889865</v>
+        <v>0.5524432925993994</v>
       </c>
       <c r="CV3">
-        <v>0.5544125617231132</v>
+        <v>0.5544780744393448</v>
       </c>
       <c r="CW3">
-        <v>0.5598591374143613</v>
+        <v>0.5599245925312279</v>
       </c>
       <c r="CX3">
-        <v>0.5612368316374423</v>
+        <v>0.5612996467083081</v>
       </c>
       <c r="CY3">
-        <v>0.563334667872588</v>
+        <v>0.5633952999587686</v>
       </c>
       <c r="CZ3">
-        <v>0.588580834295545</v>
+        <v>0.5886539752301355</v>
       </c>
       <c r="DA3">
-        <v>0.5905622553287403</v>
+        <v>0.5906331393919894</v>
       </c>
       <c r="DB3">
-        <v>0.593099463471247</v>
+        <v>0.5931684434113389</v>
       </c>
       <c r="DC3">
-        <v>0.5947755375993268</v>
+        <v>0.5948420668698321</v>
       </c>
       <c r="DD3">
-        <v>0.5992744626746986</v>
+        <v>0.5993403328888627</v>
       </c>
       <c r="DE3">
-        <v>0.5993946340467119</v>
+        <v>0.5994570660875075</v>
       </c>
       <c r="DF3">
-        <v>0.6008822368716342</v>
+        <v>0.600942098623462</v>
       </c>
       <c r="DG3">
-        <v>0.6272222213129163</v>
+        <v>0.6272952861399788</v>
       </c>
       <c r="DH3">
-        <v>0.6291412735450668</v>
+        <v>0.6292120419164199</v>
       </c>
       <c r="DI3">
-        <v>0.6525503459372464</v>
+        <v>0.6526324571861312</v>
       </c>
       <c r="DJ3">
-        <v>0.653506496013265</v>
+        <v>0.6535856996695831</v>
       </c>
       <c r="DK3">
-        <v>0.6841680015269469</v>
+        <v>0.6842631510509948</v>
       </c>
       <c r="DL3">
-        <v>0.7008623218066321</v>
+        <v>0.7009645524745786</v>
       </c>
       <c r="DM3">
-        <v>0.7220357901613579</v>
+        <v>0.7221479448087506</v>
       </c>
       <c r="DN3">
-        <v>0.7225456229698993</v>
+        <v>0.7226545867551006</v>
       </c>
       <c r="DO3">
-        <v>0.7521030004650834</v>
+        <v>0.7522272093476162</v>
       </c>
       <c r="DP3">
-        <v>0.7524240402704618</v>
+        <v>0.7525449384672451</v>
       </c>
       <c r="DQ3">
-        <v>0.7708886225798048</v>
+        <v>0.7710177254742835</v>
       </c>
       <c r="DR3">
-        <v>0.7709565534209429</v>
+        <v>0.7710821849859181</v>
       </c>
       <c r="DS3">
-        <v>0.7709567049808654</v>
+        <v>0.7710821849859181</v>
       </c>
       <c r="DT3">
-        <v>0.7858723952307527</v>
+        <v>0.7860038275148862</v>
       </c>
       <c r="DU3">
-        <v>0.7885428052754909</v>
+        <v>0.7886724179773434</v>
       </c>
       <c r="DV3">
-        <v>0.7946736399782027</v>
+        <v>0.7948036293677039</v>
       </c>
       <c r="DW3">
-        <v>0.7947967915802659</v>
+        <v>0.7949233446878975</v>
       </c>
       <c r="DX3">
-        <v>0.7978528815314656</v>
+        <v>0.7979778598409871</v>
       </c>
       <c r="DY3">
-        <v>0.79896934355017</v>
+        <v>0.7990915160142611</v>
       </c>
       <c r="DZ3">
-        <v>0.8072857066894966</v>
+        <v>0.8074096429572295</v>
       </c>
       <c r="EA3">
-        <v>0.8075321516936254</v>
+        <v>0.8076527299316162</v>
       </c>
       <c r="EB3">
-        <v>0.8106420917457272</v>
+        <v>0.8107611293633084</v>
       </c>
       <c r="EC3">
-        <v>0.8122324522723711</v>
+        <v>0.8123489848194685</v>
       </c>
       <c r="ED3">
-        <v>0.8139756095015748</v>
+        <v>0.8140897339555356</v>
       </c>
       <c r="EE3">
-        <v>0.8199440066015652</v>
+        <v>0.8200584046469199</v>
       </c>
       <c r="EF3">
-        <v>0.8199788663771492</v>
+        <v>0.8200897721033839</v>
       </c>
       <c r="EG3">
-        <v>0.8212931130991672</v>
+        <v>0.8214013385104016</v>
       </c>
       <c r="EH3">
-        <v>0.8322653342829883</v>
+        <v>0.8323770091236871</v>
       </c>
       <c r="EI3">
-        <v>0.8334392156026548</v>
+        <v>0.8335481210409311</v>
       </c>
       <c r="EJ3">
-        <v>0.840869881427143</v>
+        <v>0.8409799885327421</v>
       </c>
       <c r="EK3">
-        <v>0.8437046320746345</v>
+        <v>0.8438130239020076</v>
       </c>
       <c r="EL3">
-        <v>0.8529368472293047</v>
+        <v>0.8530475841352901</v>
       </c>
       <c r="EM3">
-        <v>0.8594122223377887</v>
+        <v>0.859523554605085</v>
       </c>
       <c r="EN3">
-        <v>0.8601406526499923</v>
+        <v>0.8602489327950416</v>
       </c>
       <c r="EO3">
-        <v>0.860347818663463</v>
+        <v>0.8604527158490941</v>
       </c>
       <c r="EP3">
-        <v>0.8604197662546683</v>
+        <v>0.8605211946601558</v>
       </c>
       <c r="EQ3">
-        <v>0.8641737788175605</v>
+        <v>0.8642740753839955</v>
       </c>
       <c r="ER3">
-        <v>0.8811062401012354</v>
+        <v>0.8812137689554248</v>
       </c>
       <c r="ES3">
-        <v>0.8829858698327254</v>
+        <v>0.8830910772104461</v>
       </c>
       <c r="ET3">
-        <v>0.883530160041844</v>
+        <v>0.8836321984268722</v>
       </c>
       <c r="EU3">
-        <v>0.8835435346850681</v>
+        <v>0.8836420671147451</v>
       </c>
       <c r="EV3">
-        <v>0.8859301787250523</v>
+        <v>0.8860267114712166</v>
       </c>
       <c r="EW3">
-        <v>0.8861936706994666</v>
+        <v>0.8862868562352975</v>
       </c>
       <c r="EX3">
-        <v>0.8890680337476218</v>
+        <v>0.8891595291465122</v>
       </c>
       <c r="EY3">
-        <v>0.8891560961690971</v>
+        <v>0.8892441330156398</v>
       </c>
       <c r="EZ3">
-        <v>0.8909545643992274</v>
+        <v>0.8910402282575413</v>
       </c>
       <c r="FA3">
-        <v>0.8911083907218045</v>
+        <v>0.8911906377669478</v>
       </c>
       <c r="FB3">
-        <v>0.8976548602314796</v>
+        <v>0.8977377477602847</v>
       </c>
       <c r="FC3">
-        <v>0.9025655383137496</v>
+        <v>0.9026480281185172</v>
       </c>
       <c r="FD3">
-        <v>0.90451801394646</v>
+        <v>0.9045982285087556</v>
       </c>
       <c r="FE3">
-        <v>0.9052719585290911</v>
+        <v>0.9053491371625928</v>
       </c>
       <c r="FF3">
-        <v>0.9221184148113252</v>
+        <v>0.9222027711467379</v>
       </c>
       <c r="FG3">
-        <v>0.9317627429728996</v>
+        <v>0.9318497059477139</v>
       </c>
       <c r="FH3">
-        <v>0.9317822743632268</v>
+        <v>0.9318657352902677</v>
       </c>
       <c r="FI3">
-        <v>0.9320448560276259</v>
+        <v>0.9321249691665758</v>
       </c>
       <c r="FJ3">
-        <v>0.9322350079708116</v>
+        <v>0.9323117273518158</v>
       </c>
       <c r="FK3">
-        <v>0.9330063269837338</v>
+        <v>0.9330800214631857</v>
       </c>
       <c r="FL3">
-        <v>0.9367045650456916</v>
+        <v>0.9367770922870081</v>
       </c>
       <c r="FM3">
-        <v>0.9394839901922561</v>
+        <v>0.9395547670412362</v>
       </c>
       <c r="FN3">
-        <v>0.9414814217257197</v>
+        <v>0.9415499518649377</v>
       </c>
       <c r="FO3">
-        <v>0.94291697794977</v>
+        <v>0.9429829047669693</v>
       </c>
       <c r="FP3">
-        <v>0.9465049192098799</v>
+        <v>0.9465696087855272</v>
       </c>
       <c r="FQ3">
-        <v>0.9468115079850162</v>
+        <v>0.9468728777031024</v>
       </c>
       <c r="FR3">
-        <v>0.9474878148963466</v>
+        <v>0.947546099410391</v>
       </c>
       <c r="FS3">
-        <v>0.9475215282369114</v>
+        <v>0.9475763197042139</v>
       </c>
       <c r="FT3">
-        <v>0.9494210169687342</v>
+        <v>0.9494734995637218</v>
       </c>
       <c r="FU3">
-        <v>0.9498717211062849</v>
+        <v>0.9499209753111665</v>
       </c>
       <c r="FV3">
-        <v>0.9543378748811078</v>
+        <v>0.9543864492302869</v>
       </c>
       <c r="FW3">
-        <v>0.95799400394236</v>
+        <v>0.9580413843275707</v>
       </c>
       <c r="FX3">
-        <v>0.959089067460706</v>
+        <v>0.9591336284192389</v>
       </c>
       <c r="FY3">
-        <v>0.9612501481969112</v>
+        <v>0.9612925663109179</v>
       </c>
       <c r="FZ3">
-        <v>0.9629378925251866</v>
+        <v>0.9629778673764748</v>
       </c>
       <c r="GA3">
-        <v>0.9629939461661257</v>
+        <v>0.9630304421496629</v>
       </c>
       <c r="GB3">
-        <v>0.9634411930336185</v>
+        <v>0.9634744584327819</v>
       </c>
       <c r="GC3">
-        <v>0.9634465717181087</v>
+        <v>0.9634763260870283</v>
       </c>
       <c r="GD3">
-        <v>0.9689286548099517</v>
+        <v>0.9689583741154213</v>
       </c>
       <c r="GE3">
-        <v>0.9769113234436879</v>
+        <v>0.9769425947628367</v>
       </c>
       <c r="GF3">
-        <v>0.9770492791059991</v>
+        <v>0.9770771235391519</v>
       </c>
       <c r="GG3">
-        <v>0.9770780706874815</v>
+        <v>0.9771024189501394</v>
       </c>
       <c r="GH3">
-        <v>0.9792175433233248</v>
+        <v>0.9792397350271798</v>
       </c>
       <c r="GI3">
-        <v>0.9811898528563675</v>
+        <v>0.981209781905974</v>
       </c>
       <c r="GJ3">
-        <v>0.9814246561203013</v>
+        <v>0.9814412197513603</v>
       </c>
       <c r="GK3">
-        <v>0.9816695666644043</v>
+        <v>0.9816827712918269</v>
       </c>
       <c r="GL3">
-        <v>0.9816698040329083</v>
+        <v>0.9816827712918269</v>
       </c>
       <c r="GM3">
-        <v>0.9829631709545764</v>
+        <v>0.9829734446464573</v>
       </c>
       <c r="GN3">
-        <v>0.9898310690696365</v>
+        <v>0.989842187250193</v>
       </c>
       <c r="GO3">
-        <v>0.9912989519942284</v>
+        <v>0.9913074873699476</v>
       </c>
       <c r="GP3">
-        <v>0.9914082896560601</v>
+        <v>0.9914133799824478</v>
       </c>
       <c r="GQ3">
-        <v>0.9959012647313323</v>
+        <v>0.9959056922250196</v>
       </c>
       <c r="GR3">
-        <v>0.9989106307817492</v>
+        <v>0.9989134538224983</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.140577011835994E-05</v>
+        <v>4.036693134786144E-05</v>
       </c>
       <c r="C4">
-        <v>7.647081652486715E-05</v>
+        <v>7.439188273303111E-05</v>
       </c>
       <c r="D4">
-        <v>8.369984819635168E-05</v>
+        <v>8.057530439491248E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001255470582946509</v>
+        <v>0.0001213837631826579</v>
       </c>
       <c r="F4">
-        <v>0.000162875886598283</v>
+        <v>0.0001576729449749391</v>
       </c>
       <c r="G4">
-        <v>0.0001718553781902198</v>
+        <v>0.0001656071733657514</v>
       </c>
       <c r="H4">
-        <v>0.0001812496087633092</v>
+        <v>0.0001739562229075468</v>
       </c>
       <c r="I4">
-        <v>0.000212955357322476</v>
+        <v>0.0002046212108871637</v>
       </c>
       <c r="J4">
-        <v>0.0002317110834701425</v>
+        <v>0.0002223336107423964</v>
       </c>
       <c r="K4">
-        <v>0.0002508584906000095</v>
+        <v>0.0002404377691813124</v>
       </c>
       <c r="L4">
-        <v>0.0002531147828974747</v>
+        <v>0.0002416474662491437</v>
       </c>
       <c r="M4">
-        <v>0.0002531490053409195</v>
+        <v>0.0002416474662491437</v>
       </c>
       <c r="N4">
-        <v>0.0002551556754497286</v>
+        <v>0.0002426074916721213</v>
       </c>
       <c r="O4">
-        <v>0.0002556430889875787</v>
+        <v>0.0002426074916721213</v>
       </c>
       <c r="P4">
-        <v>0.0002655290725383209</v>
+        <v>0.0002514483916197369</v>
       </c>
       <c r="Q4">
-        <v>0.0002695216667568818</v>
+        <v>0.0002543947346121001</v>
       </c>
       <c r="R4">
-        <v>0.0002705685016093095</v>
+        <v>0.0002543947346121001</v>
       </c>
       <c r="S4">
-        <v>0.0002721198154388118</v>
+        <v>0.0002548993135386704</v>
       </c>
       <c r="T4">
-        <v>0.0002723148008899509</v>
+        <v>0.0002548993135386704</v>
       </c>
       <c r="U4">
-        <v>0.0002723246945615013</v>
+        <v>0.0002548993135386704</v>
       </c>
       <c r="V4">
-        <v>0.0002732483259195278</v>
+        <v>0.0002548993135386704</v>
       </c>
       <c r="W4">
-        <v>0.0002855221933617553</v>
+        <v>0.0002661285704753668</v>
       </c>
       <c r="X4">
-        <v>0.0002856298848868613</v>
+        <v>0.0002661285704753668</v>
       </c>
       <c r="Y4">
-        <v>0.0002986790892938545</v>
+        <v>0.0002781333179898479</v>
       </c>
       <c r="Z4">
-        <v>0.0003135157721196176</v>
+        <v>0.0002919258980658381</v>
       </c>
       <c r="AA4">
-        <v>0.0003288842294212148</v>
+        <v>0.0003062503579750572</v>
       </c>
       <c r="AB4">
-        <v>0.0003502432024505796</v>
+        <v>0.0003265665204782048</v>
       </c>
       <c r="AC4">
-        <v>0.0003503508939756857</v>
+        <v>0.0003265665204782048</v>
       </c>
       <c r="AD4">
-        <v>0.0004147598360486915</v>
+        <v>0.0003899411812658482</v>
       </c>
       <c r="AE4">
-        <v>0.000431921223268811</v>
+        <v>0.0004060589263164028</v>
       </c>
       <c r="AF4">
-        <v>0.0004453438046588365</v>
+        <v>0.0004184371247889338</v>
       </c>
       <c r="AG4">
-        <v>0.0004800048610837026</v>
+        <v>0.0004520580061522688</v>
       </c>
       <c r="AH4">
-        <v>0.0004845630413765611</v>
+        <v>0.0004555700472752203</v>
       </c>
       <c r="AI4">
-        <v>0.0004860720381079864</v>
+        <v>0.0004560323007196723</v>
       </c>
       <c r="AJ4">
-        <v>0.0005082288571010939</v>
+        <v>0.0004771464672591593</v>
       </c>
       <c r="AK4">
-        <v>0.0005082930757681755</v>
+        <v>0.0004771464672591593</v>
       </c>
       <c r="AL4">
-        <v>0.0005166314233892484</v>
+        <v>0.0004844394246529686</v>
       </c>
       <c r="AM4">
-        <v>0.0005166356817960548</v>
+        <v>0.0004844394246529686</v>
       </c>
       <c r="AN4">
-        <v>0.0005169903242799385</v>
+        <v>0.0004844394246529686</v>
       </c>
       <c r="AO4">
-        <v>0.0005903762209449964</v>
+        <v>0.0005567928185846483</v>
       </c>
       <c r="AP4">
-        <v>0.0006012539834506684</v>
+        <v>0.0005666256939826097</v>
       </c>
       <c r="AQ4">
-        <v>0.0006020395246749703</v>
+        <v>0.0005666256939826097</v>
       </c>
       <c r="AR4">
-        <v>0.0006238163436853465</v>
+        <v>0.0005873597852521712</v>
       </c>
       <c r="AS4">
-        <v>0.0006671436757163832</v>
+        <v>0.000629648659220634</v>
       </c>
       <c r="AT4">
-        <v>0.0006849675069063986</v>
+        <v>0.0006464289794872689</v>
       </c>
       <c r="AU4">
-        <v>0.0006895990186959245</v>
+        <v>0.0006500143666356323</v>
       </c>
       <c r="AV4">
-        <v>0.0007004767812015965</v>
+        <v>0.0006598472420335938</v>
       </c>
       <c r="AW4">
-        <v>0.000740926149363419</v>
+        <v>0.0006992575819385414</v>
       </c>
       <c r="AX4">
-        <v>0.0007717956859605867</v>
+        <v>0.0007290861922823295</v>
       </c>
       <c r="AY4">
-        <v>0.0007781023370739878</v>
+        <v>0.0007343470506402135</v>
       </c>
       <c r="AZ4">
-        <v>0.000782163581389429</v>
+        <v>0.0007373620573307028</v>
       </c>
       <c r="BA4">
-        <v>0.000836468548921599</v>
+        <v>0.0007906307417355959</v>
       </c>
       <c r="BB4">
-        <v>0.0008435721155987851</v>
+        <v>0.0007966886735455267</v>
       </c>
       <c r="BC4">
-        <v>0.0008437293950916377</v>
+        <v>0.0007966886735455267</v>
       </c>
       <c r="BD4">
-        <v>0.0008730970577570563</v>
+        <v>0.0008250151123999884</v>
       </c>
       <c r="BE4">
-        <v>0.0009049242813107028</v>
+        <v>0.0008558015994412216</v>
       </c>
       <c r="BF4">
-        <v>0.0009068055211252119</v>
+        <v>0.000856636169719122</v>
       </c>
       <c r="BG4">
-        <v>0.0009475535192734636</v>
+        <v>0.0008963451987763271</v>
       </c>
       <c r="BH4">
-        <v>0.0009489540150098196</v>
+        <v>0.0008966989297290365</v>
       </c>
       <c r="BI4">
-        <v>0.0009521299258654938</v>
+        <v>0.0008988284275537716</v>
       </c>
       <c r="BJ4">
-        <v>0.0009670986751852553</v>
+        <v>0.0009127531002893292</v>
       </c>
       <c r="BK4">
-        <v>0.0009986120837531627</v>
+        <v>0.0009432257101704791</v>
       </c>
       <c r="BL4">
-        <v>0.001025863199514766</v>
+        <v>0.0009694351827819541</v>
       </c>
       <c r="BM4">
-        <v>0.001056993685100075</v>
+        <v>0.0009995247938141944</v>
       </c>
       <c r="BN4">
-        <v>0.001077260253179083</v>
+        <v>0.001018748334935124</v>
       </c>
       <c r="BO4">
-        <v>0.00108806704768798</v>
+        <v>0.001028510228275832</v>
       </c>
       <c r="BP4">
-        <v>0.001138990203373832</v>
+        <v>0.001078396430815627</v>
       </c>
       <c r="BQ4">
-        <v>0.001153564510711519</v>
+        <v>0.001091926583420606</v>
       </c>
       <c r="BR4">
-        <v>0.001154624336263356</v>
+        <v>0.001091939576693788</v>
       </c>
       <c r="BS4">
-        <v>0.001156091600996678</v>
+        <v>0.001092360089872017</v>
       </c>
       <c r="BT4">
-        <v>0.001158721942077145</v>
+        <v>0.001093943909830968</v>
       </c>
       <c r="BU4">
-        <v>0.001163805732546118</v>
+        <v>0.001097981665266132</v>
       </c>
       <c r="BV4">
-        <v>0.00119063523932688</v>
+        <v>0.001123769445365822</v>
       </c>
       <c r="BW4">
-        <v>0.001194905945132803</v>
+        <v>0.001126993955046184</v>
       </c>
       <c r="BX4">
-        <v>0.001195753298694296</v>
+        <v>0.001126993955046184</v>
       </c>
       <c r="BY4">
-        <v>0.001209507538069249</v>
+        <v>0.001139703877213117</v>
       </c>
       <c r="BZ4">
-        <v>0.001235110978905729</v>
+        <v>0.001164265348455186</v>
       </c>
       <c r="CA4">
-        <v>0.001241854509599276</v>
+        <v>0.001169963172949635</v>
       </c>
       <c r="CB4">
-        <v>0.001262997428638459</v>
+        <v>0.001190063238657076</v>
       </c>
       <c r="CC4">
-        <v>0.001288948247459153</v>
+        <v>0.001214972156707345</v>
       </c>
       <c r="CD4">
-        <v>0.001289244404325694</v>
+        <v>0.001214972156707345</v>
       </c>
       <c r="CE4">
-        <v>0.001303640334671487</v>
+        <v>0.001228323896979631</v>
       </c>
       <c r="CF4">
-        <v>0.001308495352450856</v>
+        <v>0.001232132834399784</v>
       </c>
       <c r="CG4">
-        <v>0.001316673455079211</v>
+        <v>0.001239265515052464</v>
       </c>
       <c r="CH4">
-        <v>0.001318073950815567</v>
+        <v>0.001239619246005173</v>
       </c>
       <c r="CI4">
-        <v>0.001338961237866367</v>
+        <v>0.001259463629077347</v>
       </c>
       <c r="CJ4">
-        <v>0.001350453340344121</v>
+        <v>0.001269910966163008</v>
       </c>
       <c r="CK4">
-        <v>0.001369656172471469</v>
+        <v>0.001288070560580439</v>
       </c>
       <c r="CL4">
-        <v>0.001391974318457245</v>
+        <v>0.001309346086075377</v>
       </c>
       <c r="CM4">
-        <v>0.001809228999495562</v>
+        <v>0.001725636393109545</v>
       </c>
       <c r="CN4">
-        <v>0.194742840231838</v>
+        <v>0.1946964254013722</v>
       </c>
       <c r="CO4">
-        <v>0.2354358783825873</v>
+        <v>0.2353964787856631</v>
       </c>
       <c r="CP4">
-        <v>0.4695387277440387</v>
+        <v>0.4695446625455738</v>
       </c>
       <c r="CQ4">
-        <v>0.4695387952104306</v>
+        <v>0.4695446625455738</v>
       </c>
       <c r="CR4">
-        <v>0.481850578650935</v>
+        <v>0.4818578382061181</v>
       </c>
       <c r="CS4">
-        <v>0.4824800972723272</v>
+        <v>0.4824864345081304</v>
       </c>
       <c r="CT4">
-        <v>0.4868625920731695</v>
+        <v>0.4868687505450116</v>
       </c>
       <c r="CU4">
-        <v>0.4870168872861577</v>
+        <v>0.4870220292853603</v>
       </c>
       <c r="CV4">
-        <v>0.5132167280955345</v>
+        <v>0.5132260138750901</v>
       </c>
       <c r="CW4">
-        <v>0.5214827147198958</v>
+        <v>0.521492591149217</v>
       </c>
       <c r="CX4">
-        <v>0.5317687482524582</v>
+        <v>0.531779615551731</v>
       </c>
       <c r="CY4">
-        <v>0.597977625243668</v>
+        <v>0.5980005630817455</v>
       </c>
       <c r="CZ4">
-        <v>0.6234297890870222</v>
+        <v>0.6234567225725489</v>
       </c>
       <c r="DA4">
-        <v>0.6235448821817919</v>
+        <v>0.6235707914277907</v>
       </c>
       <c r="DB4">
-        <v>0.6236797041856651</v>
+        <v>0.6237045931009103</v>
       </c>
       <c r="DC4">
-        <v>0.6251102709206545</v>
+        <v>0.6251343962235398</v>
       </c>
       <c r="DD4">
-        <v>0.6265043640573015</v>
+        <v>0.6265277185215242</v>
       </c>
       <c r="DE4">
-        <v>0.6266018378828719</v>
+        <v>0.626624164616763</v>
       </c>
       <c r="DF4">
-        <v>0.669824307918674</v>
+        <v>0.6698541510277857</v>
       </c>
       <c r="DG4">
-        <v>0.6738237579369233</v>
+        <v>0.6738533463916311</v>
       </c>
       <c r="DH4">
-        <v>0.6791655396941718</v>
+        <v>0.6791951394428832</v>
       </c>
       <c r="DI4">
-        <v>0.6837094524876787</v>
+        <v>0.6837389054532402</v>
       </c>
       <c r="DJ4">
-        <v>0.6847748186392643</v>
+        <v>0.684803435637391</v>
       </c>
       <c r="DK4">
-        <v>0.717089211170772</v>
+        <v>0.7171231833899453</v>
       </c>
       <c r="DL4">
-        <v>0.7177267983017975</v>
+        <v>0.7177598498001579</v>
       </c>
       <c r="DM4">
-        <v>0.7288574497959772</v>
+        <v>0.7288916595035506</v>
       </c>
       <c r="DN4">
-        <v>0.7448544510690109</v>
+        <v>0.7448907831274744</v>
       </c>
       <c r="DO4">
-        <v>0.7505762388089905</v>
+        <v>0.7506126574498404</v>
       </c>
       <c r="DP4">
-        <v>0.7670160060619032</v>
+        <v>0.7670546347763005</v>
       </c>
       <c r="DQ4">
-        <v>0.7773946425902574</v>
+        <v>0.7774342805215011</v>
       </c>
       <c r="DR4">
-        <v>0.7783704126459146</v>
+        <v>0.7784091968585682</v>
       </c>
       <c r="DS4">
-        <v>0.7811061872215903</v>
+        <v>0.7811444664151487</v>
       </c>
       <c r="DT4">
-        <v>0.7937273606480348</v>
+        <v>0.7937670933592778</v>
       </c>
       <c r="DU4">
-        <v>0.7938609936019621</v>
+        <v>0.7938997057468719</v>
       </c>
       <c r="DV4">
-        <v>0.8022581302203633</v>
+        <v>0.8022974589990269</v>
       </c>
       <c r="DW4">
-        <v>0.8044304911216428</v>
+        <v>0.8044692032553252</v>
       </c>
       <c r="DX4">
-        <v>0.8061414398438905</v>
+        <v>0.8061794439156712</v>
       </c>
       <c r="DY4">
-        <v>0.8099562102705324</v>
+        <v>0.8099939230984121</v>
       </c>
       <c r="DZ4">
-        <v>0.8178794279104704</v>
+        <v>0.8179176634772835</v>
       </c>
       <c r="EA4">
-        <v>0.8268632935022084</v>
+        <v>0.8269022619479861</v>
       </c>
       <c r="EB4">
-        <v>0.8284533459299502</v>
+        <v>0.8284915823613439</v>
       </c>
       <c r="EC4">
-        <v>0.8298563947661902</v>
+        <v>0.8298938621332622</v>
       </c>
       <c r="ED4">
-        <v>0.8336592785933723</v>
+        <v>0.8336964523615202</v>
       </c>
       <c r="EE4">
-        <v>0.8354129427136789</v>
+        <v>0.8354494168828793</v>
       </c>
       <c r="EF4">
-        <v>0.8376592696115971</v>
+        <v>0.8376951417902706</v>
       </c>
       <c r="EG4">
-        <v>0.8382831103832473</v>
+        <v>0.8383180591176215</v>
       </c>
       <c r="EH4">
-        <v>0.8468820799924766</v>
+        <v>0.8469176853486051</v>
       </c>
       <c r="EI4">
-        <v>0.8470392054653362</v>
+        <v>0.8470737949095682</v>
       </c>
       <c r="EJ4">
-        <v>0.8586108619394749</v>
+        <v>0.8586466969666806</v>
       </c>
       <c r="EK4">
-        <v>0.8590886044177644</v>
+        <v>0.8591234870550627</v>
       </c>
       <c r="EL4">
-        <v>0.8714816408545764</v>
+        <v>0.8715179318100997</v>
       </c>
       <c r="EM4">
-        <v>0.8732930780722575</v>
+        <v>0.8733286808750823</v>
       </c>
       <c r="EN4">
-        <v>0.8739459853425868</v>
+        <v>0.8739806704598893</v>
       </c>
       <c r="EO4">
-        <v>0.8739470102418403</v>
+        <v>0.8739806704598893</v>
       </c>
       <c r="EP4">
-        <v>0.873958043131339</v>
+        <v>0.8739906584930146</v>
       </c>
       <c r="EQ4">
-        <v>0.876425194519222</v>
+        <v>0.876457251641047</v>
       </c>
       <c r="ER4">
-        <v>0.8828934772252779</v>
+        <v>0.8829257688282105</v>
       </c>
       <c r="ES4">
-        <v>0.8830044351902355</v>
+        <v>0.8830357017343708</v>
       </c>
       <c r="ET4">
-        <v>0.8830144690857795</v>
+        <v>0.8830446905756167</v>
       </c>
       <c r="EU4">
-        <v>0.885290076482367</v>
+        <v>0.8853197017828529</v>
       </c>
       <c r="EV4">
-        <v>0.8902778732557021</v>
+        <v>0.8903074397171983</v>
       </c>
       <c r="EW4">
-        <v>0.8921214847719211</v>
+        <v>0.892150369455226</v>
       </c>
       <c r="EX4">
-        <v>0.8923394893920141</v>
+        <v>0.8923673702250551</v>
       </c>
       <c r="EY4">
-        <v>0.8926343150486161</v>
+        <v>0.8926612072514999</v>
       </c>
       <c r="EZ4">
-        <v>0.8934403934419848</v>
+        <v>0.893466398306253</v>
       </c>
       <c r="FA4">
-        <v>0.8934877205138341</v>
+        <v>0.8935126877124849</v>
       </c>
       <c r="FB4">
-        <v>0.9002576088061839</v>
+        <v>0.900282870241309</v>
       </c>
       <c r="FC4">
-        <v>0.9009489783747654</v>
+        <v>0.9009733297446803</v>
       </c>
       <c r="FD4">
-        <v>0.9017405532787931</v>
+        <v>0.9017640144366001</v>
       </c>
       <c r="FE4">
-        <v>0.9123729477956155</v>
+        <v>0.9123974684458686</v>
       </c>
       <c r="FF4">
-        <v>0.9376636466463073</v>
+        <v>0.9376921309538864</v>
       </c>
       <c r="FG4">
-        <v>0.9405139885167766</v>
+        <v>0.9405419905038145</v>
       </c>
       <c r="FH4">
-        <v>0.9408105790632983</v>
+        <v>0.9408375927698465</v>
       </c>
       <c r="FI4">
-        <v>0.9416649529944723</v>
+        <v>0.9416910889309198</v>
       </c>
       <c r="FJ4">
-        <v>0.9426693884488269</v>
+        <v>0.9426946763459936</v>
       </c>
       <c r="FK4">
-        <v>0.9448481318498162</v>
+        <v>0.9448728043665295</v>
       </c>
       <c r="FL4">
-        <v>0.948737214673081</v>
+        <v>0.9487616106689778</v>
       </c>
       <c r="FM4">
-        <v>0.9530287577780565</v>
+        <v>0.9530529569902597</v>
       </c>
       <c r="FN4">
-        <v>0.9545216183102151</v>
+        <v>0.9545450662519673</v>
       </c>
       <c r="FO4">
-        <v>0.9567356339096016</v>
+        <v>0.9567584734591766</v>
       </c>
       <c r="FP4">
-        <v>0.9576635217674347</v>
+        <v>0.9576854981117974</v>
       </c>
       <c r="FQ4">
-        <v>0.9584439424019694</v>
+        <v>0.9584650263242933</v>
       </c>
       <c r="FR4">
-        <v>0.9589438987492495</v>
+        <v>0.958964034682771</v>
       </c>
       <c r="FS4">
-        <v>0.9589949758199283</v>
+        <v>0.9590140748307981</v>
       </c>
       <c r="FT4">
-        <v>0.9595897939928975</v>
+        <v>0.9596079638093886</v>
       </c>
       <c r="FU4">
-        <v>0.9603148465599483</v>
+        <v>0.9603321129846465</v>
       </c>
       <c r="FV4">
-        <v>0.965105000342265</v>
+        <v>0.9651221687701133</v>
       </c>
       <c r="FW4">
-        <v>0.9656591302670832</v>
+        <v>0.9656753614392261</v>
       </c>
       <c r="FX4">
-        <v>0.970246964258594</v>
+        <v>0.9702630573494394</v>
       </c>
       <c r="FY4">
-        <v>0.970369136253042</v>
+        <v>0.9703842065068609</v>
       </c>
       <c r="FZ4">
-        <v>0.9730045178332799</v>
+        <v>0.9730190631777212</v>
       </c>
       <c r="GA4">
-        <v>0.9739863134886633</v>
+        <v>0.9740000063083317</v>
       </c>
       <c r="GB4">
-        <v>0.9741133079828922</v>
+        <v>0.974125978920988</v>
       </c>
       <c r="GC4">
-        <v>0.976131249491189</v>
+        <v>0.9761432731900844</v>
       </c>
       <c r="GD4">
-        <v>0.982178418916382</v>
+        <v>0.9821905936636512</v>
       </c>
       <c r="GE4">
-        <v>0.9838457817406105</v>
+        <v>0.9838572397905566</v>
       </c>
       <c r="GF4">
-        <v>0.984130342307679</v>
+        <v>0.9841408096937052</v>
       </c>
       <c r="GG4">
-        <v>0.9846780484827892</v>
+        <v>0.9846875773404096</v>
       </c>
       <c r="GH4">
-        <v>0.9855277990441732</v>
+        <v>0.9855364492156915</v>
       </c>
       <c r="GI4">
-        <v>0.9858845306979619</v>
+        <v>0.9858922045043995</v>
       </c>
       <c r="GJ4">
-        <v>0.9859185163304175</v>
+        <v>0.9859251498279757</v>
       </c>
       <c r="GK4">
-        <v>0.9862294153662891</v>
+        <v>0.9862350634182155</v>
       </c>
       <c r="GL4">
-        <v>0.9867872800409375</v>
+        <v>0.986791991577103</v>
       </c>
       <c r="GM4">
-        <v>0.9903079085809464</v>
+        <v>0.9903122705965837</v>
       </c>
       <c r="GN4">
-        <v>0.9953855013502008</v>
+        <v>0.9953898223176085</v>
       </c>
       <c r="GO4">
-        <v>0.9960227688212409</v>
+        <v>0.9960261690045034</v>
       </c>
       <c r="GP4">
-        <v>0.9960356492701555</v>
+        <v>0.9960380049630909</v>
       </c>
       <c r="GQ4">
-        <v>0.9991429075289495</v>
+        <v>0.9991448318026988</v>
       </c>
       <c r="GR4">
-        <v>0.9997993160491198</v>
+        <v>0.9998003233310289</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.303217580761501E-05</v>
+        <v>9.655051884173488E-06</v>
       </c>
       <c r="C5">
-        <v>2.138439568431697E-05</v>
+        <v>1.462723107256246E-05</v>
       </c>
       <c r="D5">
-        <v>5.724851015487989E-05</v>
+        <v>4.712845153928621E-05</v>
       </c>
       <c r="E5">
-        <v>7.263767292770033E-05</v>
+        <v>5.914195937189576E-05</v>
       </c>
       <c r="F5">
-        <v>8.317540177213913E-05</v>
+        <v>6.630100963823746E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001194673792363858</v>
+        <v>9.923035976264099E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001267257125292361</v>
+        <v>0.0001031079706064933</v>
       </c>
       <c r="I5">
-        <v>0.0001500654911846871</v>
+        <v>0.0001230770495130761</v>
       </c>
       <c r="J5">
-        <v>0.0001679215549210904</v>
+        <v>0.0001375589957959838</v>
       </c>
       <c r="K5">
-        <v>0.0001713046925711474</v>
+        <v>0.0001375589957959838</v>
       </c>
       <c r="L5">
-        <v>0.0001718988752323759</v>
+        <v>0.0001375589957959838</v>
       </c>
       <c r="M5">
-        <v>0.0001718989009916955</v>
+        <v>0.0001375589957959838</v>
       </c>
       <c r="N5">
-        <v>0.0001863837897778652</v>
+        <v>0.0001486676660565931</v>
       </c>
       <c r="O5">
-        <v>0.0002131865813821941</v>
+        <v>0.0001721019162218046</v>
       </c>
       <c r="P5">
-        <v>0.0002140206962398807</v>
+        <v>0.0001721019162218046</v>
       </c>
       <c r="Q5">
-        <v>0.0002510523586932079</v>
+        <v>0.0002057714123411665</v>
       </c>
       <c r="R5">
-        <v>0.0004438567658469699</v>
+        <v>0.0003953107379362006</v>
       </c>
       <c r="S5">
-        <v>0.0004886242011860992</v>
+        <v>0.0004367208282326204</v>
       </c>
       <c r="T5">
-        <v>0.0004967139780666755</v>
+        <v>0.0004414304008582768</v>
       </c>
       <c r="U5">
-        <v>0.0005489159932960532</v>
+        <v>0.000490279704618803</v>
       </c>
       <c r="V5">
-        <v>0.0006225071222096784</v>
+        <v>0.0005605314527479563</v>
       </c>
       <c r="W5">
-        <v>0.000643734109896319</v>
+        <v>0.0005783864238967313</v>
       </c>
       <c r="X5">
-        <v>0.0006513813407834282</v>
+        <v>0.0005826531747138004</v>
       </c>
       <c r="Y5">
-        <v>0.0006607324166453848</v>
+        <v>0.0005886248324206671</v>
       </c>
       <c r="Z5">
-        <v>0.0006657445122713947</v>
+        <v>0.0005902548056385306</v>
       </c>
       <c r="AA5">
-        <v>0.0006716348645844395</v>
+        <v>0.0005927635829135946</v>
       </c>
       <c r="AB5">
-        <v>0.0007096636570230468</v>
+        <v>0.0006274308304757367</v>
       </c>
       <c r="AC5">
-        <v>0.0007175091419072293</v>
+        <v>0.0006318959588509346</v>
       </c>
       <c r="AD5">
-        <v>0.0007239295608124491</v>
+        <v>0.0006349351330801766</v>
       </c>
       <c r="AE5">
-        <v>0.0007667106231809019</v>
+        <v>0.0006743576124064626</v>
       </c>
       <c r="AF5">
-        <v>0.0008038659326324038</v>
+        <v>0.0007081508325865241</v>
       </c>
       <c r="AG5">
-        <v>0.0008585596758249979</v>
+        <v>0.0007594934172703157</v>
       </c>
       <c r="AH5">
-        <v>0.0008988165652307133</v>
+        <v>0.0007963901504525917</v>
       </c>
       <c r="AI5">
-        <v>0.0009364073486757866</v>
+        <v>0.0008306191160337476</v>
       </c>
       <c r="AJ5">
-        <v>0.0009924260378488215</v>
+        <v>0.0008832874724655619</v>
       </c>
       <c r="AK5">
-        <v>0.001022371281406761</v>
+        <v>0.0009098661331057037</v>
       </c>
       <c r="AL5">
-        <v>0.001023601584388599</v>
+        <v>0.0009098661331057037</v>
       </c>
       <c r="AM5">
-        <v>0.001132610662779373</v>
+        <v>0.001015557904815348</v>
       </c>
       <c r="AN5">
-        <v>0.001142133516638794</v>
+        <v>0.001021701447579667</v>
       </c>
       <c r="AO5">
-        <v>0.001151375995502354</v>
+        <v>0.001027564440605468</v>
       </c>
       <c r="AP5">
-        <v>0.001175584045144987</v>
+        <v>0.001048402331645849</v>
       </c>
       <c r="AQ5">
-        <v>0.00119790282981551</v>
+        <v>0.001067349780236856</v>
       </c>
       <c r="AR5">
-        <v>0.001199356998794043</v>
+        <v>0.001067349780236856</v>
       </c>
       <c r="AS5">
-        <v>0.001201272378265768</v>
+        <v>0.001067349780236856</v>
       </c>
       <c r="AT5">
-        <v>0.001203857472527606</v>
+        <v>0.001067349780236856</v>
       </c>
       <c r="AU5">
-        <v>0.001243535683941864</v>
+        <v>0.0011036674747688</v>
       </c>
       <c r="AV5">
-        <v>0.00129729311314828</v>
+        <v>0.001154073161912256</v>
       </c>
       <c r="AW5">
-        <v>0.001297320453803877</v>
+        <v>0.001154073161912256</v>
       </c>
       <c r="AX5">
-        <v>0.001298731990083039</v>
+        <v>0.001154073161912256</v>
       </c>
       <c r="AY5">
-        <v>0.001353012969281727</v>
+        <v>0.00120500272534854</v>
       </c>
       <c r="AZ5">
-        <v>0.001396127804645252</v>
+        <v>0.001244759185692658</v>
       </c>
       <c r="BA5">
-        <v>0.001397221114429112</v>
+        <v>0.001244759185692658</v>
       </c>
       <c r="BB5">
-        <v>0.00140414092702696</v>
+        <v>0.001248298064859762</v>
       </c>
       <c r="BC5">
-        <v>0.001405388276008546</v>
+        <v>0.001248298064859762</v>
       </c>
       <c r="BD5">
-        <v>0.001419603324798699</v>
+        <v>0.001259136726947596</v>
       </c>
       <c r="BE5">
-        <v>0.001427292964685182</v>
+        <v>0.001263445913195288</v>
       </c>
       <c r="BF5">
-        <v>0.001436274197552599</v>
+        <v>0.001269047497404364</v>
       </c>
       <c r="BG5">
-        <v>0.001437752951230769</v>
+        <v>0.001269047497404364</v>
       </c>
       <c r="BH5">
-        <v>0.001440305506993087</v>
+        <v>0.001269047497404364</v>
       </c>
       <c r="BI5">
-        <v>0.001450385837844278</v>
+        <v>0.001275748864605884</v>
       </c>
       <c r="BJ5">
-        <v>0.001461868808674763</v>
+        <v>0.001283853745976772</v>
       </c>
       <c r="BK5">
-        <v>0.001462409350966784</v>
+        <v>0.001283853745976772</v>
       </c>
       <c r="BL5">
-        <v>0.001472376917819639</v>
+        <v>0.001290442278900222</v>
       </c>
       <c r="BM5">
-        <v>0.001537825756853463</v>
+        <v>0.001352546662498136</v>
       </c>
       <c r="BN5">
-        <v>0.001569350516388085</v>
+        <v>0.001380705823542332</v>
       </c>
       <c r="BO5">
-        <v>0.001593209354035874</v>
+        <v>0.00140119428494281</v>
       </c>
       <c r="BP5">
-        <v>0.001630800137480947</v>
+        <v>0.001435423250523966</v>
       </c>
       <c r="BQ5">
-        <v>0.001674518102835569</v>
+        <v>0.001475783216757671</v>
       </c>
       <c r="BR5">
-        <v>0.001721595162140603</v>
+        <v>0.001519504370484416</v>
       </c>
       <c r="BS5">
-        <v>0.001737834063900879</v>
+        <v>0.001532368146901098</v>
       </c>
       <c r="BT5">
-        <v>0.001746922352766715</v>
+        <v>0.00153807685383084</v>
       </c>
       <c r="BU5">
-        <v>0.001749069622235016</v>
+        <v>0.00153807685383084</v>
       </c>
       <c r="BV5">
-        <v>0.001750038925620707</v>
+        <v>0.00153807685383084</v>
       </c>
       <c r="BW5">
-        <v>0.00175654990952459</v>
+        <v>0.001541206649503039</v>
       </c>
       <c r="BX5">
-        <v>0.001758180951400512</v>
+        <v>0.001541206649503039</v>
       </c>
       <c r="BY5">
-        <v>0.001763353790324149</v>
+        <v>0.001542997466201184</v>
       </c>
       <c r="BZ5">
-        <v>0.001775254466148468</v>
+        <v>0.001551520312898966</v>
       </c>
       <c r="CA5">
-        <v>0.001783709935523645</v>
+        <v>0.001556595805935691</v>
       </c>
       <c r="CB5">
-        <v>0.001794297437367349</v>
+        <v>0.001563804660222132</v>
       </c>
       <c r="CC5">
-        <v>0.00179797701091303</v>
+        <v>0.001564101280870309</v>
       </c>
       <c r="CD5">
-        <v>0.001798598965163849</v>
+        <v>0.001564101280870309</v>
       </c>
       <c r="CE5">
-        <v>0.001800983664128645</v>
+        <v>0.001564101280870309</v>
       </c>
       <c r="CF5">
-        <v>0.001830044827699635</v>
+        <v>0.001589795310523987</v>
       </c>
       <c r="CG5">
-        <v>0.001837153291294698</v>
+        <v>0.001593522958264328</v>
       </c>
       <c r="CH5">
-        <v>0.001837693833586719</v>
+        <v>0.001593522958264328</v>
       </c>
       <c r="CI5">
-        <v>0.001868114563137638</v>
+        <v>0.001620577401242301</v>
       </c>
       <c r="CJ5">
-        <v>0.001884271757899121</v>
+        <v>0.001633359419736611</v>
       </c>
       <c r="CK5">
-        <v>0.001890692176804341</v>
+        <v>0.001636398593965854</v>
       </c>
       <c r="CL5">
-        <v>0.001896362468320634</v>
+        <v>0.001638687173292105</v>
       </c>
       <c r="CM5">
-        <v>0.001941265843657757</v>
+        <v>0.001680233288310609</v>
       </c>
       <c r="CN5">
-        <v>0.1130744042030762</v>
+        <v>0.1128792497106095</v>
       </c>
       <c r="CO5">
-        <v>0.1251580390246939</v>
+        <v>0.1249670303658475</v>
       </c>
       <c r="CP5">
-        <v>0.4665177039854375</v>
+        <v>0.4665360612032849</v>
       </c>
       <c r="CQ5">
-        <v>0.4996373894965145</v>
+        <v>0.4996730031871829</v>
       </c>
       <c r="CR5">
-        <v>0.5319353490197221</v>
+        <v>0.5319877070455908</v>
       </c>
       <c r="CS5">
-        <v>0.541918819872343</v>
+        <v>0.5419740148125646</v>
       </c>
       <c r="CT5">
-        <v>0.5419189694149008</v>
+        <v>0.5419740148125646</v>
       </c>
       <c r="CU5">
-        <v>0.5605333431401097</v>
+        <v>0.5605966046297679</v>
       </c>
       <c r="CV5">
-        <v>0.563498442096338</v>
+        <v>0.5635601663265524</v>
       </c>
       <c r="CW5">
-        <v>0.5667778865479258</v>
+        <v>0.5668382694333399</v>
       </c>
       <c r="CX5">
-        <v>0.5694694900081916</v>
+        <v>0.5695281651791261</v>
       </c>
       <c r="CY5">
-        <v>0.5914736826833589</v>
+        <v>0.591542686638155</v>
       </c>
       <c r="CZ5">
-        <v>0.6168300343090406</v>
+        <v>0.6169114562681129</v>
       </c>
       <c r="DA5">
-        <v>0.6169000046480076</v>
+        <v>0.6169780849696519</v>
       </c>
       <c r="DB5">
-        <v>0.6172745258624789</v>
+        <v>0.6173494543568787</v>
       </c>
       <c r="DC5">
-        <v>0.6184432678452255</v>
+        <v>0.6185155395074774</v>
       </c>
       <c r="DD5">
-        <v>0.6192584724731912</v>
+        <v>0.619327866962473</v>
       </c>
       <c r="DE5">
-        <v>0.6207152892516853</v>
+        <v>0.6207822064503482</v>
       </c>
       <c r="DF5">
-        <v>0.6290980781279359</v>
+        <v>0.629166834621951</v>
       </c>
       <c r="DG5">
-        <v>0.6461899388756206</v>
+        <v>0.646265962561163</v>
       </c>
       <c r="DH5">
-        <v>0.646191267049701</v>
+        <v>0.646265962561163</v>
       </c>
       <c r="DI5">
-        <v>0.6629468828023495</v>
+        <v>0.6630286359419145</v>
       </c>
       <c r="DJ5">
-        <v>0.6629468862246319</v>
+        <v>0.6630286359419145</v>
       </c>
       <c r="DK5">
-        <v>0.6921149887940434</v>
+        <v>0.6922115321749921</v>
       </c>
       <c r="DL5">
-        <v>0.7020081676479972</v>
+        <v>0.7021074916691513</v>
       </c>
       <c r="DM5">
-        <v>0.7207024623720263</v>
+        <v>0.7208100522956358</v>
       </c>
       <c r="DN5">
-        <v>0.7229926579382178</v>
+        <v>0.7230982899713927</v>
       </c>
       <c r="DO5">
-        <v>0.7364258207399133</v>
+        <v>0.7365364396949289</v>
       </c>
       <c r="DP5">
-        <v>0.7412586490685695</v>
+        <v>0.7413688948194238</v>
       </c>
       <c r="DQ5">
-        <v>0.7483170859643707</v>
+        <v>0.7484283456132035</v>
       </c>
       <c r="DR5">
-        <v>0.7483202392700242</v>
+        <v>0.7484283456132035</v>
       </c>
       <c r="DS5">
-        <v>0.7518468914179627</v>
+        <v>0.7519538104876055</v>
       </c>
       <c r="DT5">
-        <v>0.7673897151885147</v>
+        <v>0.7675029360182349</v>
       </c>
       <c r="DU5">
-        <v>0.7675660714659113</v>
+        <v>0.7676760169628379</v>
       </c>
       <c r="DV5">
-        <v>0.7768147253293798</v>
+        <v>0.7769270497687439</v>
       </c>
       <c r="DW5">
-        <v>0.7785896096031784</v>
+        <v>0.7786996549862898</v>
       </c>
       <c r="DX5">
-        <v>0.7790073564970115</v>
+        <v>0.7791142769931201</v>
       </c>
       <c r="DY5">
-        <v>0.7790345293406103</v>
+        <v>0.7791380815259134</v>
       </c>
       <c r="DZ5">
-        <v>0.7896761906835149</v>
+        <v>0.7897829899979096</v>
       </c>
       <c r="EA5">
-        <v>0.7937006026241054</v>
+        <v>0.7938065248918758</v>
       </c>
       <c r="EB5">
-        <v>0.7970324074749202</v>
+        <v>0.7971370210313116</v>
       </c>
       <c r="EC5">
-        <v>0.8011692799138505</v>
+        <v>0.8012730865141987</v>
       </c>
       <c r="ED5">
-        <v>0.8068070205306244</v>
+        <v>0.806910955585357</v>
       </c>
       <c r="EE5">
-        <v>0.8115893958600254</v>
+        <v>0.8116929262659552</v>
       </c>
       <c r="EF5">
-        <v>0.8115934249646659</v>
+        <v>0.8116935726355422</v>
       </c>
       <c r="EG5">
-        <v>0.818061988869175</v>
+        <v>0.8181627828019141</v>
       </c>
       <c r="EH5">
-        <v>0.8277542702260946</v>
+        <v>0.8278577195904322</v>
       </c>
       <c r="EI5">
-        <v>0.8281094518208513</v>
+        <v>0.8282097373045996</v>
       </c>
       <c r="EJ5">
-        <v>0.8337216281380025</v>
+        <v>0.8338220261432819</v>
       </c>
       <c r="EK5">
-        <v>0.8367726752929621</v>
+        <v>0.8368715896056881</v>
       </c>
       <c r="EL5">
-        <v>0.8507562630865321</v>
+        <v>0.8508605073713975</v>
       </c>
       <c r="EM5">
-        <v>0.8560854550078609</v>
+        <v>0.8561896354453007</v>
       </c>
       <c r="EN5">
-        <v>0.8585306176717646</v>
+        <v>0.8586329368014287</v>
       </c>
       <c r="EO5">
-        <v>0.8585341618727124</v>
+        <v>0.8586330979651084</v>
       </c>
       <c r="EP5">
-        <v>0.8585414615246046</v>
+        <v>0.8586370169203034</v>
       </c>
       <c r="EQ5">
-        <v>0.8655252884215072</v>
+        <v>0.8656218112147842</v>
       </c>
       <c r="ER5">
-        <v>0.8769563152527589</v>
+        <v>0.8770565771441892</v>
       </c>
       <c r="ES5">
-        <v>0.8770785035609551</v>
+        <v>0.8771754563596095</v>
       </c>
       <c r="ET5">
-        <v>0.8770794185929915</v>
+        <v>0.8771754563596095</v>
       </c>
       <c r="EU5">
-        <v>0.8788829268663676</v>
+        <v>0.8789767034165326</v>
       </c>
       <c r="EV5">
-        <v>0.8811196286333487</v>
+        <v>0.8812114139532706</v>
       </c>
       <c r="EW5">
-        <v>0.8850073938759563</v>
+        <v>0.8850982169847151</v>
       </c>
       <c r="EX5">
-        <v>0.8853525782208606</v>
+        <v>0.8854402312182817</v>
       </c>
       <c r="EY5">
-        <v>0.8885812299731982</v>
+        <v>0.8886675099694611</v>
       </c>
       <c r="EZ5">
-        <v>0.8896072830580513</v>
+        <v>0.8896908172918491</v>
       </c>
       <c r="FA5">
-        <v>0.8896130872859656</v>
+        <v>0.8896932398910486</v>
       </c>
       <c r="FB5">
-        <v>0.8936601257262219</v>
+        <v>0.8937394153865613</v>
       </c>
       <c r="FC5">
-        <v>0.8966457593821471</v>
+        <v>0.8967235245812167</v>
       </c>
       <c r="FD5">
-        <v>0.8974093648408745</v>
+        <v>0.8974842207079866</v>
       </c>
       <c r="FE5">
-        <v>0.9003311215977426</v>
+        <v>0.9004044131925487</v>
       </c>
       <c r="FF5">
-        <v>0.9210218582922997</v>
+        <v>0.9211046600644844</v>
       </c>
       <c r="FG5">
-        <v>0.9272745479999955</v>
+        <v>0.9273578614912648</v>
       </c>
       <c r="FH5">
-        <v>0.9272815213198926</v>
+        <v>0.9273614539110793</v>
       </c>
       <c r="FI5">
-        <v>0.9273777044684727</v>
+        <v>0.927454311759266</v>
       </c>
       <c r="FJ5">
-        <v>0.9276796239340156</v>
+        <v>0.9277530341487985</v>
       </c>
       <c r="FK5">
-        <v>0.9297868686029078</v>
+        <v>0.9298582069037998</v>
       </c>
       <c r="FL5">
-        <v>0.9345040248332717</v>
+        <v>0.9345749178378036</v>
       </c>
       <c r="FM5">
-        <v>0.9359438041120172</v>
+        <v>0.9360122092073729</v>
       </c>
       <c r="FN5">
-        <v>0.9366476078016274</v>
+        <v>0.9367130662937987</v>
       </c>
       <c r="FO5">
-        <v>0.9399947057522164</v>
+        <v>0.9400588650643755</v>
       </c>
       <c r="FP5">
-        <v>0.9432011343048822</v>
+        <v>0.9432639067653575</v>
       </c>
       <c r="FQ5">
-        <v>0.9435483066797571</v>
+        <v>0.943607910267927</v>
       </c>
       <c r="FR5">
-        <v>0.9450132914581305</v>
+        <v>0.9450704228463568</v>
       </c>
       <c r="FS5">
-        <v>0.9452253467550001</v>
+        <v>0.945279225059712</v>
       </c>
       <c r="FT5">
-        <v>0.9472165177256059</v>
+        <v>0.9472682517739325</v>
       </c>
       <c r="FU5">
-        <v>0.9474425774922687</v>
+        <v>0.9474910671853138</v>
       </c>
       <c r="FV5">
-        <v>0.9531716101076949</v>
+        <v>0.9532202851525181</v>
       </c>
       <c r="FW5">
-        <v>0.9539269413465444</v>
+        <v>0.9539727019025338</v>
       </c>
       <c r="FX5">
-        <v>0.9571535692989119</v>
+        <v>0.9571979555924173</v>
       </c>
       <c r="FY5">
-        <v>0.9573079529366328</v>
+        <v>0.9573490502029799</v>
       </c>
       <c r="FZ5">
-        <v>0.9592463474080176</v>
+        <v>0.9592852675252256</v>
       </c>
       <c r="GA5">
-        <v>0.9602350970934214</v>
+        <v>0.9602712481989614</v>
       </c>
       <c r="GB5">
-        <v>0.9617990757703334</v>
+        <v>0.9618328163735034</v>
       </c>
       <c r="GC5">
-        <v>0.9623092033928028</v>
+        <v>0.9623398766849103</v>
       </c>
       <c r="GD5">
-        <v>0.973469846228046</v>
+        <v>0.9735040901025016</v>
       </c>
       <c r="GE5">
-        <v>0.9764379902842294</v>
+        <v>0.9764706987970881</v>
       </c>
       <c r="GF5">
-        <v>0.9769597919165264</v>
+        <v>0.9769894403941053</v>
       </c>
       <c r="GG5">
-        <v>0.9776547135562678</v>
+        <v>0.9776814098949581</v>
       </c>
       <c r="GH5">
-        <v>0.9809885745070522</v>
+        <v>0.9810139634158201</v>
       </c>
       <c r="GI5">
-        <v>0.9811353410048856</v>
+        <v>0.9811574361391415</v>
       </c>
       <c r="GJ5">
-        <v>0.9813473963017553</v>
+        <v>0.9813662383524967</v>
       </c>
       <c r="GK5">
-        <v>0.9813985740549998</v>
+        <v>0.9814140627559049</v>
       </c>
       <c r="GL5">
-        <v>0.9820404941455235</v>
+        <v>0.9820529976745247</v>
       </c>
       <c r="GM5">
-        <v>0.9849342686028048</v>
+        <v>0.9849451904196372</v>
       </c>
       <c r="GN5">
-        <v>0.990358601522729</v>
+        <v>0.9903695187884043</v>
       </c>
       <c r="GO5">
-        <v>0.9909168151144885</v>
+        <v>0.9909246950385002</v>
       </c>
       <c r="GP5">
-        <v>0.9909205337340335</v>
+        <v>0.9909250307294831</v>
       </c>
       <c r="GQ5">
-        <v>0.996604982650118</v>
+        <v>0.9966096372107232</v>
       </c>
       <c r="GR5">
-        <v>0.9980380125289632</v>
+        <v>0.9980401749738541</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.293226856821828E-05</v>
+        <v>1.201971104729967E-05</v>
       </c>
       <c r="C6">
-        <v>2.374115665298808E-05</v>
+        <v>1.201971104729967E-05</v>
       </c>
       <c r="D6">
-        <v>2.635961160368633E-05</v>
+        <v>1.201971104729967E-05</v>
       </c>
       <c r="E6">
-        <v>4.997256515908829E-05</v>
+        <v>2.472129288320567E-05</v>
       </c>
       <c r="F6">
-        <v>5.048877944936871E-05</v>
+        <v>2.472129288320567E-05</v>
       </c>
       <c r="G6">
-        <v>5.068441248568522E-05</v>
+        <v>2.472129288320567E-05</v>
       </c>
       <c r="H6">
-        <v>8.085165791767927E-05</v>
+        <v>4.398858463602782E-05</v>
       </c>
       <c r="I6">
-        <v>0.0001158338572590146</v>
+        <v>6.807921828867609E-05</v>
       </c>
       <c r="J6">
-        <v>0.0001466671386784682</v>
+        <v>8.801370631078608E-05</v>
       </c>
       <c r="K6">
-        <v>0.0001584126959573162</v>
+        <v>8.882721802591837E-05</v>
       </c>
       <c r="L6">
-        <v>0.0001985661952012834</v>
+        <v>0.0001180981603516237</v>
       </c>
       <c r="M6">
-        <v>0.000239102708438039</v>
+        <v>0.0001477527839076004</v>
       </c>
       <c r="N6">
-        <v>0.0002391027347092546</v>
+        <v>0.0001477527839076004</v>
       </c>
       <c r="O6">
-        <v>0.0002576059533608655</v>
+        <v>0.0001553357293198754</v>
       </c>
       <c r="P6">
-        <v>0.000283161940879683</v>
+        <v>0.0001699837300218778</v>
       </c>
       <c r="Q6">
-        <v>0.0002916569797197336</v>
+        <v>0.0001699837300218778</v>
       </c>
       <c r="R6">
-        <v>0.0002928462454973414</v>
+        <v>0.0001699837300218778</v>
       </c>
       <c r="S6">
-        <v>0.00030377970579148</v>
+        <v>0.0001699837300218778</v>
       </c>
       <c r="T6">
-        <v>0.0003380522381461774</v>
+        <v>0.0001933634603977713</v>
       </c>
       <c r="U6">
-        <v>0.0003453615460085536</v>
+        <v>0.0001933634603977713</v>
       </c>
       <c r="V6">
-        <v>0.0003480944126570976</v>
+        <v>0.0001933634603977713</v>
       </c>
       <c r="W6">
-        <v>0.000351065519601156</v>
+        <v>0.0001933634603977713</v>
       </c>
       <c r="X6">
-        <v>0.0003543566261391891</v>
+        <v>0.0001933634603977713</v>
       </c>
       <c r="Y6">
-        <v>0.0003717512358116735</v>
+        <v>0.0001998358655556171</v>
       </c>
       <c r="Z6">
-        <v>0.0003737024572749348</v>
+        <v>0.0001998358655556171</v>
       </c>
       <c r="AA6">
-        <v>0.0003749583918512874</v>
+        <v>0.0001998358655556171</v>
       </c>
       <c r="AB6">
-        <v>0.0003957760574593206</v>
+        <v>0.0002097372898547157</v>
       </c>
       <c r="AC6">
-        <v>0.0004235612779361647</v>
+        <v>0.0002266184069963301</v>
       </c>
       <c r="AD6">
-        <v>0.0004278679076550771</v>
+        <v>0.0002266184069963301</v>
       </c>
       <c r="AE6">
-        <v>0.0004283841219453575</v>
+        <v>0.0002266184069963301</v>
       </c>
       <c r="AF6">
-        <v>0.0004373530977764846</v>
+        <v>0.0002266184069963301</v>
       </c>
       <c r="AG6">
-        <v>0.0004500814345368282</v>
+        <v>0.0002284164102643703</v>
       </c>
       <c r="AH6">
-        <v>0.0004510912747178144</v>
+        <v>0.0002284164102643703</v>
       </c>
       <c r="AI6">
-        <v>0.0004517214823459485</v>
+        <v>0.0002284164102643703</v>
       </c>
       <c r="AJ6">
-        <v>0.000452814153825375</v>
+        <v>0.0002284164102643703</v>
       </c>
       <c r="AK6">
-        <v>0.0004536415863097957</v>
+        <v>0.0002284164102643703</v>
       </c>
       <c r="AL6">
-        <v>0.0004844748677292492</v>
+        <v>0.0002483508982864803</v>
       </c>
       <c r="AM6">
-        <v>0.0004942447235452968</v>
+        <v>0.0002483508982864803</v>
       </c>
       <c r="AN6">
-        <v>0.0005014177308102394</v>
+        <v>0.0002483508982864803</v>
       </c>
       <c r="AO6">
-        <v>0.0005040852009600147</v>
+        <v>0.0002483508982864803</v>
       </c>
       <c r="AP6">
-        <v>0.0005107569461343953</v>
+        <v>0.0002483508982864803</v>
       </c>
       <c r="AQ6">
-        <v>0.0005146772160605822</v>
+        <v>0.0002483508982864803</v>
       </c>
       <c r="AR6">
-        <v>0.0005164507385271894</v>
+        <v>0.0002483508982864803</v>
       </c>
       <c r="AS6">
-        <v>0.0005167508563415385</v>
+        <v>0.0002483508982864803</v>
       </c>
       <c r="AT6">
-        <v>0.0005346112930052522</v>
+        <v>0.0002552899419391426</v>
       </c>
       <c r="AU6">
-        <v>0.0005361520836762413</v>
+        <v>0.0002552899419391426</v>
       </c>
       <c r="AV6">
-        <v>0.0005401515486009371</v>
+        <v>0.0002552899419391426</v>
       </c>
       <c r="AW6">
-        <v>0.0005495776784234566</v>
+        <v>0.0002552899419391426</v>
       </c>
       <c r="AX6">
-        <v>0.0005546461173280252</v>
+        <v>0.0002552899419391426</v>
       </c>
       <c r="AY6">
-        <v>0.0005588088090496477</v>
+        <v>0.0002552899419391426</v>
       </c>
       <c r="AZ6">
-        <v>0.0005851820935530766</v>
+        <v>0.0002707566634149473</v>
       </c>
       <c r="BA6">
-        <v>0.000595267331363186</v>
+        <v>0.0002707566634149473</v>
       </c>
       <c r="BB6">
-        <v>0.0006011099247531784</v>
+        <v>0.0002707566634149473</v>
       </c>
       <c r="BC6">
-        <v>0.0006029368443187801</v>
+        <v>0.0002707566634149473</v>
       </c>
       <c r="BD6">
-        <v>0.0006392365706353084</v>
+        <v>0.0002961671192680262</v>
       </c>
       <c r="BE6">
-        <v>0.0006419198220847867</v>
+        <v>0.0002961671192680262</v>
       </c>
       <c r="BF6">
-        <v>0.0006424508718747878</v>
+        <v>0.0002961671192680262</v>
       </c>
       <c r="BG6">
-        <v>0.0006498419204356249</v>
+        <v>0.0002961671192680262</v>
       </c>
       <c r="BH6">
-        <v>0.0006543178666513493</v>
+        <v>0.0002961671192680262</v>
       </c>
       <c r="BI6">
-        <v>0.0006587505431678883</v>
+        <v>0.0002961671192680262</v>
       </c>
       <c r="BJ6">
-        <v>0.0006588743440255573</v>
+        <v>0.0002961671192680262</v>
       </c>
       <c r="BK6">
-        <v>0.0006927947703868843</v>
+        <v>0.0003191941302569888</v>
       </c>
       <c r="BL6">
-        <v>0.0006936498558007843</v>
+        <v>0.0003191941302569888</v>
       </c>
       <c r="BM6">
-        <v>0.0006938365257072696</v>
+        <v>0.0003191941302569888</v>
       </c>
       <c r="BN6">
-        <v>0.0007074043774518064</v>
+        <v>0.0003218331110037406</v>
       </c>
       <c r="BO6">
-        <v>0.0007129590973472189</v>
+        <v>0.0003218331110037406</v>
       </c>
       <c r="BP6">
-        <v>0.000720025910614161</v>
+        <v>0.0003218331110037406</v>
       </c>
       <c r="BQ6">
-        <v>0.0007389202502584078</v>
+        <v>0.0003298078587691017</v>
       </c>
       <c r="BR6">
-        <v>0.0007603866948542254</v>
+        <v>0.0003403591922748982</v>
       </c>
       <c r="BS6">
-        <v>0.0007701565506702731</v>
+        <v>0.0003403591922748982</v>
       </c>
       <c r="BT6">
-        <v>0.0008108852499034102</v>
+        <v>0.0003702063366288639</v>
       </c>
       <c r="BU6">
-        <v>0.0008410524953354042</v>
+        <v>0.000389473628381686</v>
       </c>
       <c r="BV6">
-        <v>0.0008509168171496732</v>
+        <v>0.000389473628381686</v>
       </c>
       <c r="BW6">
-        <v>0.0008901207364115197</v>
+        <v>0.0004177933364897359</v>
       </c>
       <c r="BX6">
-        <v>0.0009071003690918175</v>
+        <v>0.0004238500417361052</v>
       </c>
       <c r="BY6">
-        <v>0.0009078738592472539</v>
+        <v>0.0004238500417361052</v>
       </c>
       <c r="BZ6">
-        <v>0.0009096074568146127</v>
+        <v>0.0004238500417361052</v>
       </c>
       <c r="CA6">
-        <v>0.0009503361560477498</v>
+        <v>0.0004536971860900708</v>
       </c>
       <c r="CB6">
-        <v>0.0009504211591761493</v>
+        <v>0.0004536971860900708</v>
       </c>
       <c r="CC6">
-        <v>0.0009914042484044966</v>
+        <v>0.0004837991636046225</v>
       </c>
       <c r="CD6">
-        <v>0.0009917439093681012</v>
+        <v>0.0004837991636046225</v>
       </c>
       <c r="CE6">
-        <v>0.0009930106799442497</v>
+        <v>0.0004837991636046225</v>
       </c>
       <c r="CF6">
-        <v>0.001011296656599951</v>
+        <v>0.0004911644885700558</v>
       </c>
       <c r="CG6">
-        <v>0.001024132788358265</v>
+        <v>0.000493070474622582</v>
       </c>
       <c r="CH6">
-        <v>0.001045504348955869</v>
+        <v>0.0005035267588355248</v>
       </c>
       <c r="CI6">
-        <v>0.001048337809902519</v>
+        <v>0.0005035267588355248</v>
       </c>
       <c r="CJ6">
-        <v>0.001065109364586735</v>
+        <v>0.0005093750235992161</v>
       </c>
       <c r="CK6">
-        <v>0.001077945496345049</v>
+        <v>0.0005112810096517422</v>
       </c>
       <c r="CL6">
-        <v>0.001082635721756739</v>
+        <v>0.0005112810096517422</v>
       </c>
       <c r="CM6">
-        <v>0.001082704053129452</v>
+        <v>0.0005112810096517422</v>
       </c>
       <c r="CN6">
-        <v>0.02841465953850794</v>
+        <v>0.02787989818872845</v>
       </c>
       <c r="CO6">
-        <v>0.1391961934526506</v>
+        <v>0.138843468868273</v>
       </c>
       <c r="CP6">
-        <v>0.3524289594377835</v>
+        <v>0.3524367489159839</v>
       </c>
       <c r="CQ6">
-        <v>0.4598216374157335</v>
+        <v>0.4600055600324512</v>
       </c>
       <c r="CR6">
-        <v>0.495425644745361</v>
+        <v>0.4956606395555379</v>
       </c>
       <c r="CS6">
-        <v>0.5227675702305519</v>
+        <v>0.5230392441028722</v>
       </c>
       <c r="CT6">
-        <v>0.5229143501477882</v>
+        <v>0.5231753272139568</v>
       </c>
       <c r="CU6">
-        <v>0.5687734142843278</v>
+        <v>0.569103328578707</v>
       </c>
       <c r="CV6">
-        <v>0.5706331635493114</v>
+        <v>0.5709553651513768</v>
       </c>
       <c r="CW6">
-        <v>0.5891791302001175</v>
+        <v>0.5895226876815095</v>
       </c>
       <c r="CX6">
-        <v>0.5911532907629469</v>
+        <v>0.5914893348646033</v>
       </c>
       <c r="CY6">
-        <v>0.5920109515867984</v>
+        <v>0.5923375372871544</v>
       </c>
       <c r="CZ6">
-        <v>0.6115512242188831</v>
+        <v>0.6119008979499565</v>
       </c>
       <c r="DA6">
-        <v>0.6129894458918035</v>
+        <v>0.6133306725996643</v>
       </c>
       <c r="DB6">
-        <v>0.6138559591754883</v>
+        <v>0.6141877429036604</v>
       </c>
       <c r="DC6">
-        <v>0.6141532050698916</v>
+        <v>0.6144745541142933</v>
       </c>
       <c r="DD6">
-        <v>0.6152887627485106</v>
+        <v>0.615601137507601</v>
       </c>
       <c r="DE6">
-        <v>0.6153268421677937</v>
+        <v>0.6156283307567717</v>
       </c>
       <c r="DF6">
-        <v>0.6221623483390909</v>
+        <v>0.6224647923564414</v>
       </c>
       <c r="DG6">
-        <v>0.6421761399622599</v>
+        <v>0.6425024969139231</v>
       </c>
       <c r="DH6">
-        <v>0.6432834276414112</v>
+        <v>0.6436007610594232</v>
       </c>
       <c r="DI6">
-        <v>0.657272242378022</v>
+        <v>0.6576029927941971</v>
       </c>
       <c r="DJ6">
-        <v>0.6579427386653974</v>
+        <v>0.6582637046264033</v>
       </c>
       <c r="DK6">
-        <v>0.677671773293928</v>
+        <v>0.6780161561224085</v>
       </c>
       <c r="DL6">
-        <v>0.6961016389469201</v>
+        <v>0.6964671753985721</v>
       </c>
       <c r="DM6">
-        <v>0.7130612036275958</v>
+        <v>0.7134453323340662</v>
       </c>
       <c r="DN6">
-        <v>0.713062095910829</v>
+        <v>0.7134453323340662</v>
       </c>
       <c r="DO6">
-        <v>0.7262381826627422</v>
+        <v>0.726633420254473</v>
       </c>
       <c r="DP6">
-        <v>0.7263317516359804</v>
+        <v>0.7267161997243291</v>
       </c>
       <c r="DQ6">
-        <v>0.739931056379925</v>
+        <v>0.7403282429124624</v>
       </c>
       <c r="DR6">
-        <v>0.7402882317731998</v>
+        <v>0.7406750880233953</v>
       </c>
       <c r="DS6">
-        <v>0.740836804162871</v>
+        <v>0.7412136635578384</v>
       </c>
       <c r="DT6">
-        <v>0.7567299858636252</v>
+        <v>0.7571235797987874</v>
       </c>
       <c r="DU6">
-        <v>0.759094593619103</v>
+        <v>0.7594813543611728</v>
       </c>
       <c r="DV6">
-        <v>0.7632836145402297</v>
+        <v>0.7636667203460632</v>
       </c>
       <c r="DW6">
-        <v>0.7633396728891743</v>
+        <v>0.7637119238454633</v>
       </c>
       <c r="DX6">
-        <v>0.7688758817849354</v>
+        <v>0.7692468247017861</v>
       </c>
       <c r="DY6">
-        <v>0.7706012125524498</v>
+        <v>0.7709642086104508</v>
       </c>
       <c r="DZ6">
-        <v>0.7795373223841957</v>
+        <v>0.7799049332708142</v>
       </c>
       <c r="EA6">
-        <v>0.7807686141610123</v>
+        <v>0.7811274175378939</v>
       </c>
       <c r="EB6">
-        <v>0.7887314630110832</v>
+        <v>0.7890931857270705</v>
       </c>
       <c r="EC6">
-        <v>0.790438458078943</v>
+        <v>0.790792201993994</v>
       </c>
       <c r="ED6">
-        <v>0.7926982247363948</v>
+        <v>0.7930449528177407</v>
       </c>
       <c r="EE6">
-        <v>0.8000078192987656</v>
+        <v>0.8003563287040144</v>
       </c>
       <c r="EF6">
-        <v>0.8000568866428418</v>
+        <v>0.8003945290197209</v>
       </c>
       <c r="EG6">
-        <v>0.8013380597187192</v>
+        <v>0.8016669814826146</v>
       </c>
       <c r="EH6">
-        <v>0.8192154693821132</v>
+        <v>0.8195645823517467</v>
       </c>
       <c r="EI6">
-        <v>0.8223778838225695</v>
+        <v>0.8227215534348199</v>
       </c>
       <c r="EJ6">
-        <v>0.8296419762857971</v>
+        <v>0.8299873479540733</v>
       </c>
       <c r="EK6">
-        <v>0.837624533135497</v>
+        <v>0.837972858475609</v>
       </c>
       <c r="EL6">
-        <v>0.8477937729440248</v>
+        <v>0.8481488613124477</v>
       </c>
       <c r="EM6">
-        <v>0.8598723977166016</v>
+        <v>0.8602375753970781</v>
       </c>
       <c r="EN6">
-        <v>0.8601644681811024</v>
+        <v>0.8605192021618433</v>
       </c>
       <c r="EO6">
-        <v>0.8610524128643836</v>
+        <v>0.8613977412004507</v>
       </c>
       <c r="EP6">
-        <v>0.8612641917103961</v>
+        <v>0.8615989364730456</v>
       </c>
       <c r="EQ6">
-        <v>0.8629987017777379</v>
+        <v>0.8633255156725275</v>
       </c>
       <c r="ER6">
-        <v>0.8757638495373884</v>
+        <v>0.8761019487158632</v>
       </c>
       <c r="ES6">
-        <v>0.8794121191686967</v>
+        <v>0.879745621383917</v>
       </c>
       <c r="ET6">
-        <v>0.8794951204271338</v>
+        <v>0.879817814729265</v>
       </c>
       <c r="EU6">
-        <v>0.8795330734364193</v>
+        <v>0.8798448813482229</v>
       </c>
       <c r="EV6">
-        <v>0.8846275498404976</v>
+        <v>0.8849372801835991</v>
       </c>
       <c r="EW6">
-        <v>0.8848967350054293</v>
+        <v>0.8851959817809836</v>
       </c>
       <c r="EX6">
-        <v>0.8883699274400341</v>
+        <v>0.8886642722554662</v>
       </c>
       <c r="EY6">
-        <v>0.8897887766133191</v>
+        <v>0.8900746406572734</v>
       </c>
       <c r="EZ6">
-        <v>0.8927910450567907</v>
+        <v>0.893071186757701</v>
       </c>
       <c r="FA6">
-        <v>0.8931556663899255</v>
+        <v>0.8934254907798481</v>
       </c>
       <c r="FB6">
-        <v>0.896698502323219</v>
+        <v>0.8969635460769232</v>
       </c>
       <c r="FC6">
-        <v>0.9022924692178926</v>
+        <v>0.9025563055506803</v>
       </c>
       <c r="FD6">
-        <v>0.9042550186809406</v>
+        <v>0.9045113214066351</v>
       </c>
       <c r="FE6">
-        <v>0.9042730067646019</v>
+        <v>0.9045183883196555</v>
       </c>
       <c r="FF6">
-        <v>0.9259404533566349</v>
+        <v>0.9262126286299932</v>
       </c>
       <c r="FG6">
-        <v>0.9397610330964132</v>
+        <v>0.9400463322906635</v>
       </c>
       <c r="FH6">
-        <v>0.939778893533077</v>
+        <v>0.9400532713343162</v>
       </c>
       <c r="FI6">
-        <v>0.9402177667448136</v>
+        <v>0.9404819565870928</v>
       </c>
       <c r="FJ6">
-        <v>0.9406213755972143</v>
+        <v>0.9408753160475236</v>
       </c>
       <c r="FK6">
-        <v>0.9407666980344781</v>
+        <v>0.9410099391396024</v>
       </c>
       <c r="FL6">
-        <v>0.9454894635455552</v>
+        <v>0.9457299795352941</v>
       </c>
       <c r="FM6">
-        <v>0.9476969639039912</v>
+        <v>0.9479303730084329</v>
       </c>
       <c r="FN6">
-        <v>0.9487638139839039</v>
+        <v>0.9489881291095346</v>
       </c>
       <c r="FO6">
-        <v>0.9500206279602399</v>
+        <v>0.9502361800376116</v>
       </c>
       <c r="FP6">
-        <v>0.9520153646226819</v>
+        <v>0.9522234391653397</v>
       </c>
       <c r="FQ6">
-        <v>0.9520443838081355</v>
+        <v>0.9522415563971124</v>
       </c>
       <c r="FR6">
-        <v>0.9535353109800635</v>
+        <v>0.9537241283625373</v>
       </c>
       <c r="FS6">
-        <v>0.9543909244639536</v>
+        <v>0.9545702798785158</v>
       </c>
       <c r="FT6">
-        <v>0.9554885215432873</v>
+        <v>0.9556588365424877</v>
       </c>
       <c r="FU6">
-        <v>0.9559111261353302</v>
+        <v>0.9560712248344838</v>
       </c>
       <c r="FV6">
-        <v>0.9601510363554988</v>
+        <v>0.9603075687711766</v>
       </c>
       <c r="FW6">
-        <v>0.9632476717971936</v>
+        <v>0.9633986462638171</v>
       </c>
       <c r="FX6">
-        <v>0.9639617944837477</v>
+        <v>0.9641030604954769</v>
       </c>
       <c r="FY6">
-        <v>0.9649905835643772</v>
+        <v>0.9651226892923407</v>
       </c>
       <c r="FZ6">
-        <v>0.9676851058136432</v>
+        <v>0.9678109530829119</v>
       </c>
       <c r="GA6">
-        <v>0.9677749217919521</v>
+        <v>0.9678899730198559</v>
       </c>
       <c r="GB6">
-        <v>0.9691790453655145</v>
+        <v>0.9692855901689035</v>
       </c>
       <c r="GC6">
-        <v>0.9691791519855525</v>
+        <v>0.9692855901689035</v>
       </c>
       <c r="GD6">
-        <v>0.9737532588994287</v>
+        <v>0.9738567129935968</v>
       </c>
       <c r="GE6">
-        <v>0.9796650647881179</v>
+        <v>0.9797678651593918</v>
       </c>
       <c r="GF6">
-        <v>0.980000186451808</v>
+        <v>0.9800926181215823</v>
       </c>
       <c r="GG6">
-        <v>0.980006029045198</v>
+        <v>0.9800926181215823</v>
       </c>
       <c r="GH6">
-        <v>0.980922664027939</v>
+        <v>0.9809998974401817</v>
       </c>
       <c r="GI6">
-        <v>0.9816765470537445</v>
+        <v>0.9817441412764178</v>
       </c>
       <c r="GJ6">
-        <v>0.9816774878249868</v>
+        <v>0.9817441412764178</v>
       </c>
       <c r="GK6">
-        <v>0.9819288342202542</v>
+        <v>0.981984973027739</v>
       </c>
       <c r="GL6">
-        <v>0.9831192109978412</v>
+        <v>0.9831664710187648</v>
       </c>
       <c r="GM6">
-        <v>0.9835143843104006</v>
+        <v>0.983551380244047</v>
       </c>
       <c r="GN6">
-        <v>0.9883350356196346</v>
+        <v>0.9883694769618839</v>
       </c>
       <c r="GO6">
-        <v>0.9936118831202791</v>
+        <v>0.9936445645971836</v>
       </c>
       <c r="GP6">
-        <v>0.993802291856694</v>
+        <v>0.9938243525319376</v>
       </c>
       <c r="GQ6">
-        <v>0.9947946607380092</v>
+        <v>0.9948074976829223</v>
       </c>
       <c r="GR6">
-        <v>0.9990824520572762</v>
+        <v>0.9990918061309769</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>0.001424441565985998</v>
+        <v>0.0007134842603314454</v>
       </c>
       <c r="F2">
-        <v>0.5045657916283222</v>
+        <v>0.5047847777031947</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
       <c r="E3">
-        <v>0.001372913725065856</v>
+        <v>0.001136891145732735</v>
       </c>
       <c r="F3">
-        <v>0.5179292841918973</v>
+        <v>0.5179856993973332</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>99</v>
       </c>
       <c r="E4">
-        <v>0.001350453340344121</v>
+        <v>0.001309346086075377</v>
       </c>
       <c r="F4">
-        <v>0.5132167280955345</v>
+        <v>0.5132260138750901</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>95</v>
       </c>
       <c r="E5">
-        <v>0.001884271757899121</v>
+        <v>0.001638687173292105</v>
       </c>
       <c r="F5">
-        <v>0.5319353490197221</v>
+        <v>0.5319877070455908</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>96</v>
       </c>
       <c r="E6">
-        <v>0.001077945496345049</v>
+        <v>0.0005112810096517422</v>
       </c>
       <c r="F6">
-        <v>0.5227675702305519</v>
+        <v>0.5230392441028722</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>115</v>
       </c>
       <c r="E2">
-        <v>0.001424441565985998</v>
+        <v>0.0007134842603314454</v>
       </c>
       <c r="F2">
-        <v>0.7074288995215805</v>
+        <v>0.7078302914724042</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>115</v>
       </c>
       <c r="E3">
-        <v>0.001372913725065856</v>
+        <v>0.001136891145732735</v>
       </c>
       <c r="F3">
-        <v>0.7008623218066321</v>
+        <v>0.7009645524745786</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.001350453340344121</v>
+        <v>0.001309346086075377</v>
       </c>
       <c r="F4">
-        <v>0.717089211170772</v>
+        <v>0.7171231833899453</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>115</v>
       </c>
       <c r="E5">
-        <v>0.001884271757899121</v>
+        <v>0.001638687173292105</v>
       </c>
       <c r="F5">
-        <v>0.7020081676479972</v>
+        <v>0.7021074916691513</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>116</v>
       </c>
       <c r="E6">
-        <v>0.001077945496345049</v>
+        <v>0.0005112810096517422</v>
       </c>
       <c r="F6">
-        <v>0.7130612036275958</v>
+        <v>0.7134453323340662</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>125</v>
       </c>
       <c r="E2">
-        <v>0.001424441565985998</v>
+        <v>0.0007134842603314454</v>
       </c>
       <c r="F2">
-        <v>0.8036978041431254</v>
+        <v>0.804179613957806</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>129</v>
       </c>
       <c r="E3">
-        <v>0.001372913725065856</v>
+        <v>0.001136891145732735</v>
       </c>
       <c r="F3">
-        <v>0.8072857066894966</v>
+        <v>0.8074096429572295</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>125</v>
       </c>
       <c r="E4">
-        <v>0.001350453340344121</v>
+        <v>0.001309346086075377</v>
       </c>
       <c r="F4">
-        <v>0.8022581302203633</v>
+        <v>0.8022974589990269</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.001884271757899121</v>
+        <v>0.001638687173292105</v>
       </c>
       <c r="F5">
-        <v>0.8011692799138505</v>
+        <v>0.8012730865141987</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>134</v>
       </c>
       <c r="E6">
-        <v>0.001077945496345049</v>
+        <v>0.0005112810096517422</v>
       </c>
       <c r="F6">
-        <v>0.8000078192987656</v>
+        <v>0.8003563287040144</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.001424441565985998</v>
+        <v>0.0007134842603314454</v>
       </c>
       <c r="F2">
-        <v>0.9004953389909515</v>
+        <v>0.9008051226483422</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>0.001372913725065856</v>
+        <v>0.001136891145732735</v>
       </c>
       <c r="F3">
-        <v>0.9025655383137496</v>
+        <v>0.9026480281185172</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.001350453340344121</v>
+        <v>0.001309346086075377</v>
       </c>
       <c r="F4">
-        <v>0.9002576088061839</v>
+        <v>0.900282870241309</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5">
-        <v>0.001884271757899121</v>
+        <v>0.001638687173292105</v>
       </c>
       <c r="F5">
-        <v>0.9003311215977426</v>
+        <v>0.9004044131925487</v>
       </c>
       <c r="G5">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>0.001077945496345049</v>
+        <v>0.0005112810096517422</v>
       </c>
       <c r="F6">
-        <v>0.9022924692178926</v>
+        <v>0.9025563055506803</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>63</v>

--- a/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>9.241725950111762E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.05898162737528E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2039,49 +2039,49 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>6.449163378309842E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>7.755594857000815E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.424811282360623E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2.238739433243244E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>3.703836677718067E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4.921336262746002E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>5.246756656924041E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>6.177052516922884E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>4.776200702978592E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>3.599833365118036E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>3.369896522648916E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.096515212795977E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.212517198395306E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>8.089157224507519E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>6.129512010649111E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -2099,28 +2099,28 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>8.856681258942299E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.697191434992996E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.846391617467989E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.887754345111132E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.027663700933239E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>8.686392262556702E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.457155027848994E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.743454527590628E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -2138,31 +2138,31 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.668691671697518E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.959969690284721E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1.692956656186079E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.876559407358702E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>2.55210239164498E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.831552052007011E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.380466517325176E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>6.610031735770792E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>6.288989468543265E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
         <v>0</v>
@@ -2186,22 +2186,22 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.882437260744132E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>3.90123178139609E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.445321689103076E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1.05898162737528E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>6.375396598907645E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>4.050651271745659E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
@@ -2249,349 +2249,349 @@
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>4.119615038450714E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>4.421176695030951E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1.399475244250559E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.361527134960328E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>2.304740824372398E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.038589658522758</v>
+        <v>0.0225733315577038</v>
       </c>
       <c r="CO2">
-        <v>0.08278831213608551</v>
+        <v>0.1394142150779783</v>
       </c>
       <c r="CP2">
-        <v>0.281834036814419</v>
+        <v>0.6655994363702632</v>
       </c>
       <c r="CQ2">
-        <v>0.08269668111563346</v>
+        <v>0.1391719848625255</v>
       </c>
       <c r="CR2">
-        <v>0.01816260485396735</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01651700331758542</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0002595977697184233</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.01173310045815126</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.008388639359972184</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.0006410765471339822</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.008284550368760508</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.01226261331779745</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.04118977290356304</v>
+        <v>0.02944683644237356</v>
       </c>
       <c r="DA2">
-        <v>0.002126117066758964</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>5.232978433873894E-05</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0002525976467711528</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.00312432359810642</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0004155422425040256</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.001842077738453228</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.02369669560770265</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.00392145575571142</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.02004973289343782</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0007876746558334753</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.0314858734742005</v>
+        <v>0.003794195689155651</v>
       </c>
       <c r="DL2">
-        <v>0.01601473926270882</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.02019794186024511</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.00289270535046214</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.02424547362885573</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.003140094876018522</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.01487656354177158</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0002297264578866648</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.000522162500572126</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.02041594632764825</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.003466461242236223</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.006362246699705464</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>3.770455556104465E-05</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.003790477008227827</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.001021492188261068</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.009304669981654697</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0001599756705031043</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.004467945706993574</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.00141332412860622</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.0008439711153815704</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.003770858810757399</v>
+        <v>0</v>
       </c>
       <c r="EF2">
         <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001015504906754103</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0118343815959147</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.003097225006481679</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.006060757494161737</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.005916284315239898</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.007150605467687105</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.009105771343603464</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0001183325383089664</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0001179069310582403</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>3.915181662296233E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.002711742803243858</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.01003494135658265</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0005448141417721123</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0005173967154822651</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0005554273969081613</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.003962596921471121</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.0009300698428275969</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.002319086945302297</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.002624841943616827</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.001416142303571413</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0001361364034950608</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001605971334483481</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0007454813968063566</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.00098646536889671</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.001081088927804316</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.01216552191424781</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.007437547046227237</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>1.249352287405396E-05</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.001339661265835923</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001084223963319235</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0007419332601117437</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.004833491048450995</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.001891455675163363</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.000689611676869586</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.001374164493684684</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.002804010050017924</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>4.463025035015642E-05</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.002231673116303335</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.0001356826275218401</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0009364235983119191</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>1.939012601667902E-05</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.007891785583741923</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.003113887041328161</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0009375727439014138</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0007085111259867853</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.003334546643812122</v>
+        <v>0</v>
       </c>
       <c r="GA2">
         <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001386691909213744</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0005531724961839576</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.009917361240826506</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.006056282164575792</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.000130977999925179</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>3.072079672755349E-05</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.002166773421848339</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>5.812645448389038E-06</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.00124008017210351</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0006259126353799734</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0003521629275387506</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.003624416226274596</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.009452873938016857</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.001960422448135492</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>9.152917213189921E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001710446831432123</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.003117099939160328</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0002308879191502775</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>8.106182922444415E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.442411190816283E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.917731229967776E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.687739912809777E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.631902629922839E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.385915563094007E-07</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2794,100 +2794,100 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.063535389392789E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.749537296166837E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.867654246318567E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>8.156627239091614E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.122879050862151E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.147522962405913E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>4.715788727696187E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>5.764223746228075E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.294167402067233E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.210451505001978E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>6.662959811256383E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>7.665338296296023E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>3.948126282189625E-07</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.324971844838423E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.512667592321092E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>6.496970204650594E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.818112311174285E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.058255056471958E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>5.782616812883582E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.036604923871326E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.559881247020728E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.472191218303772E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.277987624793957E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.602934255387877E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.70525595767274E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.70741552385294E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.330462107291996E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2908,34 +2908,34 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>5.323060598042309E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>5.908332633973202E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>6.733844453127781E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>8.36127772815501E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>5.908332633973202E-07</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>8.36127772815501E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1.771157038489424E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1.764897688206228E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -2944,37 +2944,37 @@
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>2.529541098749856E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>2.059836967121748E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>8.898173279056809E-06</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1.886738271246403E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>9.362459774297794E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1.080646770329292E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>3.371932324450819E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>3.293228082635523E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>2.653493821512601E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>2.340032994446226E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>2.231032735977383E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2989,34 +2989,34 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>8.249054545396972E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1.136997893642547E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>3.122879050862151E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>8.701149307465802E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.507161907334662E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>2.534449612202147E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>9.045817929523418E-06</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.302062213342208E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -3028,343 +3028,343 @@
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>2.331621639154053E-06</v>
+        <v>0</v>
       </c>
       <c r="CL3">
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>1.378859425535528E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.0392256084464526</v>
+        <v>0.02451691777224471</v>
       </c>
       <c r="CO3">
-        <v>0.107461910485493</v>
+        <v>0.2061595707981917</v>
       </c>
       <c r="CP3">
-        <v>0.2311925023514149</v>
+        <v>0.5355260853279227</v>
       </c>
       <c r="CQ3">
-        <v>0.1171824862114409</v>
+        <v>0.2320354039110498</v>
       </c>
       <c r="CR3">
-        <v>0.02178630075679906</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.02149814598126944</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0002548709689317371</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.01270457625186501</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.0020347818399454</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.005446518091883143</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.001375054177080226</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.002095653250460443</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.02525867527136699</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.001979164161853789</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.002535304019349503</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.001673623458493172</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.004498266019030557</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.0001167331986447659</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.00148503253595461</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.02635318751651669</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.00191675577644114</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.02342041526971126</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.0009532424834519402</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.03067745138141161</v>
+        <v>0.001762022190591131</v>
       </c>
       <c r="DL3">
-        <v>0.01670140142358374</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.02118339233417201</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0005066419463500943</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.02957262259251559</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0003177291196288761</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.01847278700703841</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>6.445951163457698E-05</v>
+        <v>0</v>
       </c>
       <c r="DS3">
         <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.01492164252896816</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.00266859046245723</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.006131211390360491</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.0001197153201936547</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.003054515153089599</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001113656173273927</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.008318126942968379</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0002430869743867118</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.003108399431692196</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.001587855456160184</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.00174074913606714</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.005968670691384308</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>3.136745646393432E-05</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.001311566407017806</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0109756706132854</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.001171111917244062</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.007431867491811023</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.002833035369265539</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.009234560233282537</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.006475970469794893</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0007253781899565386</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0002037830540525127</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>6.84788110616344E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.00375288072383969</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.01693969357142936</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.001877308255021293</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0005411212164261229</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>9.868687872945789E-06</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.002384644356471451</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0002601447640808838</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.002872672911214719</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>8.460386912751548E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.001796095241901452</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0001504095094066122</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.00654710999333681</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.004910280358232442</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001950200390238442</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.0007509086538372353</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.01685363398414509</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.009646934800976052</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>1.602934255387877E-05</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0002592338763080713</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0001867581852399366</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0007682941113699295</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.003697070823822408</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002777674754228091</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.001995184823701528</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001432952902031591</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.003586704018557887</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0003032689175751288</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0006732217072886392</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>3.02202938228293E-05</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.001897179859507989</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.000447475747444594</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.004465473919120448</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.003654935097283799</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.001092244091668179</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.002158937891678974</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001685301065557004</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>5.257477318806015E-05</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0004440162831189122</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>1.867654246318567E-06</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.005482048028393082</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.007984220647415451</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001345287763151768</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>2.529541098749856E-05</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.002137316077040324</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.001970046878794193</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0002314378453864127</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0002415515404665419</v>
+        <v>0</v>
       </c>
       <c r="GL3">
         <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.001290673354630409</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.006868742603735731</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.001465300119754541</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0001058926125002694</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.00449231224257173</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.003007761597478746</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001086546177501877</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,58 +3540,58 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.036693134786144E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.402495138516967E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.183421661881379E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4.080845878774537E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3.628918179228127E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.934228390812245E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.349049541795448E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.066498797961684E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.77123998552327E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.810415843891606E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.209697067831256E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.600254229776033E-07</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>8.840899947615597E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.946342992363161E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>5.04578926570338E-07</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3603,52 +3603,52 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.122925693669638E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.200474751448112E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.379258007599023E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1.432445990921913E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2.031616250314758E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>6.337466078764343E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.611774505055455E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.237819847253101E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>3.362088136333496E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>3.512041122951558E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>4.622534444520144E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>2.111416653948693E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>7.292957393809372E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -3657,487 +3657,487 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>7.23533939316796E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>9.832875397961407E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.073409126956147E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>4.228887396846279E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.678032026663483E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>3.585387148363504E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>9.832875397961407E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.94103399049476E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>2.982861034378812E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>5.260858357883979E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>3.015006690489242E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>5.326868440489305E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>6.057931809930857E-06</v>
+        <v>0</v>
       </c>
       <c r="BC4">
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>2.832643885446172E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>3.078648704123315E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>8.345702779004136E-07</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>3.970902905720508E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>3.537309527094281E-07</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>2.129497824735145E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1.392467273555763E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>3.047260988114984E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>2.620947261147505E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>3.008961103224018E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1.922354112092935E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>9.761893340708589E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>4.988620253979521E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1.353015260497884E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.299327318163323E-08</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>4.205131782295683E-07</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.583819958950457E-06</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>4.037755435163604E-06</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>2.578778009969082E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>3.22450968036159E-06</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.270992216693349E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>2.456147124206863E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>5.697824494449582E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>2.010006570744107E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>2.490891805026907E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>1.335174027228544E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>3.808937420152875E-06</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>7.132680652679881E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>3.537309527094281E-07</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>1.984438307217374E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1.044733708566143E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>1.815959441743085E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>2.127552549493763E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0004162903070341679</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1929707890082627</v>
+        <v>0.379378359218389</v>
       </c>
       <c r="CO4">
-        <v>0.0407000533842909</v>
+        <v>0.02489791540252582</v>
       </c>
       <c r="CP4">
-        <v>0.2341481837599107</v>
+        <v>0.4752377579855362</v>
       </c>
       <c r="CQ4">
         <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01231317566054429</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.0006285963020123135</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.004382316036881089</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.0001532787403487475</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.02620398458972984</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.008266577274126833</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.010287024402514</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.06622094753001448</v>
+        <v>0.08430958006863883</v>
       </c>
       <c r="CZ4">
-        <v>0.02545615949080336</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0001140688552417726</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0001338016731196284</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.001429803122629535</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.001393322297984394</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>9.644609523877354E-05</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.04322998641102276</v>
+        <v>0.03078750264636084</v>
       </c>
       <c r="DG4">
-        <v>0.003999195363845442</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.005341793051252113</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.004543766010356953</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.001064530184150741</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.03231974775255429</v>
+        <v>0.005388884678549301</v>
       </c>
       <c r="DL4">
-        <v>0.0006366664102126986</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0111318097033927</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.01599912362392371</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.005721874322366051</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01644197732646008</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0103796457452006</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0009749163370671385</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.002735269556580452</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01262262694412913</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0001326123875940892</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.008397753252155055</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.002171744256298334</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.00171024066034596</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.003814479182740898</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.007923740378871353</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.00898459847070268</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.001589320413357828</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.001402279771918266</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.003802590228258014</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.00175296452135905</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.002245724907391247</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.000622917327350876</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.00859962623098365</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0001561095609631139</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.01157290205711239</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0004767900883820562</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.01239444475503707</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.001810749064982552</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0006519895848068983</v>
+        <v>0</v>
       </c>
       <c r="EO4">
         <v>0</v>
       </c>
       <c r="EP4">
-        <v>9.988033125323847E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.002466593148032447</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.006468517187163444</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0001099329061603861</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>8.988841245839849E-06</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.002275011207236123</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.004987737934345361</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.001842929738027718</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0002170007698291214</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0002938370264447922</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0008051910547530521</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>4.62894062319672E-05</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.006770182528824054</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0006904595033712515</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0007906846919198644</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.01063345400926835</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.02529466250801779</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.002849859549928167</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0002956022660319994</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.0008534961610733048</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.001003587415073774</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.002178128020535965</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.003888806302448291</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.004291346321281931</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.001492109261707647</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.002213407207209293</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0009270246526207568</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.000779528212495992</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0004990083584776856</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>5.004014802708621E-05</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0005938889785905106</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0007241491752578289</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.004790055785466733</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0005531926691127613</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.004587695910213402</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0001211491574214446</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.00263485667086038</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0009809431306104619</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0001259726126562224</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002017294269096418</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.006047320473566856</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.001666646126905317</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0002835699031485838</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0005467676467043829</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0008488718752819488</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0003557552887079653</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>3.29453235761925E-05</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0003099135902398305</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0005569281588873773</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.003520279019480664</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.005077551721024906</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0006363466868948449</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>1.183595858760242E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.003106826839607848</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.000655491528330126</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0001996766689724374</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,31 +4313,31 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.655051884173488E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.972179188388975E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.250122046672375E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.201350783260955E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7.159050266341699E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3.292935012440353E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3.877610843852282E-06</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.996907890658279E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.44819462829077E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4349,94 +4349,94 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.110867026060934E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.343425016521146E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.366949611936189E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001895393255950341</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4.141009029641977E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>4.709572625656382E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>4.884930376052619E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>7.025174812915322E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.785497114877497E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4.266750817069153E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>5.971657706866613E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.629973217863534E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>2.508777275064031E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.466724756214204E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>4.465128375197919E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>3.039174229242089E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>3.942247932628595E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>3.379322018006154E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>5.134258468379165E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>3.689673318227595E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.422896558115592E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>5.266835643181426E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>2.657866064014187E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0001056917717096444</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>6.143542764319391E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>5.862993025800356E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.083789104038095E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.894744859100721E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4448,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>3.631769453194436E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>5.040568714345564E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -4460,28 +4460,28 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>5.09295634362836E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>3.975646034411819E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>3.53887916710407E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.083866208783368E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>4.309186247691902E-06</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>5.601584209075815E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -4490,40 +4490,40 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>6.701367201520908E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>8.10488137088814E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>6.588532923449182E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>6.21043835979142E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>2.815916104419584E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.048846140047829E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>3.422896558115592E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>4.035996623370529E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>4.372115372674446E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1.28637764166824E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>5.708706929742402E-06</v>
+        <v>0</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -4532,25 +4532,25 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>3.12979567219876E-06</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.790816698144182E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>8.522846697782809E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>5.075493036725029E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>7.208854286440879E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>2.966206481771004E-07</v>
+        <v>0</v>
       </c>
       <c r="CD5">
         <v>0</v>
@@ -4559,358 +4559,358 @@
         <v>0</v>
       </c>
       <c r="CF5">
-        <v>2.569402965367765E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>3.727647740341179E-06</v>
+        <v>0</v>
       </c>
       <c r="CH5">
         <v>0</v>
       </c>
       <c r="CI5">
-        <v>2.705444297797321E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.278201849430996E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>3.039174229242089E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>2.288579326251585E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>4.154611501850369E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1111990164222989</v>
+        <v>0.2038979843201993</v>
       </c>
       <c r="CO5">
-        <v>0.01208778065523793</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.3415690308374374</v>
+        <v>0.7824867787422204</v>
       </c>
       <c r="CQ5">
-        <v>0.03313694198389797</v>
+        <v>0.007840169877364205</v>
       </c>
       <c r="CR5">
-        <v>0.03231470385840786</v>
+        <v>0.005775067060216115</v>
       </c>
       <c r="CS5">
-        <v>0.009986307766973688</v>
+        <v>0</v>
       </c>
       <c r="CT5">
         <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01862258981720336</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.002963561696784448</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.003278103106787604</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.002689895745786204</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.02201452145902896</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.02536876962995798</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>6.662870153893537E-05</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0003713693872268234</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.001166085150598675</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.0008123274549956099</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.001454339487875262</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.008384628171602758</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01709912793921199</v>
+        <v>0</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0167626733807516</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
         <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.02918289623307761</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.009895959494159204</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.01870256062648442</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.002288237675756871</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.01343814972353616</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.004832455124494877</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.007059450793779632</v>
+        <v>0</v>
       </c>
       <c r="DR5">
         <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.003525464874402019</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.01554912553062953</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0001730809446030517</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.009251032805906043</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.001772605217545891</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.0004146220068302383</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>2.380453279325763E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.01064490847199629</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.004023534893966126</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.00333049613943585</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.004136065482887107</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.005637869071158289</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.004781970680598308</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>6.46369586952919E-07</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.006469210166371917</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.009694936788518089</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.0003520177141673229</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.005612288838682419</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.003049563462406138</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.01398891776570946</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.005329128073903228</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.002443301356127992</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>1.611636797147138E-07</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>3.918955194903455E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.006984794294480815</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.01143476592940492</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0001188792154203255</v>
+        <v>0</v>
       </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.001801247056923043</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.002234710536738095</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.003886803031444543</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0003420142335666652</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.003227278751179309</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.001023307322387998</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>2.422599199628958E-06</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.004046175495512629</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.002984109194655395</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.0007606961267698438</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.002920192484562104</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.02070024687193576</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.006253201426780278</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>3.592419814536472E-06</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>9.285784818663617E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0002987223895325773</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.002105172755001376</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.004716710934003758</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.001437291369569357</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0007008570864257498</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.003345798770576806</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.003205041700982051</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0003440035025694934</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.001462512578429782</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0002088022133552077</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.001989026714220505</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0002228154113814143</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.005729217967204226</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.000752416750015679</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.003225253689883491</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.000151094610562667</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.00193621732224565</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0009859806737357614</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.001561568174542057</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0005070603114069567</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.01116421341759135</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.002966608694586549</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0005187415970171879</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.00069196950085281</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.003332553520862043</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0001434727233214262</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0002088022133552077</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>4.782440340823022E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0006389349186197168</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.002892192745112577</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.005424328368767033</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0005551762500959771</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>3.356909828724695E-07</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.005684606481240031</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001430537763130979</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.001959825026145354</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.201971104729967E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.270158183590599E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5104,31 +5104,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.926729175282215E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.409063365264827E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.993448802211E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.135117151322919E-07</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.927094232570534E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.965462355597669E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.582945412274947E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.464800070200248E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2.337973037589341E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>6.472405157845862E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>9.901424299098551E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1.688111714161438E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>1.798003268040203E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.993448802211E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>6.939043652662284E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1.546672147580472E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>2.541045585307889E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>2.302701098896258E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>2.638980746751843E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -5287,28 +5287,28 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>7.974747765361162E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>1.055133350579653E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
         <v>0</v>
       </c>
       <c r="BT6">
-        <v>2.984714435396563E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>1.926729175282215E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>2.831970810804991E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>6.056705246369213E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
         <v>0</v>
@@ -5317,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="CA6">
-        <v>2.984714435396563E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>3.010197751455174E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
         <v>0</v>
@@ -5332,22 +5332,22 @@
         <v>0</v>
       </c>
       <c r="CF6">
-        <v>7.365324965433291E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>1.905986052526153E-06</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>1.045628421294283E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>5.848264763691285E-06</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>1.905986052526153E-06</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
@@ -5356,334 +5356,334 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02736861717907671</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1109635706795445</v>
+        <v>0.2226183562416228</v>
       </c>
       <c r="CP6">
-        <v>0.2135932800477109</v>
+        <v>0.5049542289772593</v>
       </c>
       <c r="CQ6">
-        <v>0.1075688111164673</v>
+        <v>0.2132793216689851</v>
       </c>
       <c r="CR6">
-        <v>0.03565507952308673</v>
+        <v>0.01544356537489929</v>
       </c>
       <c r="CS6">
-        <v>0.02737860454733428</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0001360831110846296</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.04592800136475025</v>
+        <v>0.04370452773723355</v>
       </c>
       <c r="CV6">
-        <v>0.00185203657266976</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.01856732253013274</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.001966647183093779</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.0008482024225511439</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.01956336066280202</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.001429774649707849</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0008570703039960204</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.0002868112106329117</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.00112658339330769</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>2.719324917067387E-05</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.006836461599669623</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.02003770455748176</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.001098264145500113</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.01400223173477386</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.000660711832206214</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0197524514960052</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0184510192761636</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.01697815693549404</v>
+        <v>0</v>
       </c>
       <c r="DN6">
         <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01318808792040681</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>8.277946985610635E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.01361204318813328</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0003468451109330245</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0005385755344429936</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.01590991624094903</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002357774562385417</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.004185365984890356</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>4.520349940007187E-05</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.005534900856322762</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.001717383908664708</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.008940724660363407</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.001222484267079722</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.007965768189176626</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001699016266923449</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.002252750823746614</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.007311375886273716</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>3.820031570643867E-05</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.001272452462893804</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.01789760086913202</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.003156971083073258</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.007265794519253371</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.007985510521535726</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01017600283683873</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0120887140846304</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0002816267647651802</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0008785390386073862</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0002011952725949711</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.001726579199481832</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.01277643304333579</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0036436726680538</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>7.219334534797585E-05</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>2.706661895789157E-05</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.005092398835376157</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0002587015973845384</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.003468290474482639</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.001410368401807167</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.002996546100427619</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0003543040221470446</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.003538055297075033</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.005592759473757145</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.001955015855954813</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>7.066913020362806E-06</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.02169424031033775</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0138337036606703</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>6.939043652662284E-06</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0004286852527766334</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.000393359460430839</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0001346230920788077</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.004720040395691774</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.00220039347313872</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.00105775610110168</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.001248050928077053</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.001987259127728144</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>1.811723177270305E-05</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.001482571965424943</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0008461515159785806</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.001088556663971846</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0004123882919960425</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.004236343936692765</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.003091077492640482</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0007044142316597859</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001019628796863824</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.002688263790571228</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>7.901993694398757E-05</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001395617149047518</v>
+        <v>0</v>
       </c>
       <c r="GC6">
         <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.004571122824693278</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.005911152165795084</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0003247529621904919</v>
+        <v>0</v>
       </c>
       <c r="GG6">
         <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0009072793185993821</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0007442438362361396</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0002408317513211365</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.001181497991025707</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0003849092252822458</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.004818096717836907</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.005275087635299765</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0001797879347539672</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.000983145150984747</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.004284308448054611</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0009081938690230966</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6657,760 +6657,760 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>9.241725950111762E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.983154222386455E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.432317600696298E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.618791245769711E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2.361272374005774E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>4.600011807249017E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>8.303848484967084E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001322518474771308</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001847194140463713</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002464899392156001</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.000294251946245386</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0003302502798965664</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0003639492451230555</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003949143972510153</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0004070395692349683</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0004151287264594759</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.000421258238470125</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.000421258238470125</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.000421258238470125</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.000421258238470125</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.000421258238470125</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.000421258238470125</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0004301149197290673</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0004368121111640602</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0004552760273387401</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0004741535707898514</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0004831812344907847</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0004918676267533414</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0004953247817811904</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.000497068236308781</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.000497068236308781</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.000497068236308781</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.000497068236308781</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.000497068236308781</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.000497068236308781</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0004987369279804784</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0005183366248833256</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0005352661914451864</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0005540317855187734</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0005795528094352232</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0006078683299552932</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.000621672995128545</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0006282830268643158</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.000634572016332859</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.000634572016332859</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.000634572016332859</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.000634572016332859</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.000634572016332859</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.000634572016332859</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.000634572016332859</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.000634572016332859</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0006364544535936032</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0006364544535936032</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0006403556853749993</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0006403556853749993</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0006428010070641024</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0006438599886914776</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0006438599886914776</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0006438599886914776</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0006438599886914776</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0006438599886914776</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0006502353852903853</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0006542860365621309</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0006584056516005817</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0006628268282956126</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0006768215807381182</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0006904368520877215</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0007134842603314454</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.03930314278308944</v>
+        <v>0.0225733315577038</v>
       </c>
       <c r="CO2">
-        <v>0.1220914549191749</v>
+        <v>0.1619875466356821</v>
       </c>
       <c r="CP2">
-        <v>0.4039254917335939</v>
+        <v>0.8275869830059452</v>
       </c>
       <c r="CQ2">
-        <v>0.4866221728492274</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="CR2">
-        <v>0.5047847777031947</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="CS2">
-        <v>0.5213017810207802</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="CT2">
-        <v>0.5215613787904986</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="CU2">
-        <v>0.5332944792486498</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="CV2">
-        <v>0.5416831186086219</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="CW2">
-        <v>0.5423241951557559</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="CX2">
-        <v>0.5506087455245164</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="CY2">
-        <v>0.5628713588423139</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="CZ2">
-        <v>0.6040611317458769</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DA2">
-        <v>0.6061872488126359</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DB2">
-        <v>0.6062395785969746</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DC2">
-        <v>0.6064921762437457</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DD2">
-        <v>0.6096164998418522</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DE2">
-        <v>0.6100320420843562</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DF2">
-        <v>0.6118741198228095</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DG2">
-        <v>0.6355708154305121</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DH2">
-        <v>0.6394922711862235</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DI2">
-        <v>0.6595420040796613</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DJ2">
-        <v>0.6603296787354949</v>
+        <v>0.9962058043108443</v>
       </c>
       <c r="DK2">
-        <v>0.6918155522096954</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.7078302914724042</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.7280282333326493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.7309209386831115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.7551664123119672</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.7583065071879858</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.7731830707297573</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.773412797187644</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.7739349596882161</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.7943509060158643</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.7978173672581006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.804179613957806</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.8042173185133671</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.808007795521595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.809029287709856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.8183339576915107</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.8184939333620138</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.8229618790690074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.8243752031976136</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.8252191743129952</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.8289900331237526</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.8289900331237526</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.8300055380305067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.8418399196264214</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.844937144632903</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.8509979021270647</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.8569141864423047</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.8640647919099917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.8731705632535952</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.8732888957919042</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.8734068027229624</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.8734459545395854</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.8761576973428292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.8861926386994119</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.886737452841184</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.8872548495566662</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.8878102769535744</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.8917728738750456</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8927029437178732</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8950220306631754</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.8976468726067922</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.8990630149103637</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.8991991513138587</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.9008051226483422</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.9015506040451485</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.9025370694140452</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.9036181583418496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.9157836802560974</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.9232212273023246</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.9232337208251986</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.9245733820910346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.9256576060543538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.9263995393144655</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.9312330303629165</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.9331244860380798</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.9338140977149494</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.935188262208634</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.937992272258652</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9380369025090022</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9402685756253055</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9404042582528274</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9413406818511393</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.941360071977156</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9492518575608979</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9523657446022261</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9533033173461275</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9540118284721143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9573463751159265</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9573463751159265</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9587330670251402</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9592862395213241</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9692036007621506</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9752598829267264</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9753908609266516</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9754215817233791</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9775883551452275</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9775941677906759</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9788342479627794</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9794601605981593</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.979812323525698</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9834367397519727</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9928896136899895</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9948500361381251</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.994941565310257</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9966520121416892</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9997691120808495</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>8.106182922444415E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.65485941132607E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.572590641293846E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.572590641293846E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.141364632574824E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5.773267262497663E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.837126418128603E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.837126418128603E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.837126418128603E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.143479957067881E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.143479957067881E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.118433686684564E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7.305199111316421E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.305199111316421E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0001546182635040803</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001858470540127019</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001889945769751078</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002361524642520696</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002937947017143504</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0003167363757350228</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0003288408907850426</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0003954704888976064</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0003954704888976064</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0004031358271939025</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0004031358271939025</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0004035306398221214</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004167803582705057</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0004519070341937166</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0004584040043983672</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0004632221167095414</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0005038046672742611</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0005616308354030969</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0006019968846418102</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0006175956971120174</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0006523176092950551</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0007150974855429946</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0007311268280968734</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0007311268280968734</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0007481793876736009</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0007752535429121302</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0007765840050194222</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0007765840050194222</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0007765840050194222</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0007765840050194222</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0007765840050194222</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0007765840050194222</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0007765840050194222</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0007819070656174646</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0007819070656174646</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0007824978988808618</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0007892317433339896</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0007975930210621446</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0007975930210621446</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0007981838543255419</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.000806545132053697</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0008083162890921864</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0008259652659742487</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0008259652659742487</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0008259652659742487</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0008512606769617472</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0008718590466329647</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0008807572199120216</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0008996246026244856</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0009089870623987834</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0009197935301020763</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0009535128533465845</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.00095680608142922</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.000983341019644346</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.001006741349588808</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001008972382324786</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001008972382324786</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001008972382324786</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001008972382324786</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001008972382324786</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001017221436870183</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001017221436870183</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001018358434763825</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001049587225272447</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.001058288374579913</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.001073359993653259</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.001098704489775281</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.001098704489775281</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.001107750307704804</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.001120770929838226</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.001120770929838226</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.001120770929838226</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.001120770929838226</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.00112310255147738</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.00112310255147738</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001136891145732735</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.04036249959218533</v>
+        <v>0.02451691777224471</v>
       </c>
       <c r="CO3">
-        <v>0.1478244100776784</v>
+        <v>0.2306764885704364</v>
       </c>
       <c r="CP3">
-        <v>0.3790169124290933</v>
+        <v>0.7662025738983591</v>
       </c>
       <c r="CQ3">
-        <v>0.4961993986405341</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="CR3">
-        <v>0.5179856993973332</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="CS3">
-        <v>0.5394838453786026</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="CT3">
-        <v>0.5397387163475343</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="CU3">
-        <v>0.5524432925993994</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="CV3">
-        <v>0.5544780744393448</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="CW3">
-        <v>0.5599245925312279</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="CX3">
-        <v>0.5612996467083081</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="CY3">
-        <v>0.5633952999587686</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="CZ3">
-        <v>0.5886539752301355</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DA3">
-        <v>0.5906331393919894</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DB3">
-        <v>0.5931684434113389</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DC3">
-        <v>0.5948420668698321</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DD3">
-        <v>0.5993403328888627</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DE3">
-        <v>0.5994570660875075</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DF3">
-        <v>0.600942098623462</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DG3">
-        <v>0.6272952861399788</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DH3">
-        <v>0.6292120419164199</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DI3">
-        <v>0.6526324571861312</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DJ3">
-        <v>0.6535856996695831</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="DK3">
-        <v>0.6842631510509948</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.7009645524745786</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.7221479448087506</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.7226545867551006</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.7522272093476162</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.7525449384672451</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7710177254742835</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7710821849859181</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7710821849859181</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7860038275148862</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7886724179773434</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7948036293677039</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.7949233446878975</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7979778598409871</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7990915160142611</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.8074096429572295</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.8076527299316162</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.8107611293633084</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.8123489848194685</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8140897339555356</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8200584046469199</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8200897721033839</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.8214013385104016</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8323770091236871</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8335481210409311</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8409799885327421</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8438130239020076</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8530475841352901</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.859523554605085</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8602489327950416</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8604527158490941</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8605211946601558</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8642740753839955</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8812137689554248</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8830910772104461</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8836321984268722</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8836420671147451</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8860267114712166</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8862868562352975</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8891595291465122</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8892441330156398</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8910402282575413</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8911906377669478</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8977377477602847</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.9026480281185172</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.9045982285087556</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9053491371625928</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9222027711467379</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9318497059477139</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9318657352902677</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9321249691665758</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9323117273518158</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9330800214631857</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9367770922870081</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9395547670412362</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9415499518649377</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9429829047669693</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9465696087855272</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9468728777031024</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.947546099410391</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9475763197042139</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9494734995637218</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9499209753111665</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9543864492302869</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9580413843275707</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9591336284192389</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9612925663109179</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9629778673764748</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9630304421496629</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9634744584327819</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9634763260870283</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9689583741154213</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9769425947628367</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9770771235391519</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9771024189501394</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9792397350271798</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.981209781905974</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9814412197513603</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9816827712918269</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9816827712918269</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9829734446464573</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.989842187250193</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9913074873699476</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9914133799824478</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9959056922250196</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9989134538224983</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.036693134786144E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.439188273303111E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>8.057530439491248E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001213837631826579</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001576729449749391</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001656071733657514</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001739562229075468</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002046212108871637</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002223336107423964</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0002404377691813124</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0002416474662491437</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002416474662491437</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0002426074916721213</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0002426074916721213</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002514483916197369</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002543947346121001</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002543947346121001</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0002548993135386704</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002548993135386704</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002548993135386704</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002548993135386704</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002661285704753668</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002661285704753668</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0002781333179898479</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0002919258980658381</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0003062503579750572</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0003265665204782048</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0003265665204782048</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0003899411812658482</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0004060589263164028</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0004184371247889338</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0004520580061522688</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0004555700472752203</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0004560323007196723</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0004771464672591593</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0004771464672591593</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0004844394246529686</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0004844394246529686</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0004844394246529686</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0005567928185846483</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0005666256939826097</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0005666256939826097</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0005873597852521712</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.000629648659220634</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0006464289794872689</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0006500143666356323</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0006598472420335938</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0006992575819385414</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0007290861922823295</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0007343470506402135</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0007373620573307028</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0007906307417355959</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0007966886735455267</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0007966886735455267</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0008250151123999884</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0008558015994412216</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.000856636169719122</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0008963451987763271</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0008966989297290365</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0008988284275537716</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0009127531002893292</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0009432257101704791</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0009694351827819541</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0009995247938141944</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001018748334935124</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.001028510228275832</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.001078396430815627</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.001091926583420606</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.001091939576693788</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.001092360089872017</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001093943909830968</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001097981665266132</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001123769445365822</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.001126993955046184</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.001126993955046184</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001139703877213117</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.001164265348455186</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001169963172949635</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.001190063238657076</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001214972156707345</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.001214972156707345</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.001228323896979631</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.001232132834399784</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001239265515052464</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.001239619246005173</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001259463629077347</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.001269910966163008</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.001288070560580439</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001309346086075377</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001725636393109545</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1946964254013722</v>
+        <v>0.379378359218389</v>
       </c>
       <c r="CO4">
-        <v>0.2353964787856631</v>
+        <v>0.4042762746209148</v>
       </c>
       <c r="CP4">
-        <v>0.4695446625455738</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="CQ4">
-        <v>0.4695446625455738</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="CR4">
-        <v>0.4818578382061181</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="CS4">
-        <v>0.4824864345081304</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="CT4">
-        <v>0.4868687505450116</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="CU4">
-        <v>0.4870220292853603</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="CV4">
-        <v>0.5132260138750901</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="CW4">
-        <v>0.521492591149217</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="CX4">
-        <v>0.531779615551731</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="CY4">
-        <v>0.5980005630817455</v>
+        <v>0.9638236126750899</v>
       </c>
       <c r="CZ4">
-        <v>0.6234567225725489</v>
+        <v>0.9638236126750899</v>
       </c>
       <c r="DA4">
-        <v>0.6235707914277907</v>
+        <v>0.9638236126750899</v>
       </c>
       <c r="DB4">
-        <v>0.6237045931009103</v>
+        <v>0.9638236126750899</v>
       </c>
       <c r="DC4">
-        <v>0.6251343962235398</v>
+        <v>0.9638236126750899</v>
       </c>
       <c r="DD4">
-        <v>0.6265277185215242</v>
+        <v>0.9638236126750899</v>
       </c>
       <c r="DE4">
-        <v>0.626624164616763</v>
+        <v>0.9638236126750899</v>
       </c>
       <c r="DF4">
-        <v>0.6698541510277857</v>
+        <v>0.9946111153214507</v>
       </c>
       <c r="DG4">
-        <v>0.6738533463916311</v>
+        <v>0.9946111153214507</v>
       </c>
       <c r="DH4">
-        <v>0.6791951394428832</v>
+        <v>0.9946111153214507</v>
       </c>
       <c r="DI4">
-        <v>0.6837389054532402</v>
+        <v>0.9946111153214507</v>
       </c>
       <c r="DJ4">
-        <v>0.684803435637391</v>
+        <v>0.9946111153214507</v>
       </c>
       <c r="DK4">
-        <v>0.7171231833899453</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.7177598498001579</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.7288916595035506</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.7448907831274744</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7506126574498404</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7670546347763005</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7774342805215011</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7784091968585682</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7811444664151487</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7937670933592778</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7938997057468719</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.8022974589990269</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.8044692032553252</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.8061794439156712</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.8099939230984121</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8179176634772835</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8269022619479861</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.8284915823613439</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.8298938621332622</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.8336964523615202</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8354494168828793</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8376951417902706</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8383180591176215</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8469176853486051</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8470737949095682</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8586466969666806</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8591234870550627</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8715179318100997</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8733286808750823</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8739806704598893</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8739806704598893</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8739906584930146</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.876457251641047</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8829257688282105</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8830357017343708</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8830446905756167</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8853197017828529</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8903074397171983</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.892150369455226</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8923673702250551</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8926612072514999</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.893466398306253</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8935126877124849</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.900282870241309</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.9009733297446803</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.9017640144366001</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9123974684458686</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9376921309538864</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9405419905038145</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9408375927698465</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9416910889309198</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9426946763459936</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9448728043665295</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9487616106689778</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9530529569902597</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9545450662519673</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9567584734591766</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9576854981117974</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9584650263242933</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.958964034682771</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9590140748307981</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9596079638093886</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9603321129846465</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9651221687701133</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9656753614392261</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9702630573494394</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9703842065068609</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9730190631777212</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9740000063083317</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.974125978920988</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9761432731900844</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9821905936636512</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9838572397905566</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9841408096937052</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9846875773404096</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9855364492156915</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9858922045043995</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9859251498279757</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9862350634182155</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.986791991577103</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9903122705965837</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9953898223176085</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9960261690045034</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9960380049630909</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9991448318026988</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9998003233310289</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.655051884173488E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.462723107256246E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.712845153928621E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5.914195937189576E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6.630100963823746E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.923035976264099E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001031079706064933</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001230770495130761</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001375589957959838</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001375589957959838</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001375589957959838</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001375589957959838</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0001486676660565931</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001721019162218046</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001721019162218046</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0002057714123411665</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0003953107379362006</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0004367208282326204</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0004414304008582768</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.000490279704618803</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0005605314527479563</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0005783864238967313</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0005826531747138004</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0005886248324206671</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0005902548056385306</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0005927635829135946</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0006274308304757367</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0006318959588509346</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0006349351330801766</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0006743576124064626</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0007081508325865241</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0007594934172703157</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0007963901504525917</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0008306191160337476</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0008832874724655619</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0009098661331057037</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0009098661331057037</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001015557904815348</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001021701447579667</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001027564440605468</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001048402331645849</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.001067349780236856</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001067349780236856</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.001067349780236856</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.001067349780236856</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0011036674747688</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.001154073161912256</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.001154073161912256</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.001154073161912256</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.00120500272534854</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001244759185692658</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001244759185692658</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001248298064859762</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001248298064859762</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001259136726947596</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001263445913195288</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001269047497404364</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001269047497404364</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001269047497404364</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.001275748864605884</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.001283853745976772</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001283853745976772</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001290442278900222</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001352546662498136</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.001380705823542332</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00140119428494281</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001435423250523966</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.001475783216757671</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.001519504370484416</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.001532368146901098</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.00153807685383084</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.00153807685383084</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.00153807685383084</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.001541206649503039</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001541206649503039</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001542997466201184</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001551520312898966</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001556595805935691</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001563804660222132</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001564101280870309</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001564101280870309</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001564101280870309</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001589795310523987</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.001593522958264328</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.001593522958264328</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.001620577401242301</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.001633359419736611</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001636398593965854</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.001638687173292105</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001680233288310609</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1128792497106095</v>
+        <v>0.2038979843201993</v>
       </c>
       <c r="CO5">
-        <v>0.1249670303658475</v>
+        <v>0.2038979843201993</v>
       </c>
       <c r="CP5">
-        <v>0.4665360612032849</v>
+        <v>0.9863847630624196</v>
       </c>
       <c r="CQ5">
-        <v>0.4996730031871829</v>
+        <v>0.9942249329397839</v>
       </c>
       <c r="CR5">
-        <v>0.5319877070455908</v>
+        <v>1</v>
       </c>
       <c r="CS5">
-        <v>0.5419740148125646</v>
+        <v>1</v>
       </c>
       <c r="CT5">
-        <v>0.5419740148125646</v>
+        <v>1</v>
       </c>
       <c r="CU5">
-        <v>0.5605966046297679</v>
+        <v>1</v>
       </c>
       <c r="CV5">
-        <v>0.5635601663265524</v>
+        <v>1</v>
       </c>
       <c r="CW5">
-        <v>0.5668382694333399</v>
+        <v>1</v>
       </c>
       <c r="CX5">
-        <v>0.5695281651791261</v>
+        <v>1</v>
       </c>
       <c r="CY5">
-        <v>0.591542686638155</v>
+        <v>1</v>
       </c>
       <c r="CZ5">
-        <v>0.6169114562681129</v>
+        <v>1</v>
       </c>
       <c r="DA5">
-        <v>0.6169780849696519</v>
+        <v>1</v>
       </c>
       <c r="DB5">
-        <v>0.6173494543568787</v>
+        <v>1</v>
       </c>
       <c r="DC5">
-        <v>0.6185155395074774</v>
+        <v>1</v>
       </c>
       <c r="DD5">
-        <v>0.619327866962473</v>
+        <v>1</v>
       </c>
       <c r="DE5">
-        <v>0.6207822064503482</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.629166834621951</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.646265962561163</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.646265962561163</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.6630286359419145</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.6630286359419145</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.6922115321749921</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.7021074916691513</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.7208100522956358</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.7230982899713927</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.7365364396949289</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7413688948194238</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7484283456132035</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7484283456132035</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7519538104876055</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7675029360182349</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7676760169628379</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.7769270497687439</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7786996549862898</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.7791142769931201</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7791380815259134</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.7897829899979096</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7938065248918758</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.7971370210313116</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.8012730865141987</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.806910955585357</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.8116929262659552</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.8116935726355422</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8181627828019141</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8278577195904322</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.8282097373045996</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8338220261432819</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8368715896056881</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8508605073713975</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8561896354453007</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8586329368014287</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8586330979651084</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8586370169203034</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.8656218112147842</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.8770565771441892</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8771754563596095</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8771754563596095</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8789767034165326</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8812114139532706</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8850982169847151</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8854402312182817</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8886675099694611</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8896908172918491</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8896932398910486</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8937394153865613</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8967235245812167</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8974842207079866</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.9004044131925487</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9211046600644844</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9273578614912648</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9273614539110793</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.927454311759266</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9277530341487985</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9298582069037998</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9345749178378036</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9360122092073729</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9367130662937987</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9400588650643755</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9432639067653575</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.943607910267927</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9450704228463568</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.945279225059712</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9472682517739325</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9474910671853138</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9532202851525181</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9539727019025338</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9571979555924173</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9573490502029799</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9592852675252256</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9602712481989614</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9618328163735034</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9623398766849103</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9735040901025016</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9764706987970881</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9769894403941053</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9776814098949581</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9810139634158201</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9811574361391415</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9813662383524967</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9814140627559049</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9820529976745247</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9849451904196372</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9903695187884043</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9909246950385002</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9909250307294831</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9966096372107232</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9980401749738541</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.201971104729967E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.201971104729967E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.201971104729967E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.472129288320567E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.472129288320567E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2.472129288320567E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4.398858463602782E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>6.807921828867609E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.801370631078608E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.882721802591837E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0001180981603516237</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001477527839076004</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001477527839076004</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001553357293198754</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001699837300218778</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001699837300218778</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001699837300218778</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001699837300218778</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0001933634603977713</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001933634603977713</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001933634603977713</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001933634603977713</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001933634603977713</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0001998358655556171</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001998358655556171</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001998358655556171</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002097372898547157</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0002266184069963301</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002266184069963301</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0002266184069963301</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0002266184069963301</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0002284164102643703</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002284164102643703</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0002284164102643703</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0002284164102643703</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0002284164102643703</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0002483508982864803</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0002483508982864803</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0002483508982864803</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002483508982864803</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0002483508982864803</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0002483508982864803</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0002483508982864803</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0002483508982864803</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0002552899419391426</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0002552899419391426</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0002552899419391426</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0002552899419391426</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0002552899419391426</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0002552899419391426</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0002707566634149473</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0002707566634149473</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0002707566634149473</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0002707566634149473</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0002961671192680262</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0002961671192680262</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0002961671192680262</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0002961671192680262</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0002961671192680262</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0002961671192680262</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0002961671192680262</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0003191941302569888</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0003191941302569888</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0003191941302569888</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0003218331110037406</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0003218331110037406</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0003218331110037406</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0003298078587691017</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0003403591922748982</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0003403591922748982</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0003702063366288639</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.000389473628381686</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.000389473628381686</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0004177933364897359</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0004238500417361052</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0004238500417361052</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0004238500417361052</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0004536971860900708</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0004536971860900708</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0004837991636046225</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0004837991636046225</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0004837991636046225</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0004911644885700558</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.000493070474622582</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0005035267588355248</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0005035267588355248</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0005093750235992161</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0005112810096517422</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0005112810096517422</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0005112810096517422</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02787989818872845</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.138843468868273</v>
+        <v>0.2226183562416228</v>
       </c>
       <c r="CP6">
-        <v>0.3524367489159839</v>
+        <v>0.7275725852188821</v>
       </c>
       <c r="CQ6">
-        <v>0.4600055600324512</v>
+        <v>0.9408519068878672</v>
       </c>
       <c r="CR6">
-        <v>0.4956606395555379</v>
+        <v>0.9562954722627666</v>
       </c>
       <c r="CS6">
-        <v>0.5230392441028722</v>
+        <v>0.9562954722627666</v>
       </c>
       <c r="CT6">
-        <v>0.5231753272139568</v>
+        <v>0.9562954722627666</v>
       </c>
       <c r="CU6">
-        <v>0.569103328578707</v>
+        <v>1</v>
       </c>
       <c r="CV6">
-        <v>0.5709553651513768</v>
+        <v>1</v>
       </c>
       <c r="CW6">
-        <v>0.5895226876815095</v>
+        <v>1</v>
       </c>
       <c r="CX6">
-        <v>0.5914893348646033</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.5923375372871544</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.6119008979499565</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.6133306725996643</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.6141877429036604</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.6144745541142933</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.615601137507601</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.6156283307567717</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.6224647923564414</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.6425024969139231</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.6436007610594232</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.6576029927941971</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.6582637046264033</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.6780161561224085</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.6964671753985721</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7134453323340662</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7134453323340662</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.726633420254473</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7267161997243291</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7403282429124624</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7406750880233953</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7412136635578384</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7571235797987874</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7594813543611728</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7636667203460632</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7637119238454633</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7692468247017861</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7709642086104508</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7799049332708142</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7811274175378939</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7890931857270705</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.790792201993994</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.7930449528177407</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8003563287040144</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8003945290197209</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8016669814826146</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8195645823517467</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8227215534348199</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8299873479540733</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.837972858475609</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8481488613124477</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8602375753970781</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8605192021618433</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8613977412004507</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8615989364730456</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8633255156725275</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8761019487158632</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.879745621383917</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.879817814729265</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8798448813482229</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8849372801835991</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8851959817809836</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8886642722554662</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8900746406572734</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.893071186757701</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8934254907798481</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8969635460769232</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.9025563055506803</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9045113214066351</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9045183883196555</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9262126286299932</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9400463322906635</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9400532713343162</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9404819565870928</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9408753160475236</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9410099391396024</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9457299795352941</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9479303730084329</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9489881291095346</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9502361800376116</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9522234391653397</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9522415563971124</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9537241283625373</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9545702798785158</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9556588365424877</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9560712248344838</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9603075687711766</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9633986462638171</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9641030604954769</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9651226892923407</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9678109530829119</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9678899730198559</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9692855901689035</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9692855901689035</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9738567129935968</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9797678651593918</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9800926181215823</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9800926181215823</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9809998974401817</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9817441412764178</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9817441412764178</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.981984973027739</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9831664710187648</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.983551380244047</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9883694769618839</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9936445645971836</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9938243525319376</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9948074976829223</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9990918061309769</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0007134842603314454</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5047847777031947</v>
+        <v>0.8275869830059452</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.001136891145732735</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5179856993973332</v>
+        <v>0.7662025738983591</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001309346086075377</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5132260138750901</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.001638687173292105</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5319877070455908</v>
+        <v>0.9863847630624196</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.0005112810096517422</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5230392441028722</v>
+        <v>0.7275725852188821</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -10829,16 +10829,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0007134842603314454</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7078302914724042</v>
+        <v>0.8275869830059452</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.001136891145732735</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7009645524745786</v>
+        <v>0.7662025738983591</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001309346086075377</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7171231833899453</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.001638687173292105</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7021074916691513</v>
+        <v>0.9863847630624196</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.0005112810096517422</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7134453323340662</v>
+        <v>0.7275725852188821</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -11088,16 +11088,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0007134842603314454</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.804179613957806</v>
+        <v>0.8275869830059452</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.001136891145732735</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8074096429572295</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001309346086075377</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8022974589990269</v>
+        <v>0.879514032606451</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.001638687173292105</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8012730865141987</v>
+        <v>0.9863847630624196</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.0005112810096517422</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8003563287040144</v>
+        <v>0.9408519068878672</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -11347,16 +11347,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.0007134842603314454</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9008051226483422</v>
+        <v>0.9667589678684707</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.001136891145732735</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9026480281185172</v>
+        <v>0.9982379778094088</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.001309346086075377</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.900282870241309</v>
+        <v>0.9638236126750899</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.001638687173292105</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9004044131925487</v>
+        <v>0.9863847630624196</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.0005112810096517422</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9025563055506803</v>
+        <v>0.9408519068878672</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>63</v>

--- a/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
@@ -180,7 +180,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ100</t>
+    <t>710R</t>
   </si>
   <si>
     <t>100%</t>
@@ -668,43 +668,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03656784248924663</v>
+        <v>0.05027127526523962</v>
       </c>
       <c r="E2">
-        <v>0.1415634390078012</v>
+        <v>0.1222581803075866</v>
       </c>
       <c r="F2">
-        <v>0.6144041906719606</v>
+        <v>0.4464464645675328</v>
       </c>
       <c r="G2">
-        <v>0.1413457660049958</v>
+        <v>0.1221089397079538</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01700147511216995</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01432126311808001</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.006529660145584581</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00108249413915575</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0009129630852946645</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.007392084423924092</v>
       </c>
       <c r="P2">
-        <v>0.04274451390592478</v>
+        <v>0.05450611437748384</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -725,37 +725,37 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.00118903799273508</v>
+        <v>0.02601491857744207</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.02007506437053477</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.01969252870167964</v>
+        <v>0.03870125088835333</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01350321931201975</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.02031645418555763</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.002492681225656232</v>
+        <v>0.02690872026750446</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.01164945814858224</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -775,28 +775,28 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03817502781330996</v>
+        <v>0.05026589338730262</v>
       </c>
       <c r="E3">
-        <v>0.1996956706246402</v>
+        <v>0.1590547699181399</v>
       </c>
       <c r="F3">
-        <v>0.4925756206866455</v>
+        <v>0.3563179814252341</v>
       </c>
       <c r="G3">
-        <v>0.2227050306402667</v>
+        <v>0.1745522467868859</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0224624715379248</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02200306747644844</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.007983512738412414</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.005114208907091749</v>
+        <v>0.02799846500541998</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -832,37 +832,37 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.007705004658307991</v>
+        <v>0.02974344171050223</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0007629042752564437</v>
+        <v>0.02506773408396289</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01794087410422287</v>
+        <v>0.03663759912565145</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.01435563589175506</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.02150125693530683</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0153256582902585</v>
+        <v>0.03487617479415477</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.01717974918289883</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -882,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3576379301832661</v>
+        <v>0.2943213283311363</v>
       </c>
       <c r="E4">
-        <v>0.03652030472894539</v>
+        <v>0.05230181659181025</v>
       </c>
       <c r="F4">
-        <v>0.4444752805832647</v>
+        <v>0.3597687889456396</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007183637722097465</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.005950128715432373</v>
+        <v>0.02926172633794116</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0007519634961031186</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.003963267529695806</v>
       </c>
       <c r="O4">
-        <v>0.09034029117587283</v>
+        <v>0.09286479354853734</v>
       </c>
       <c r="P4">
-        <v>0.004373070464295843</v>
+        <v>0.02807313113895594</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.04185557865911678</v>
+        <v>0.05632289886578625</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -951,25 +951,25 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01884741548980599</v>
+        <v>0.03898213655671936</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.005305971531258637</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.01304209320757299</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.0137459660589164</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.004110480137829569</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -989,28 +989,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2026187830691445</v>
+        <v>0.1729002386830045</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0076487841857635</v>
       </c>
       <c r="F5">
-        <v>0.7289087177855267</v>
+        <v>0.5570038134192203</v>
       </c>
       <c r="G5">
-        <v>0.02428270854002972</v>
+        <v>0.04274474983070176</v>
       </c>
       <c r="H5">
-        <v>0.02240427114667302</v>
+        <v>0.0413738049007074</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004144928657331091</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.01854448849737875</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.02419996875679432</v>
       </c>
       <c r="P5">
-        <v>0.006535993841070083</v>
+        <v>0.02979261811386093</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1043,34 +1043,34 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.001474395082352065</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.01600436991989613</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.01544338806221371</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01524952561755607</v>
+        <v>0.03615203805171234</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.003994287981948967</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.01867782648321598</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.009900299373898488</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01246818953179735</v>
+        <v>0.03304963354092785</v>
       </c>
       <c r="E6">
-        <v>0.2149196097940752</v>
+        <v>0.1714022291684707</v>
       </c>
       <c r="F6">
-        <v>0.4634696663782181</v>
+        <v>0.3412580169285142</v>
       </c>
       <c r="G6">
-        <v>0.206698133900915</v>
+        <v>0.1657837823912913</v>
       </c>
       <c r="H6">
-        <v>0.03253645920892952</v>
+        <v>0.0467640209035246</v>
       </c>
       <c r="I6">
-        <v>0.01249237707905659</v>
+        <v>0.03306616298755186</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.05741556410700827</v>
+        <v>0.06376606877792257</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01848318056051693</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.02013165879070142</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1153,37 +1153,37 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.02091671466191082</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.01092779432766532</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.02044461078705474</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01829069457430881</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.0158530554669128</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.009580357607921719</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.01028201852480468</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1323,91 +1323,91 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03656784248924663</v>
+        <v>0.05027127526523962</v>
       </c>
       <c r="E2">
-        <v>0.1781312814970478</v>
+        <v>0.1725294555728262</v>
       </c>
       <c r="F2">
-        <v>0.7925354721690084</v>
+        <v>0.6189759201403591</v>
       </c>
       <c r="G2">
-        <v>0.9338812381740043</v>
+        <v>0.7410848598483128</v>
       </c>
       <c r="H2">
-        <v>0.9338812381740043</v>
+        <v>0.7580863349604828</v>
       </c>
       <c r="I2">
-        <v>0.9338812381740043</v>
+        <v>0.7724075980785629</v>
       </c>
       <c r="J2">
-        <v>0.9338812381740043</v>
+        <v>0.7724075980785629</v>
       </c>
       <c r="K2">
-        <v>0.9338812381740043</v>
+        <v>0.7789372582241474</v>
       </c>
       <c r="L2">
-        <v>0.9338812381740043</v>
+        <v>0.7800197523633031</v>
       </c>
       <c r="M2">
-        <v>0.9338812381740043</v>
+        <v>0.7800197523633031</v>
       </c>
       <c r="N2">
-        <v>0.9338812381740043</v>
+        <v>0.7809327154485978</v>
       </c>
       <c r="O2">
-        <v>0.9338812381740043</v>
+        <v>0.7883247998725219</v>
       </c>
       <c r="P2">
-        <v>0.9766257520799291</v>
+        <v>0.8428309142500058</v>
       </c>
       <c r="Q2">
-        <v>0.9766257520799291</v>
+        <v>0.8428309142500058</v>
       </c>
       <c r="R2">
-        <v>0.9766257520799291</v>
+        <v>0.8428309142500058</v>
       </c>
       <c r="S2">
-        <v>0.9766257520799291</v>
+        <v>0.8428309142500058</v>
       </c>
       <c r="T2">
-        <v>0.9766257520799291</v>
+        <v>0.8428309142500058</v>
       </c>
       <c r="U2">
-        <v>0.9766257520799291</v>
+        <v>0.8428309142500058</v>
       </c>
       <c r="V2">
-        <v>0.9766257520799291</v>
+        <v>0.8428309142500058</v>
       </c>
       <c r="W2">
-        <v>0.9778147900726641</v>
+        <v>0.8688458328274479</v>
       </c>
       <c r="X2">
-        <v>0.9778147900726641</v>
+        <v>0.8688458328274479</v>
       </c>
       <c r="Y2">
-        <v>0.9778147900726641</v>
+        <v>0.8889208971979826</v>
       </c>
       <c r="Z2">
-        <v>0.9778147900726641</v>
+        <v>0.8889208971979826</v>
       </c>
       <c r="AA2">
-        <v>0.9975073187743437</v>
+        <v>0.9276221480863359</v>
       </c>
       <c r="AB2">
-        <v>0.9975073187743437</v>
+        <v>0.9411253673983557</v>
       </c>
       <c r="AC2">
-        <v>0.9975073187743437</v>
+        <v>0.9614418215839133</v>
       </c>
       <c r="AD2">
-        <v>0.9975073187743437</v>
+        <v>0.9614418215839133</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9883505418514178</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9883505418514178</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03817502781330996</v>
+        <v>0.05026589338730262</v>
       </c>
       <c r="E3">
-        <v>0.2378706984379502</v>
+        <v>0.2093206633054425</v>
       </c>
       <c r="F3">
-        <v>0.7304463191245956</v>
+        <v>0.5656386447306766</v>
       </c>
       <c r="G3">
-        <v>0.9531513497648623</v>
+        <v>0.7401908915175625</v>
       </c>
       <c r="H3">
-        <v>0.9531513497648623</v>
+        <v>0.7626533630554873</v>
       </c>
       <c r="I3">
-        <v>0.9531513497648623</v>
+        <v>0.7846564305319357</v>
       </c>
       <c r="J3">
-        <v>0.9531513497648623</v>
+        <v>0.7846564305319357</v>
       </c>
       <c r="K3">
-        <v>0.9531513497648623</v>
+        <v>0.7926399432703481</v>
       </c>
       <c r="L3">
-        <v>0.9531513497648623</v>
+        <v>0.7926399432703481</v>
       </c>
       <c r="M3">
-        <v>0.9531513497648623</v>
+        <v>0.7926399432703481</v>
       </c>
       <c r="N3">
-        <v>0.9531513497648623</v>
+        <v>0.7926399432703481</v>
       </c>
       <c r="O3">
-        <v>0.9531513497648623</v>
+        <v>0.7926399432703481</v>
       </c>
       <c r="P3">
-        <v>0.9582655586719541</v>
+        <v>0.8206384082757682</v>
       </c>
       <c r="Q3">
-        <v>0.9582655586719541</v>
+        <v>0.8206384082757682</v>
       </c>
       <c r="R3">
-        <v>0.9582655586719541</v>
+        <v>0.8206384082757682</v>
       </c>
       <c r="S3">
-        <v>0.9582655586719541</v>
+        <v>0.8206384082757682</v>
       </c>
       <c r="T3">
-        <v>0.9582655586719541</v>
+        <v>0.8206384082757682</v>
       </c>
       <c r="U3">
-        <v>0.9582655586719541</v>
+        <v>0.8206384082757682</v>
       </c>
       <c r="V3">
-        <v>0.9582655586719541</v>
+        <v>0.8206384082757682</v>
       </c>
       <c r="W3">
-        <v>0.9659705633302621</v>
+        <v>0.8503818499862704</v>
       </c>
       <c r="X3">
-        <v>0.9659705633302621</v>
+        <v>0.8503818499862704</v>
       </c>
       <c r="Y3">
-        <v>0.9667334676055186</v>
+        <v>0.8754495840702333</v>
       </c>
       <c r="Z3">
-        <v>0.9667334676055186</v>
+        <v>0.8754495840702333</v>
       </c>
       <c r="AA3">
-        <v>0.9846743417097414</v>
+        <v>0.9120871831958848</v>
       </c>
       <c r="AB3">
-        <v>0.9846743417097414</v>
+        <v>0.9264428190876398</v>
       </c>
       <c r="AC3">
-        <v>0.9846743417097414</v>
+        <v>0.9479440760229466</v>
       </c>
       <c r="AD3">
-        <v>0.9846743417097414</v>
+        <v>0.9479440760229466</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.9828202508171013</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.9828202508171013</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3576379301832661</v>
+        <v>0.2943213283311363</v>
       </c>
       <c r="E4">
-        <v>0.3941582349122115</v>
+        <v>0.3466231449229466</v>
       </c>
       <c r="F4">
-        <v>0.8386335154954762</v>
+        <v>0.7063919338685862</v>
       </c>
       <c r="G4">
-        <v>0.8386335154954762</v>
+        <v>0.7063919338685862</v>
       </c>
       <c r="H4">
-        <v>0.8386335154954762</v>
+        <v>0.7135755715906837</v>
       </c>
       <c r="I4">
-        <v>0.8386335154954762</v>
+        <v>0.7135755715906837</v>
       </c>
       <c r="J4">
-        <v>0.8386335154954762</v>
+        <v>0.7135755715906837</v>
       </c>
       <c r="K4">
-        <v>0.8386335154954762</v>
+        <v>0.7135755715906837</v>
       </c>
       <c r="L4">
-        <v>0.8445836442109085</v>
+        <v>0.7428372979286249</v>
       </c>
       <c r="M4">
-        <v>0.8445836442109085</v>
+        <v>0.7435892614247279</v>
       </c>
       <c r="N4">
-        <v>0.8445836442109085</v>
+        <v>0.7475525289544237</v>
       </c>
       <c r="O4">
-        <v>0.9349239353867813</v>
+        <v>0.8404173225029611</v>
       </c>
       <c r="P4">
-        <v>0.9392970058510771</v>
+        <v>0.868490453641917</v>
       </c>
       <c r="Q4">
-        <v>0.9392970058510771</v>
+        <v>0.868490453641917</v>
       </c>
       <c r="R4">
-        <v>0.9392970058510771</v>
+        <v>0.868490453641917</v>
       </c>
       <c r="S4">
-        <v>0.9392970058510771</v>
+        <v>0.868490453641917</v>
       </c>
       <c r="T4">
-        <v>0.9392970058510771</v>
+        <v>0.868490453641917</v>
       </c>
       <c r="U4">
-        <v>0.9392970058510771</v>
+        <v>0.868490453641917</v>
       </c>
       <c r="V4">
-        <v>0.9811525845101939</v>
+        <v>0.9248133525077032</v>
       </c>
       <c r="W4">
-        <v>0.9811525845101939</v>
+        <v>0.9248133525077032</v>
       </c>
       <c r="X4">
-        <v>0.9811525845101939</v>
+        <v>0.9248133525077032</v>
       </c>
       <c r="Y4">
-        <v>0.9811525845101939</v>
+        <v>0.9248133525077032</v>
       </c>
       <c r="Z4">
-        <v>0.9811525845101939</v>
+        <v>0.9248133525077032</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999999</v>
+        <v>0.9637954890644226</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999999</v>
+        <v>0.9637954890644226</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999999</v>
+        <v>0.9691014605956813</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999999</v>
+        <v>0.9821435538032542</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9821435538032542</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9958895198621707</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,85 +1644,85 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2026187830691445</v>
+        <v>0.1729002386830045</v>
       </c>
       <c r="E5">
-        <v>0.2026187830691445</v>
+        <v>0.180549022868768</v>
       </c>
       <c r="F5">
-        <v>0.9315275008546712</v>
+        <v>0.7375528362879883</v>
       </c>
       <c r="G5">
-        <v>0.9558102093947008</v>
+        <v>0.78029758611869</v>
       </c>
       <c r="H5">
-        <v>0.9782144805413738</v>
+        <v>0.8216713910193975</v>
       </c>
       <c r="I5">
-        <v>0.9782144805413738</v>
+        <v>0.8258163196767285</v>
       </c>
       <c r="J5">
-        <v>0.9782144805413738</v>
+        <v>0.8258163196767285</v>
       </c>
       <c r="K5">
-        <v>0.9782144805413738</v>
+        <v>0.8443608081741073</v>
       </c>
       <c r="L5">
-        <v>0.9782144805413738</v>
+        <v>0.8443608081741073</v>
       </c>
       <c r="M5">
-        <v>0.9782144805413738</v>
+        <v>0.8443608081741073</v>
       </c>
       <c r="N5">
-        <v>0.9782144805413738</v>
+        <v>0.8443608081741073</v>
       </c>
       <c r="O5">
-        <v>0.9782144805413738</v>
+        <v>0.8685607769309016</v>
       </c>
       <c r="P5">
-        <v>0.9847504743824439</v>
+        <v>0.8983533950447625</v>
       </c>
       <c r="Q5">
-        <v>0.9847504743824439</v>
+        <v>0.8983533950447625</v>
       </c>
       <c r="R5">
-        <v>0.9847504743824439</v>
+        <v>0.8983533950447625</v>
       </c>
       <c r="S5">
-        <v>0.9847504743824439</v>
+        <v>0.8983533950447625</v>
       </c>
       <c r="T5">
-        <v>0.9847504743824439</v>
+        <v>0.8983533950447625</v>
       </c>
       <c r="U5">
-        <v>0.9847504743824439</v>
+        <v>0.8983533950447625</v>
       </c>
       <c r="V5">
-        <v>0.9847504743824439</v>
+        <v>0.8998277901271146</v>
       </c>
       <c r="W5">
-        <v>0.9847504743824439</v>
+        <v>0.9158321600470107</v>
       </c>
       <c r="X5">
-        <v>0.9847504743824439</v>
+        <v>0.9158321600470107</v>
       </c>
       <c r="Y5">
-        <v>0.9847504743824439</v>
+        <v>0.9312755481092244</v>
       </c>
       <c r="Z5">
-        <v>0.9847504743824439</v>
+        <v>0.9312755481092244</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9674275861609367</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9714218741428857</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9900997006261018</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9900997006261018</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -1751,91 +1751,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01246818953179735</v>
+        <v>0.03304963354092785</v>
       </c>
       <c r="E6">
-        <v>0.2273877993258726</v>
+        <v>0.2044518627093985</v>
       </c>
       <c r="F6">
-        <v>0.6908574657040907</v>
+        <v>0.5457098796379127</v>
       </c>
       <c r="G6">
-        <v>0.8975555996050057</v>
+        <v>0.7114936620292041</v>
       </c>
       <c r="H6">
-        <v>0.9300920588139353</v>
+        <v>0.7582576829327287</v>
       </c>
       <c r="I6">
-        <v>0.9425844358929919</v>
+        <v>0.7913238459202805</v>
       </c>
       <c r="J6">
-        <v>0.9425844358929919</v>
+        <v>0.7913238459202805</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.8550899146982031</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.8550899146982031</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.87357309525872</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.87357309525872</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.87357309525872</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8937047540494214</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.8937047540494214</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.8937047540494214</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.8937047540494214</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.8937047540494214</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.8937047540494214</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.8937047540494214</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9146214687113322</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9146214687113322</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9255492630389975</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9255492630389975</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9459938738260523</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.964284568400361</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9801376238672739</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9801376238672739</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9897179814751956</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9897179814751956</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1918,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7925354721690084</v>
+        <v>0.6189759201403591</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -1950,7 +1950,7 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7304463191245956</v>
+        <v>0.5656386447306766</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8386335154954762</v>
+        <v>0.7063919338685862</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9315275008546712</v>
+        <v>0.7375528362879883</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6908574657040907</v>
+        <v>0.5457098796379127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2168,19 +2168,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.7410848598483128</v>
+      </c>
+      <c r="G2">
         <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7925354721690084</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -2209,19 +2209,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7401908915175625</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7304463191245956</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8386335154954762</v>
+        <v>0.7063919338685862</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9315275008546712</v>
+        <v>0.7375528362879883</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8975555996050057</v>
+        <v>0.7114936620292041</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2427,19 +2427,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9338812381740043</v>
+        <v>0.8428309142500058</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -2468,19 +2468,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9531513497648623</v>
+        <v>0.8206384082757682</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8386335154954762</v>
+        <v>0.8404173225029611</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9315275008546712</v>
+        <v>0.8216713910193975</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -2594,16 +2594,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8975555996050057</v>
+        <v>0.8550899146982031</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -2686,19 +2686,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9338812381740043</v>
+        <v>0.9276221480863359</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -2727,19 +2727,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9531513497648623</v>
+        <v>0.9120871831958848</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9349239353867813</v>
+        <v>0.9248133525077032</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9315275008546712</v>
+        <v>0.9158321600470107</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -2853,16 +2853,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9300920588139353</v>
+        <v>0.9146214687113322</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>63</v>
